--- a/examples/oucru/oucru-dr/resources/outputs/templates/ccfgs_dr_data_fixed.xlsx
+++ b/examples/oucru/oucru-dr/resources/outputs/templates/ccfgs_dr_data_fixed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbit/Desktop/repositories/github/datablend/main/examples/oucru/oucru-dr/resources/outputs/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F3E9A1B-D66B-5147-9F11-635860949330}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3139126-7EE0-5342-BED0-F275858F4184}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35840" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DR1_2232_ENROL" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1338" uniqueCount="531">
   <si>
     <t>from_name</t>
   </si>
@@ -2048,10 +2048,10 @@
   <dimension ref="A1:J88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D67" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D68" sqref="D68"/>
+      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3195,6 +3195,9 @@
       <c r="D63" t="s">
         <v>494</v>
       </c>
+      <c r="E63" t="s">
+        <v>426</v>
+      </c>
       <c r="F63" t="b">
         <v>0</v>
       </c>
@@ -3212,6 +3215,9 @@
       <c r="D64" t="s">
         <v>494</v>
       </c>
+      <c r="E64" t="s">
+        <v>426</v>
+      </c>
       <c r="F64" t="b">
         <v>0</v>
       </c>
@@ -3287,6 +3293,9 @@
       </c>
       <c r="D69" t="s">
         <v>506</v>
+      </c>
+      <c r="E69" t="s">
+        <v>426</v>
       </c>
       <c r="F69" t="b">
         <v>0</v>
@@ -3588,8 +3597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4637,7 +4646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -5691,7 +5700,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>

--- a/examples/oucru/oucru-dr/resources/outputs/templates/ccfgs_dr_data_fixed.xlsx
+++ b/examples/oucru/oucru-dr/resources/outputs/templates/ccfgs_dr_data_fixed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbit/Desktop/repositories/github/datablend/main/examples/oucru/oucru-dr/resources/outputs/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kelda\Desktop\repositories\github\datablend\main\examples\oucru\oucru-dr\resources\outputs\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3139126-7EE0-5342-BED0-F275858F4184}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF71D2D5-B1D9-49D0-A2B5-B49B0C17E37B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DR1_2232_ENROL" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1338" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="540">
   <si>
     <t>from_name</t>
   </si>
@@ -365,18 +365,12 @@
     <t>fever</t>
   </si>
   <si>
-    <t>fever_days</t>
-  </si>
-  <si>
     <t>headache</t>
   </si>
   <si>
     <t>muscle_pain</t>
   </si>
   <si>
-    <t>short_breathe</t>
-  </si>
-  <si>
     <t>short_breathe_days</t>
   </si>
   <si>
@@ -398,9 +392,6 @@
     <t>weight</t>
   </si>
   <si>
-    <t>exam_rash</t>
-  </si>
-  <si>
     <t>exam_rash_desc</t>
   </si>
   <si>
@@ -467,13 +458,7 @@
     <t>day of fu</t>
   </si>
   <si>
-    <t>date follow up</t>
-  </si>
-  <si>
     <t>whynot?</t>
-  </si>
-  <si>
-    <t>first fever date</t>
   </si>
   <si>
     <t>check days of illness</t>
@@ -631,9 +616,6 @@
     <t>search</t>
   </si>
   <si>
-    <t>date first fever</t>
-  </si>
-  <si>
     <t>day of illness</t>
   </si>
   <si>
@@ -770,54 +752,21 @@
     <t>st.code</t>
   </si>
   <si>
-    <t>st.no</t>
-  </si>
-  <si>
-    <t>date sample</t>
-  </si>
-  <si>
-    <t>ig_m</t>
-  </si>
-  <si>
-    <t>ig_g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pcr </t>
-  </si>
-  <si>
     <t>od value</t>
   </si>
   <si>
-    <t>plasma ns1</t>
-  </si>
-  <si>
     <t>od value.1</t>
   </si>
   <si>
-    <t>urine ns1</t>
-  </si>
-  <si>
     <t>urine albumin (ug/ml)</t>
   </si>
   <si>
-    <t>urine albumin (mg/l)</t>
-  </si>
-  <si>
-    <t>urine creatinine (mg/l)</t>
-  </si>
-  <si>
     <t>urine creatinine (mmol/l)</t>
   </si>
   <si>
     <t>unnamed: 16</t>
   </si>
   <si>
-    <t>{'V_0': 'DR'}</t>
-  </si>
-  <si>
-    <t>{'V_0': 'Neg'}</t>
-  </si>
-  <si>
     <t>Date  serology ELISA</t>
   </si>
   <si>
@@ -935,9 +884,6 @@
     <t>Big Sample</t>
   </si>
   <si>
-    <t>fever date</t>
-  </si>
-  <si>
     <t>search field</t>
   </si>
   <si>
@@ -1172,33 +1118,15 @@
     <t>d3-d5</t>
   </si>
   <si>
-    <t xml:space="preserve"> ig_g</t>
-  </si>
-  <si>
-    <t>ig_g indirect</t>
-  </si>
-  <si>
     <t>primary/ secondary assessment</t>
   </si>
   <si>
     <t xml:space="preserve">od value ns1 plasma (qualitative test)  </t>
   </si>
   <si>
-    <t>ns1 plasma result</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ns1 plasma concentration (ng/ml) </t>
-  </si>
-  <si>
     <t>od value ns1 urine</t>
   </si>
   <si>
-    <t>ns 1 urine</t>
-  </si>
-  <si>
-    <t>ns1 urine concentration (ng/ml)</t>
-  </si>
-  <si>
     <t>ns1 urine (ng/l)</t>
   </si>
   <si>
@@ -1256,60 +1184,6 @@
     <t>check</t>
   </si>
   <si>
-    <t>{'V_0': 1}</t>
-  </si>
-  <si>
-    <t>{'V_0': 'DR', 'V_1': 'DRDF', 'V_2': 'DRDF(1407)'}</t>
-  </si>
-  <si>
-    <t>{'V_0': 2}</t>
-  </si>
-  <si>
-    <t>{'V_0': 3}</t>
-  </si>
-  <si>
-    <t>{'V_0': 4}</t>
-  </si>
-  <si>
-    <t>{'V_0': 5}</t>
-  </si>
-  <si>
-    <t>{'V_0': 6}</t>
-  </si>
-  <si>
-    <t>{'V_0': 7}</t>
-  </si>
-  <si>
-    <t>{'V_0': 8}</t>
-  </si>
-  <si>
-    <t>{'V_0': 9}</t>
-  </si>
-  <si>
-    <t>{'V_1': 'Missing', 'V_2': 17600, 'V_3': 52.66, 'V_4': 'Below limit'}</t>
-  </si>
-  <si>
-    <t>{'V_1': 'Missing', 'V_2': 15714285.71428571, 'V_3': 47017.85714285714}</t>
-  </si>
-  <si>
-    <t>{'V_1': 'Missing', 'V_2': 7.196294645143968, 'V_3': 4.672262832099868}</t>
-  </si>
-  <si>
-    <t>{'V_0': 'Pos', 'V_2': 'neg', 'V_3': 'pos', 'V_4': 'Equivocal'}</t>
-  </si>
-  <si>
-    <t>{'V_0': 'Neg', 'V_2': 'Pos', 'V_3': 'neg', 'V_4': 'pos', 'V_5': 'Equivocal'}</t>
-  </si>
-  <si>
-    <t>{'V_0': 'Pos', 'V_2': 'Neg'}</t>
-  </si>
-  <si>
-    <t>{'V_0': 2, 'V_1': 0, 'V_2': 1}</t>
-  </si>
-  <si>
-    <t>{'V_1': 0}</t>
-  </si>
-  <si>
     <t>study_no</t>
   </si>
   <si>
@@ -1607,12 +1481,6 @@
     <t>{'Neg': 'Negative', 'Equivocal': 'Equivocal', 'Pos': 'Positive', 'pos': 'Positive', 'neg': 'Negative'}</t>
   </si>
   <si>
-    <t>{'Neg': 'Negative', 'Equivocal': 'Equivocal', 'Pos': 'Positive'}</t>
-  </si>
-  <si>
-    <t>{1: 'V_0', 2: 'V_1', 9: 'V_2'}</t>
-  </si>
-  <si>
     <t>{'YES++': 500}</t>
   </si>
   <si>
@@ -1635,6 +1503,165 @@
   </si>
   <si>
     <t>event_pcr</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>from onset?</t>
+  </si>
+  <si>
+    <t>date_fever</t>
+  </si>
+  <si>
+    <t>is this the duration? Or the day from admission?</t>
+  </si>
+  <si>
+    <t>shortness_of_breath</t>
+  </si>
+  <si>
+    <t>fever_duration</t>
+  </si>
+  <si>
+    <t>date_first_fever</t>
+  </si>
+  <si>
+    <t>date_followup</t>
+  </si>
+  <si>
+    <t>event_fever</t>
+  </si>
+  <si>
+    <t>ignore compute with neu + lym</t>
+  </si>
+  <si>
+    <t>empty + ignore because contained in hct daily</t>
+  </si>
+  <si>
+    <t>difference?</t>
+  </si>
+  <si>
+    <t>collect?</t>
+  </si>
+  <si>
+    <t>mg/L</t>
+  </si>
+  <si>
+    <t>mmol/L</t>
+  </si>
+  <si>
+    <t>Date elisa performed way later than patient stay</t>
+  </si>
+  <si>
+    <t>Date PCR performed way later than patient stay</t>
+  </si>
+  <si>
+    <t>some values missing better the date_sample from above</t>
+  </si>
+  <si>
+    <t>date_sample_some_missing</t>
+  </si>
+  <si>
+    <t>igm</t>
+  </si>
+  <si>
+    <t>igg</t>
+  </si>
+  <si>
+    <t>pcr _dengue_interpretation</t>
+  </si>
+  <si>
+    <t>urine?</t>
+  </si>
+  <si>
+    <t>whatever ven further in time.</t>
+  </si>
+  <si>
+    <t>is it level or day?</t>
+  </si>
+  <si>
+    <t>way after patient stay</t>
+  </si>
+  <si>
+    <t>igg_indirect_interpretation</t>
+  </si>
+  <si>
+    <t>ns1_plasma_concentration</t>
+  </si>
+  <si>
+    <t>ng/mL</t>
+  </si>
+  <si>
+    <t>ns1_urine_concentration</t>
+  </si>
+  <si>
+    <t>same as other sheets? Urine_creatinine?</t>
+  </si>
+  <si>
+    <t>{'&lt;0.01': 0.01}</t>
+  </si>
+  <si>
+    <t>got it from POSITIVE_PCR?</t>
+  </si>
+  <si>
+    <t>{1: 1, 2: 2, 9: 9}</t>
+  </si>
+  <si>
+    <t>{0: 'V_1'}</t>
+  </si>
+  <si>
+    <t>{2:2, 0: 0, 1: 1}</t>
+  </si>
+  <si>
+    <t>{1:1}</t>
+  </si>
+  <si>
+    <t>{'DR': 'DR'}</t>
+  </si>
+  <si>
+    <t>{'Missing': 'Missing', 17600: 17600, 52.66: 52.66, 'Below limit': 'Below limit'}</t>
+  </si>
+  <si>
+    <t>{'Missing': 'Missing', 15714285.71428571: 15714285.71428571, 47017.85714285714: 47017.85714285714}</t>
+  </si>
+  <si>
+    <t>{'Missing': 'Missing', 7.196294645143968: 7.196294645143968, 4.672262832099868: 4.672262832099868}</t>
+  </si>
+  <si>
+    <t>{1: 1}</t>
+  </si>
+  <si>
+    <t>{'DR': 'DR', 'DRDF': 'DRDF', 'DRDF(1407)': 'DRDF(1407)'}</t>
+  </si>
+  <si>
+    <t>{2: 2}</t>
+  </si>
+  <si>
+    <t>{3: 3}</t>
+  </si>
+  <si>
+    <t>{4: 4}</t>
+  </si>
+  <si>
+    <t>{5: 5}</t>
+  </si>
+  <si>
+    <t>{6: 6}</t>
+  </si>
+  <si>
+    <t>{7: 7}</t>
+  </si>
+  <si>
+    <t>{8: 8}</t>
+  </si>
+  <si>
+    <t>{9: 9}</t>
+  </si>
+  <si>
+    <t>{'Neg': 'Negative', 'Equivocal': 'Equivocal', 'Pos': 'Positive', 'pos': 'Positive', 'neg': 'Negative', 'Neg ': 'Negative', ' Neg':'Negative'}</t>
+  </si>
+  <si>
+    <t>{'Mising': None, 'Missing': None}</t>
   </si>
 </sst>
 </file>
@@ -1665,15 +1692,33 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1696,17 +1741,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2045,30 +2107,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J88"/>
+  <dimension ref="A1:K88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomRight" activeCell="I87" sqref="I87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="84.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.1640625" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.1640625" customWidth="1"/>
-    <col min="10" max="10" width="16.5" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="84.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2099,8 +2161,11 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1" s="5" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2108,47 +2173,47 @@
         <v>97</v>
       </c>
       <c r="C2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>422</v>
+        <v>380</v>
       </c>
       <c r="C3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>423</v>
+        <v>381</v>
       </c>
       <c r="C4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E4" t="s">
-        <v>426</v>
+        <v>384</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2156,13 +2221,13 @@
         <v>98</v>
       </c>
       <c r="C5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -2170,47 +2235,47 @@
         <v>99</v>
       </c>
       <c r="C6" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>424</v>
+        <v>382</v>
       </c>
       <c r="C7" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D7" t="s">
-        <v>495</v>
+        <v>453</v>
       </c>
       <c r="E7" t="s">
-        <v>426</v>
+        <v>384</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>426</v>
+        <v>384</v>
       </c>
       <c r="C8" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -2218,16 +2283,16 @@
         <v>101</v>
       </c>
       <c r="C9" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D9" t="s">
-        <v>497</v>
+        <v>455</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -2235,13 +2300,13 @@
         <v>102</v>
       </c>
       <c r="C10" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -2249,13 +2314,13 @@
         <v>103</v>
       </c>
       <c r="C11" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -2263,13 +2328,13 @@
         <v>104</v>
       </c>
       <c r="C12" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -2277,27 +2342,30 @@
         <v>105</v>
       </c>
       <c r="C13" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="14" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C14" t="s">
-        <v>147</v>
-      </c>
-      <c r="F14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C14" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F14" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -2305,1284 +2373,1308 @@
         <v>107</v>
       </c>
       <c r="C15" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D15" t="s">
-        <v>494</v>
+        <v>452</v>
+      </c>
+      <c r="E15" t="s">
+        <v>384</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="16" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>108</v>
-      </c>
-      <c r="C16" t="s">
-        <v>146</v>
-      </c>
-      <c r="F16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B16" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F16" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C17" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D17" t="s">
-        <v>494</v>
+        <v>452</v>
       </c>
       <c r="E17" t="s">
-        <v>426</v>
+        <v>384</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="18" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B18" t="s">
-        <v>445</v>
-      </c>
-      <c r="C18" t="s">
-        <v>146</v>
-      </c>
-      <c r="F18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B18" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F18" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C19" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D19" t="s">
-        <v>511</v>
+        <v>469</v>
       </c>
       <c r="E19" t="s">
-        <v>426</v>
+        <v>384</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="20" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B20" t="s">
-        <v>446</v>
-      </c>
-      <c r="C20" t="s">
-        <v>146</v>
-      </c>
-      <c r="F20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B20" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F20" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>111</v>
+        <v>491</v>
       </c>
       <c r="C21" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D21" t="s">
-        <v>494</v>
+        <v>452</v>
+      </c>
+      <c r="E21" t="s">
+        <v>384</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="22" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B22" t="s">
-        <v>112</v>
-      </c>
-      <c r="C22" t="s">
-        <v>146</v>
-      </c>
-      <c r="F22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B22" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F22" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>443</v>
+        <v>401</v>
       </c>
       <c r="C23" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D23" t="s">
-        <v>494</v>
+        <v>452</v>
       </c>
       <c r="E23" t="s">
-        <v>426</v>
+        <v>384</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="24" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B24" t="s">
-        <v>444</v>
-      </c>
-      <c r="C24" t="s">
-        <v>147</v>
-      </c>
-      <c r="F24" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B24" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F24" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>431</v>
+        <v>389</v>
       </c>
       <c r="C25" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D25" t="s">
-        <v>494</v>
+        <v>452</v>
       </c>
       <c r="E25" t="s">
-        <v>426</v>
+        <v>384</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="26" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B26" t="s">
-        <v>432</v>
-      </c>
-      <c r="C26" t="s">
-        <v>146</v>
-      </c>
-      <c r="F26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B26" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F26" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>441</v>
+        <v>399</v>
       </c>
       <c r="C27" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D27" t="s">
-        <v>511</v>
+        <v>469</v>
       </c>
       <c r="E27" t="s">
-        <v>426</v>
+        <v>384</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="28" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B28" t="s">
-        <v>442</v>
-      </c>
-      <c r="C28" t="s">
-        <v>146</v>
-      </c>
-      <c r="F28" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B28" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F28" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>427</v>
+        <v>385</v>
       </c>
       <c r="C29" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D29" t="s">
-        <v>494</v>
+        <v>452</v>
       </c>
       <c r="E29" t="s">
-        <v>426</v>
+        <v>384</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="30" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B30" t="s">
-        <v>428</v>
-      </c>
-      <c r="C30" t="s">
-        <v>146</v>
-      </c>
-      <c r="F30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B30" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F30" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>434</v>
+        <v>392</v>
       </c>
       <c r="C31" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D31" t="s">
-        <v>512</v>
+        <v>470</v>
       </c>
       <c r="E31" t="s">
-        <v>426</v>
+        <v>384</v>
       </c>
       <c r="F31" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="32" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B32" t="s">
-        <v>435</v>
-      </c>
-      <c r="C32" t="s">
-        <v>146</v>
-      </c>
-      <c r="F32" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B32" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F32" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C33" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D33" t="s">
-        <v>511</v>
+        <v>469</v>
       </c>
       <c r="E33" t="s">
-        <v>426</v>
+        <v>384</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="34" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B34" t="s">
-        <v>433</v>
-      </c>
-      <c r="C34" t="s">
-        <v>146</v>
-      </c>
-      <c r="F34" t="b">
-        <v>0</v>
-      </c>
-      <c r="J34" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B34" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F34" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>43</v>
       </c>
       <c r="B35" t="s">
-        <v>448</v>
+        <v>406</v>
       </c>
       <c r="C35" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D35" t="s">
-        <v>494</v>
+        <v>452</v>
       </c>
       <c r="E35" t="s">
-        <v>426</v>
+        <v>405</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+    <row r="36" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B36" t="s">
-        <v>449</v>
-      </c>
-      <c r="C36" t="s">
-        <v>146</v>
-      </c>
-      <c r="E36" t="s">
-        <v>447</v>
-      </c>
-      <c r="F36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B36" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F36" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>45</v>
       </c>
       <c r="B37" t="s">
-        <v>436</v>
+        <v>394</v>
       </c>
       <c r="C37" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D37" t="s">
-        <v>494</v>
+        <v>452</v>
       </c>
       <c r="E37" t="s">
-        <v>447</v>
+        <v>405</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>46</v>
       </c>
       <c r="B38" t="s">
-        <v>438</v>
+        <v>396</v>
       </c>
       <c r="C38" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>496</v>
+        <v>454</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>405</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>47</v>
       </c>
       <c r="B39" t="s">
-        <v>436</v>
+        <v>394</v>
       </c>
       <c r="C39" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D39" t="s">
-        <v>511</v>
+        <v>469</v>
       </c>
       <c r="E39" t="s">
-        <v>426</v>
+        <v>384</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+    <row r="40" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B40" t="s">
-        <v>437</v>
-      </c>
-      <c r="C40" t="s">
-        <v>146</v>
-      </c>
-      <c r="F40" t="b">
-        <v>0</v>
-      </c>
-      <c r="J40" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B40" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F40" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>49</v>
       </c>
       <c r="B41" t="s">
-        <v>438</v>
+        <v>396</v>
       </c>
       <c r="C41" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D41" t="s">
-        <v>511</v>
+        <v>469</v>
       </c>
       <c r="E41" t="s">
-        <v>426</v>
+        <v>384</v>
       </c>
       <c r="F41" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+    <row r="42" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B42" t="s">
-        <v>439</v>
-      </c>
-      <c r="C42" t="s">
-        <v>146</v>
-      </c>
-      <c r="F42" t="b">
-        <v>0</v>
-      </c>
-      <c r="J42" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B42" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F42" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>440</v>
+        <v>398</v>
       </c>
       <c r="C43" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F43" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C44" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D44" t="s">
-        <v>497</v>
+        <v>455</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>53</v>
       </c>
       <c r="B45" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C45" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D45" t="s">
-        <v>510</v>
+        <v>468</v>
       </c>
       <c r="F45" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>54</v>
       </c>
       <c r="B46" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C46" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D46" t="s">
-        <v>497</v>
+        <v>455</v>
       </c>
       <c r="F46" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>55</v>
       </c>
       <c r="B47" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C47" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>507</v>
+        <v>465</v>
       </c>
       <c r="F47" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>56</v>
       </c>
       <c r="B48" t="s">
-        <v>452</v>
+        <v>410</v>
       </c>
       <c r="C48" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E48" t="s">
-        <v>426</v>
+        <v>384</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>57</v>
       </c>
       <c r="B49" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C49" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E49" t="s">
-        <v>426</v>
+        <v>384</v>
       </c>
       <c r="F49" t="b">
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B50" t="s">
-        <v>119</v>
-      </c>
-      <c r="C50" t="s">
-        <v>146</v>
-      </c>
-      <c r="D50" t="s">
-        <v>511</v>
-      </c>
-      <c r="F50" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B50" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="F50" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>59</v>
       </c>
       <c r="B51" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C51" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F51" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>60</v>
       </c>
       <c r="B52" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C52" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D52" t="s">
-        <v>494</v>
+        <v>452</v>
       </c>
       <c r="E52" t="s">
-        <v>426</v>
+        <v>384</v>
       </c>
       <c r="F52" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>61</v>
       </c>
       <c r="B53" t="s">
-        <v>453</v>
+        <v>411</v>
       </c>
       <c r="C53" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D53" t="s">
-        <v>494</v>
+        <v>452</v>
       </c>
       <c r="E53" t="s">
-        <v>426</v>
+        <v>384</v>
       </c>
       <c r="F53" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>62</v>
       </c>
       <c r="B54" t="s">
-        <v>454</v>
+        <v>412</v>
       </c>
       <c r="C54" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D54" t="s">
-        <v>494</v>
+        <v>452</v>
       </c>
       <c r="E54" t="s">
-        <v>426</v>
+        <v>384</v>
       </c>
       <c r="F54" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>63</v>
       </c>
       <c r="B55" t="s">
-        <v>460</v>
+        <v>418</v>
       </c>
       <c r="C55" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D55" t="s">
-        <v>494</v>
+        <v>452</v>
       </c>
       <c r="E55" t="s">
-        <v>426</v>
+        <v>384</v>
       </c>
       <c r="F55" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>64</v>
       </c>
       <c r="B56" t="s">
-        <v>455</v>
+        <v>413</v>
       </c>
       <c r="C56" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>496</v>
+        <v>454</v>
       </c>
       <c r="E56" t="s">
-        <v>426</v>
+        <v>384</v>
       </c>
       <c r="F56" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>65</v>
       </c>
       <c r="B57" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C57" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E57" t="s">
-        <v>426</v>
+        <v>384</v>
       </c>
       <c r="F57" t="b">
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>66</v>
       </c>
       <c r="B58" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C58" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E58" t="s">
-        <v>426</v>
+        <v>384</v>
       </c>
       <c r="F58" t="b">
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>67</v>
       </c>
       <c r="B59" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C59" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E59" t="s">
-        <v>426</v>
+        <v>384</v>
       </c>
       <c r="F59" t="b">
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>68</v>
       </c>
       <c r="B60" t="s">
-        <v>458</v>
+        <v>416</v>
       </c>
       <c r="C60" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D60" t="s">
-        <v>524</v>
+        <v>480</v>
       </c>
       <c r="E60" t="s">
-        <v>426</v>
+        <v>384</v>
       </c>
       <c r="F60" t="b">
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>69</v>
       </c>
       <c r="B61" t="s">
-        <v>456</v>
+        <v>414</v>
       </c>
       <c r="C61" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>426</v>
+        <v>384</v>
       </c>
       <c r="F61" t="b">
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B62" t="s">
-        <v>463</v>
-      </c>
-      <c r="C62" t="s">
-        <v>146</v>
-      </c>
-      <c r="D62" t="s">
-        <v>494</v>
-      </c>
-      <c r="F62" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B62" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="F62" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>71</v>
       </c>
       <c r="B63" t="s">
-        <v>462</v>
+        <v>420</v>
       </c>
       <c r="C63" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D63" t="s">
-        <v>494</v>
+        <v>452</v>
       </c>
       <c r="E63" t="s">
-        <v>426</v>
+        <v>384</v>
       </c>
       <c r="F63" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>72</v>
       </c>
       <c r="B64" t="s">
-        <v>461</v>
+        <v>419</v>
       </c>
       <c r="C64" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D64" t="s">
-        <v>494</v>
+        <v>452</v>
       </c>
       <c r="E64" t="s">
-        <v>426</v>
+        <v>384</v>
       </c>
       <c r="F64" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+    <row r="65" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B65" t="s">
-        <v>125</v>
-      </c>
-      <c r="C65" t="s">
-        <v>147</v>
-      </c>
-      <c r="F65" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B65" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F65" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>74</v>
       </c>
       <c r="B66" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C66" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F66" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+    <row r="67" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B67" t="s">
-        <v>127</v>
-      </c>
-      <c r="C67" t="s">
-        <v>151</v>
-      </c>
-      <c r="F67" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+      <c r="B67" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F67" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B68" t="s">
-        <v>128</v>
-      </c>
-      <c r="C68" t="s">
-        <v>146</v>
-      </c>
-      <c r="D68" t="s">
-        <v>497</v>
-      </c>
-      <c r="F68" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B68" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="F68" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>77</v>
       </c>
       <c r="B69" t="s">
+        <v>422</v>
+      </c>
+      <c r="C69" t="s">
+        <v>141</v>
+      </c>
+      <c r="D69" t="s">
         <v>464</v>
       </c>
-      <c r="C69" t="s">
-        <v>146</v>
-      </c>
-      <c r="D69" t="s">
-        <v>506</v>
-      </c>
       <c r="E69" t="s">
-        <v>426</v>
+        <v>384</v>
       </c>
       <c r="F69" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>78</v>
       </c>
       <c r="B70" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C70" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D70" t="s">
-        <v>497</v>
+        <v>455</v>
       </c>
       <c r="F70" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>79</v>
       </c>
       <c r="B71" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C71" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F71" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>80</v>
       </c>
       <c r="B72" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C72" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F72" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+    <row r="73" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B73" t="s">
-        <v>132</v>
-      </c>
-      <c r="C73" t="s">
-        <v>151</v>
-      </c>
-      <c r="F73" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B73" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F73" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>82</v>
       </c>
       <c r="B74" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C74" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F74" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>83</v>
       </c>
       <c r="B75" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C75" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F75" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>84</v>
       </c>
       <c r="B76" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C76" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D76" t="s">
-        <v>497</v>
+        <v>455</v>
       </c>
       <c r="F76" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>85</v>
       </c>
       <c r="B77" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C77" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F77" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>86</v>
       </c>
       <c r="B78" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C78" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D78" t="s">
-        <v>497</v>
+        <v>455</v>
       </c>
       <c r="F78" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>87</v>
       </c>
       <c r="B79" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C79" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F79" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>88</v>
       </c>
       <c r="B80" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C80" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D80" t="s">
-        <v>498</v>
+        <v>456</v>
       </c>
       <c r="F80" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>89</v>
       </c>
       <c r="B81" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C81" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D81" t="s">
-        <v>497</v>
+        <v>455</v>
       </c>
       <c r="F81" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>90</v>
       </c>
       <c r="B82" t="s">
-        <v>447</v>
+        <v>405</v>
       </c>
       <c r="C82" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F82" t="b">
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>91</v>
       </c>
       <c r="B83" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C83" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F83" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>92</v>
       </c>
       <c r="B84" t="s">
-        <v>142</v>
+        <v>494</v>
       </c>
       <c r="C84" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F84" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I84" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>93</v>
       </c>
       <c r="B85" t="s">
-        <v>464</v>
+        <v>422</v>
       </c>
       <c r="C85" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D85" t="s">
-        <v>513</v>
+        <v>471</v>
+      </c>
+      <c r="E85" t="s">
+        <v>384</v>
       </c>
       <c r="F85" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>94</v>
       </c>
       <c r="B86" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C86" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F86" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>95</v>
       </c>
       <c r="B87" t="s">
+        <v>493</v>
+      </c>
+      <c r="C87" t="s">
         <v>144</v>
-      </c>
-      <c r="C87" t="s">
-        <v>149</v>
       </c>
       <c r="F87" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I87" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>96</v>
       </c>
       <c r="B88" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C88" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F88" t="b">
         <v>0</v>
@@ -3595,27 +3687,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J58"/>
+  <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:XFD48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3646,36 +3738,39 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1" s="5" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C3" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -3683,55 +3778,58 @@
         <v>97</v>
       </c>
       <c r="C4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B5" t="s">
-        <v>422</v>
+        <v>380</v>
       </c>
       <c r="C5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B6" t="s">
-        <v>196</v>
+        <v>493</v>
       </c>
       <c r="C6" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I6" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C7" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -3739,13 +3837,13 @@
         <v>99</v>
       </c>
       <c r="C8" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -3753,47 +3851,50 @@
         <v>100</v>
       </c>
       <c r="C9" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D9" t="s">
-        <v>508</v>
+        <v>466</v>
+      </c>
+      <c r="E9" t="s">
+        <v>423</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B10" t="s">
-        <v>465</v>
+        <v>423</v>
       </c>
       <c r="C10" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B11" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C11" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D11" t="s">
-        <v>499</v>
+        <v>457</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -3801,837 +3902,885 @@
         <v>107</v>
       </c>
       <c r="C12" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D12" t="s">
-        <v>501</v>
+        <v>459</v>
+      </c>
+      <c r="E12" t="s">
+        <v>493</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>56</v>
       </c>
       <c r="B13" t="s">
-        <v>452</v>
+        <v>410</v>
       </c>
       <c r="C13" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E13" t="s">
-        <v>465</v>
+        <v>423</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>65</v>
       </c>
       <c r="B14" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C14" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E14" t="s">
-        <v>465</v>
+        <v>423</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>66</v>
       </c>
       <c r="B15" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C15" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E15" t="s">
-        <v>465</v>
+        <v>423</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>67</v>
       </c>
       <c r="B16" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C16" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E16" t="s">
-        <v>465</v>
+        <v>423</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B17" t="s">
-        <v>458</v>
+        <v>416</v>
       </c>
       <c r="C17" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D17" t="s">
-        <v>524</v>
+        <v>480</v>
       </c>
       <c r="E17" t="s">
-        <v>465</v>
+        <v>423</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>69</v>
       </c>
       <c r="B18" t="s">
-        <v>456</v>
+        <v>414</v>
       </c>
       <c r="C18" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E18" t="s">
-        <v>465</v>
+        <v>423</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>468</v>
+        <v>426</v>
       </c>
       <c r="C19" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E19" t="s">
-        <v>465</v>
+        <v>423</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>469</v>
+        <v>427</v>
       </c>
       <c r="C20" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E20" t="s">
-        <v>465</v>
+        <v>423</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>470</v>
+        <v>428</v>
       </c>
       <c r="C21" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E21" t="s">
-        <v>465</v>
+        <v>423</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>63</v>
       </c>
       <c r="B22" t="s">
-        <v>471</v>
+        <v>429</v>
       </c>
       <c r="C22" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E22" t="s">
-        <v>465</v>
+        <v>423</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>49</v>
       </c>
       <c r="B23" t="s">
-        <v>472</v>
+        <v>430</v>
       </c>
       <c r="C23" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E23" t="s">
-        <v>465</v>
+        <v>423</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>84</v>
       </c>
       <c r="B24" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C24" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D24" t="s">
-        <v>501</v>
+        <v>459</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>155</v>
+      </c>
+      <c r="B25" t="s">
+        <v>425</v>
+      </c>
+      <c r="C25" t="s">
+        <v>141</v>
+      </c>
+      <c r="D25" t="s">
+        <v>452</v>
+      </c>
+      <c r="E25" t="s">
+        <v>423</v>
+      </c>
+      <c r="F25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>156</v>
+      </c>
+      <c r="B26" t="s">
+        <v>436</v>
+      </c>
+      <c r="C26" t="s">
+        <v>145</v>
+      </c>
+      <c r="D26" t="s">
+        <v>479</v>
+      </c>
+      <c r="E26" t="s">
+        <v>423</v>
+      </c>
+      <c r="F26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>157</v>
+      </c>
+      <c r="B27" t="s">
+        <v>193</v>
+      </c>
+      <c r="C27" t="s">
+        <v>141</v>
+      </c>
+      <c r="D27" t="s">
+        <v>452</v>
+      </c>
+      <c r="F27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>158</v>
+      </c>
+      <c r="B28" t="s">
+        <v>433</v>
+      </c>
+      <c r="C28" t="s">
+        <v>145</v>
+      </c>
+      <c r="E28" t="s">
+        <v>423</v>
+      </c>
+      <c r="F28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>159</v>
+      </c>
+      <c r="B29" t="s">
+        <v>194</v>
+      </c>
+      <c r="C29" t="s">
+        <v>142</v>
+      </c>
+      <c r="E29" t="s">
+        <v>423</v>
+      </c>
+      <c r="F29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>160</v>
       </c>
-      <c r="B25" t="s">
-        <v>467</v>
-      </c>
-      <c r="C25" t="s">
-        <v>146</v>
-      </c>
-      <c r="D25" t="s">
-        <v>494</v>
-      </c>
-      <c r="E25" t="s">
-        <v>465</v>
-      </c>
-      <c r="F25" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="B30" t="s">
+        <v>195</v>
+      </c>
+      <c r="C30" t="s">
+        <v>481</v>
+      </c>
+      <c r="E30" t="s">
+        <v>423</v>
+      </c>
+      <c r="F30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>161</v>
       </c>
-      <c r="B26" t="s">
-        <v>478</v>
-      </c>
-      <c r="C26" t="s">
-        <v>150</v>
-      </c>
-      <c r="D26" t="s">
-        <v>523</v>
-      </c>
-      <c r="E26" t="s">
-        <v>465</v>
-      </c>
-      <c r="F26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="B31" t="s">
+        <v>431</v>
+      </c>
+      <c r="C31" t="s">
+        <v>145</v>
+      </c>
+      <c r="E31" t="s">
+        <v>423</v>
+      </c>
+      <c r="F31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>162</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B32" t="s">
+        <v>432</v>
+      </c>
+      <c r="C32" t="s">
+        <v>145</v>
+      </c>
+      <c r="E32" t="s">
+        <v>423</v>
+      </c>
+      <c r="F32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F33" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F34" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F35" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="C27" t="s">
-        <v>146</v>
-      </c>
-      <c r="D27" t="s">
-        <v>494</v>
-      </c>
-      <c r="F27" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>163</v>
-      </c>
-      <c r="B28" t="s">
-        <v>475</v>
-      </c>
-      <c r="C28" t="s">
-        <v>150</v>
-      </c>
-      <c r="E28" t="s">
-        <v>465</v>
-      </c>
-      <c r="F28" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>164</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="C36" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F36" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B37" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="C29" t="s">
-        <v>147</v>
-      </c>
-      <c r="E29" t="s">
-        <v>465</v>
-      </c>
-      <c r="F29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>165</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="C37" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F37" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B38" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="C30" t="s">
-        <v>525</v>
-      </c>
-      <c r="E30" t="s">
-        <v>465</v>
-      </c>
-      <c r="F30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>166</v>
-      </c>
-      <c r="B31" t="s">
-        <v>473</v>
-      </c>
-      <c r="C31" t="s">
-        <v>150</v>
-      </c>
-      <c r="E31" t="s">
-        <v>465</v>
-      </c>
-      <c r="F31" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>167</v>
-      </c>
-      <c r="B32" t="s">
-        <v>474</v>
-      </c>
-      <c r="C32" t="s">
-        <v>150</v>
-      </c>
-      <c r="E32" t="s">
-        <v>465</v>
-      </c>
-      <c r="F32" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>168</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="C38" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F38" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B39" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="C33" t="s">
-        <v>150</v>
-      </c>
-      <c r="F33" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>169</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="C39" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F39" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B40" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="C34" t="s">
-        <v>150</v>
-      </c>
-      <c r="F34" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>170</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="C40" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F40" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B41" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="C35" t="s">
-        <v>150</v>
-      </c>
-      <c r="F35" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>171</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="C41" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F41" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B42" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="C36" t="s">
-        <v>146</v>
-      </c>
-      <c r="D36" t="s">
-        <v>224</v>
-      </c>
-      <c r="F36" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>172</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="C42" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F42" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B43" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="C37" t="s">
-        <v>146</v>
-      </c>
-      <c r="D37" t="s">
-        <v>224</v>
-      </c>
-      <c r="F37" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>173</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="C43" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F43" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B44" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="C38" t="s">
-        <v>146</v>
-      </c>
-      <c r="D38" t="s">
-        <v>224</v>
-      </c>
-      <c r="F38" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>174</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="C44" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F44" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B45" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="C39" t="s">
-        <v>146</v>
-      </c>
-      <c r="D39" t="s">
-        <v>224</v>
-      </c>
-      <c r="F39" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>175</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="C45" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F45" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B46" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="C40" t="s">
-        <v>146</v>
-      </c>
-      <c r="F40" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>176</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="C46" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F46" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B47" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="C41" t="s">
-        <v>146</v>
-      </c>
-      <c r="D41" t="s">
-        <v>224</v>
-      </c>
-      <c r="F41" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>177</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="C47" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F47" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B48" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="C42" t="s">
-        <v>146</v>
-      </c>
-      <c r="D42" t="s">
-        <v>224</v>
-      </c>
-      <c r="F42" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>178</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="C48" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F48" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>179</v>
+      </c>
+      <c r="B49" t="s">
         <v>212</v>
       </c>
-      <c r="C43" t="s">
-        <v>146</v>
-      </c>
-      <c r="D43" t="s">
-        <v>224</v>
-      </c>
-      <c r="F43" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>179</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="C49" t="s">
+        <v>141</v>
+      </c>
+      <c r="D49" t="s">
+        <v>218</v>
+      </c>
+      <c r="F49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>180</v>
+      </c>
+      <c r="B50" t="s">
         <v>213</v>
       </c>
-      <c r="C44" t="s">
-        <v>146</v>
-      </c>
-      <c r="D44" t="s">
-        <v>224</v>
-      </c>
-      <c r="F44" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>180</v>
-      </c>
-      <c r="B45" t="s">
+      <c r="C50" t="s">
+        <v>141</v>
+      </c>
+      <c r="D50" t="s">
+        <v>218</v>
+      </c>
+      <c r="F50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>181</v>
+      </c>
+      <c r="B51" t="s">
+        <v>394</v>
+      </c>
+      <c r="C51" t="s">
+        <v>141</v>
+      </c>
+      <c r="D51" t="s">
+        <v>452</v>
+      </c>
+      <c r="E51" t="s">
+        <v>423</v>
+      </c>
+      <c r="F51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>182</v>
+      </c>
+      <c r="B52" t="s">
+        <v>396</v>
+      </c>
+      <c r="C52" t="s">
+        <v>141</v>
+      </c>
+      <c r="D52" t="s">
+        <v>452</v>
+      </c>
+      <c r="E52" t="s">
+        <v>423</v>
+      </c>
+      <c r="F52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>183</v>
+      </c>
+      <c r="B53" t="s">
+        <v>484</v>
+      </c>
+      <c r="C53" t="s">
+        <v>141</v>
+      </c>
+      <c r="D53" t="s">
+        <v>452</v>
+      </c>
+      <c r="E53" t="s">
+        <v>423</v>
+      </c>
+      <c r="F53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>184</v>
+      </c>
+      <c r="B54" t="s">
         <v>214</v>
       </c>
-      <c r="C45" t="s">
-        <v>146</v>
-      </c>
-      <c r="D45" t="s">
-        <v>224</v>
-      </c>
-      <c r="F45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>181</v>
-      </c>
-      <c r="B46" t="s">
+      <c r="C54" t="s">
+        <v>141</v>
+      </c>
+      <c r="D54" t="s">
+        <v>452</v>
+      </c>
+      <c r="E54" t="s">
+        <v>423</v>
+      </c>
+      <c r="F54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>185</v>
+      </c>
+      <c r="B55" t="s">
+        <v>482</v>
+      </c>
+      <c r="C55" t="s">
+        <v>141</v>
+      </c>
+      <c r="D55" t="s">
+        <v>452</v>
+      </c>
+      <c r="E55" t="s">
+        <v>423</v>
+      </c>
+      <c r="F55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>186</v>
+      </c>
+      <c r="B56" t="s">
         <v>215</v>
       </c>
-      <c r="C46" t="s">
-        <v>146</v>
-      </c>
-      <c r="D46" t="s">
-        <v>224</v>
-      </c>
-      <c r="F46" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>182</v>
-      </c>
-      <c r="B47" t="s">
+      <c r="C56" t="s">
+        <v>141</v>
+      </c>
+      <c r="D56" t="s">
+        <v>458</v>
+      </c>
+      <c r="E56" t="s">
+        <v>423</v>
+      </c>
+      <c r="F56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>187</v>
+      </c>
+      <c r="B57" t="s">
         <v>216</v>
       </c>
-      <c r="C47" t="s">
-        <v>146</v>
-      </c>
-      <c r="F47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>183</v>
-      </c>
-      <c r="B48" t="s">
+      <c r="C57" t="s">
+        <v>141</v>
+      </c>
+      <c r="D57" t="s">
+        <v>472</v>
+      </c>
+      <c r="F57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>188</v>
+      </c>
+      <c r="B58" t="s">
         <v>217</v>
       </c>
-      <c r="C48" t="s">
-        <v>148</v>
-      </c>
-      <c r="F48" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>184</v>
-      </c>
-      <c r="B49" t="s">
+      <c r="C58" t="s">
+        <v>141</v>
+      </c>
+      <c r="D58" t="s">
         <v>218</v>
-      </c>
-      <c r="C49" t="s">
-        <v>146</v>
-      </c>
-      <c r="D49" t="s">
-        <v>224</v>
-      </c>
-      <c r="F49" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>185</v>
-      </c>
-      <c r="B50" t="s">
-        <v>219</v>
-      </c>
-      <c r="C50" t="s">
-        <v>146</v>
-      </c>
-      <c r="D50" t="s">
-        <v>224</v>
-      </c>
-      <c r="F50" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>186</v>
-      </c>
-      <c r="B51" t="s">
-        <v>436</v>
-      </c>
-      <c r="C51" t="s">
-        <v>146</v>
-      </c>
-      <c r="D51" t="s">
-        <v>494</v>
-      </c>
-      <c r="E51" t="s">
-        <v>465</v>
-      </c>
-      <c r="F51" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>187</v>
-      </c>
-      <c r="B52" t="s">
-        <v>438</v>
-      </c>
-      <c r="C52" t="s">
-        <v>146</v>
-      </c>
-      <c r="D52" t="s">
-        <v>494</v>
-      </c>
-      <c r="E52" t="s">
-        <v>465</v>
-      </c>
-      <c r="F52" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>188</v>
-      </c>
-      <c r="B53" t="s">
-        <v>528</v>
-      </c>
-      <c r="C53" t="s">
-        <v>146</v>
-      </c>
-      <c r="D53" t="s">
-        <v>494</v>
-      </c>
-      <c r="E53" t="s">
-        <v>465</v>
-      </c>
-      <c r="F53" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>189</v>
-      </c>
-      <c r="B54" t="s">
-        <v>220</v>
-      </c>
-      <c r="C54" t="s">
-        <v>146</v>
-      </c>
-      <c r="D54" t="s">
-        <v>494</v>
-      </c>
-      <c r="E54" t="s">
-        <v>465</v>
-      </c>
-      <c r="F54" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>190</v>
-      </c>
-      <c r="B55" t="s">
-        <v>526</v>
-      </c>
-      <c r="C55" t="s">
-        <v>146</v>
-      </c>
-      <c r="D55" t="s">
-        <v>494</v>
-      </c>
-      <c r="E55" t="s">
-        <v>465</v>
-      </c>
-      <c r="F55" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>191</v>
-      </c>
-      <c r="B56" t="s">
-        <v>221</v>
-      </c>
-      <c r="C56" t="s">
-        <v>146</v>
-      </c>
-      <c r="D56" t="s">
-        <v>500</v>
-      </c>
-      <c r="E56" t="s">
-        <v>465</v>
-      </c>
-      <c r="F56" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>192</v>
-      </c>
-      <c r="B57" t="s">
-        <v>222</v>
-      </c>
-      <c r="C57" t="s">
-        <v>146</v>
-      </c>
-      <c r="D57" t="s">
-        <v>514</v>
-      </c>
-      <c r="F57" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>193</v>
-      </c>
-      <c r="B58" t="s">
-        <v>223</v>
-      </c>
-      <c r="C58" t="s">
-        <v>146</v>
-      </c>
-      <c r="D58" t="s">
-        <v>224</v>
       </c>
       <c r="F58" t="b">
         <v>0</v>
@@ -4644,27 +4793,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="80.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="89.7109375" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4695,276 +4844,312 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1" s="5" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B2" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D2" t="s">
-        <v>509</v>
+        <v>467</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B3" t="s">
-        <v>422</v>
+        <v>380</v>
       </c>
       <c r="C3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B4" t="s">
-        <v>465</v>
+        <v>423</v>
       </c>
       <c r="C4" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B5" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B6" t="s">
+        <v>438</v>
+      </c>
+      <c r="C6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" t="s">
+        <v>461</v>
+      </c>
+      <c r="E6" t="s">
+        <v>423</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B7" t="s">
+        <v>437</v>
+      </c>
+      <c r="C7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7" t="s">
+        <v>461</v>
+      </c>
+      <c r="E7" t="s">
+        <v>423</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B8" t="s">
+        <v>439</v>
+      </c>
+      <c r="C8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" t="s">
+        <v>462</v>
+      </c>
+      <c r="E8" t="s">
+        <v>423</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>225</v>
+      </c>
+      <c r="B9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="F10" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>227</v>
+      </c>
+      <c r="B11" t="s">
+        <v>237</v>
+      </c>
+      <c r="C11" t="s">
+        <v>143</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="B6" t="s">
-        <v>480</v>
-      </c>
-      <c r="C6" t="s">
-        <v>146</v>
-      </c>
-      <c r="D6" t="s">
-        <v>503</v>
-      </c>
-      <c r="E6" t="s">
-        <v>465</v>
-      </c>
-      <c r="F6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B12" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="F12" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="B7" t="s">
-        <v>479</v>
-      </c>
-      <c r="C7" t="s">
-        <v>146</v>
-      </c>
-      <c r="D7" t="s">
-        <v>503</v>
-      </c>
-      <c r="E7" t="s">
-        <v>465</v>
-      </c>
-      <c r="F7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B13" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F13" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="B8" t="s">
-        <v>481</v>
-      </c>
-      <c r="C8" t="s">
-        <v>146</v>
-      </c>
-      <c r="D8" t="s">
-        <v>504</v>
-      </c>
-      <c r="E8" t="s">
-        <v>465</v>
-      </c>
-      <c r="F8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="B14" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="F14" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="B9" t="s">
-        <v>247</v>
-      </c>
-      <c r="C9" t="s">
-        <v>148</v>
-      </c>
-      <c r="F9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B15" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="F15" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="B10" t="s">
-        <v>482</v>
-      </c>
-      <c r="C10" t="s">
-        <v>146</v>
-      </c>
-      <c r="D10" t="s">
-        <v>505</v>
-      </c>
-      <c r="E10" t="s">
-        <v>465</v>
-      </c>
-      <c r="F10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="B16" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F16" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>233</v>
       </c>
-      <c r="B11" t="s">
-        <v>249</v>
-      </c>
-      <c r="C11" t="s">
-        <v>148</v>
-      </c>
-      <c r="F11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="B17" t="s">
+        <v>444</v>
+      </c>
+      <c r="C17" t="s">
+        <v>143</v>
+      </c>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>234</v>
       </c>
-      <c r="B12" t="s">
-        <v>483</v>
-      </c>
-      <c r="C12" t="s">
-        <v>146</v>
-      </c>
-      <c r="D12" t="s">
-        <v>505</v>
-      </c>
-      <c r="E12" t="s">
-        <v>465</v>
-      </c>
-      <c r="F12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>235</v>
-      </c>
-      <c r="B13" t="s">
-        <v>484</v>
-      </c>
-      <c r="C13" t="s">
-        <v>150</v>
-      </c>
-      <c r="F13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>236</v>
-      </c>
-      <c r="B14" t="s">
-        <v>484</v>
-      </c>
-      <c r="C14" t="s">
-        <v>148</v>
-      </c>
-      <c r="F14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>237</v>
-      </c>
-      <c r="B15" t="s">
-        <v>485</v>
-      </c>
-      <c r="C15" t="s">
-        <v>147</v>
-      </c>
-      <c r="F15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>238</v>
-      </c>
-      <c r="B16" t="s">
-        <v>485</v>
-      </c>
-      <c r="C16" t="s">
-        <v>148</v>
-      </c>
-      <c r="F16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>239</v>
-      </c>
-      <c r="B17" t="s">
-        <v>486</v>
-      </c>
-      <c r="C17" t="s">
-        <v>148</v>
-      </c>
-      <c r="F17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
         <v>240</v>
       </c>
-      <c r="B18" t="s">
-        <v>255</v>
-      </c>
       <c r="C18" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D18" t="s">
-        <v>515</v>
+        <v>473</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -4977,27 +5162,27 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="74" customWidth="1"/>
-    <col min="5" max="5" width="21.33203125" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5028,357 +5213,384 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B2" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D2" t="s">
-        <v>516</v>
+        <v>474</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B3" t="s">
-        <v>422</v>
+        <v>380</v>
       </c>
       <c r="C3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B4" t="s">
-        <v>487</v>
+        <v>445</v>
       </c>
       <c r="C4" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B5" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>241</v>
+      </c>
+      <c r="B6" t="s">
         <v>258</v>
       </c>
-      <c r="B6" t="s">
-        <v>275</v>
-      </c>
       <c r="C6" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K6" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>242</v>
+      </c>
+      <c r="B7" t="s">
+        <v>438</v>
+      </c>
+      <c r="C7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7" t="s">
+        <v>461</v>
+      </c>
+      <c r="E7" t="s">
+        <v>445</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B8" t="s">
+        <v>437</v>
+      </c>
+      <c r="C8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" t="s">
+        <v>461</v>
+      </c>
+      <c r="E8" t="s">
+        <v>445</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>244</v>
+      </c>
+      <c r="B9" t="s">
         <v>259</v>
       </c>
-      <c r="B7" t="s">
-        <v>480</v>
-      </c>
-      <c r="C7" t="s">
-        <v>146</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
         <v>503</v>
       </c>
-      <c r="E7" t="s">
-        <v>487</v>
-      </c>
-      <c r="F7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>245</v>
+      </c>
+      <c r="B10" t="s">
+        <v>439</v>
+      </c>
+      <c r="C10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D10" t="s">
+        <v>462</v>
+      </c>
+      <c r="E10" t="s">
+        <v>445</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>246</v>
+      </c>
+      <c r="B11" t="s">
         <v>260</v>
       </c>
-      <c r="B8" t="s">
-        <v>479</v>
-      </c>
-      <c r="C8" t="s">
-        <v>146</v>
-      </c>
-      <c r="D8" t="s">
-        <v>503</v>
-      </c>
-      <c r="E8" t="s">
-        <v>487</v>
-      </c>
-      <c r="F8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="C11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>225</v>
+      </c>
+      <c r="B12" t="s">
+        <v>236</v>
+      </c>
+      <c r="C12" t="s">
+        <v>143</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>247</v>
+      </c>
+      <c r="B13" t="s">
+        <v>440</v>
+      </c>
+      <c r="C13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D13" t="s">
+        <v>463</v>
+      </c>
+      <c r="E13" t="s">
+        <v>445</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>227</v>
+      </c>
+      <c r="B14" t="s">
+        <v>237</v>
+      </c>
+      <c r="C14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>248</v>
+      </c>
+      <c r="B15" t="s">
+        <v>441</v>
+      </c>
+      <c r="C15" t="s">
+        <v>141</v>
+      </c>
+      <c r="D15" t="s">
+        <v>463</v>
+      </c>
+      <c r="E15" t="s">
+        <v>445</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B16" t="s">
         <v>261</v>
       </c>
-      <c r="B9" t="s">
-        <v>276</v>
-      </c>
-      <c r="C9" t="s">
-        <v>146</v>
-      </c>
-      <c r="F9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>262</v>
-      </c>
-      <c r="B10" t="s">
-        <v>481</v>
-      </c>
-      <c r="C10" t="s">
-        <v>146</v>
-      </c>
-      <c r="D10" t="s">
-        <v>504</v>
-      </c>
-      <c r="E10" t="s">
-        <v>487</v>
-      </c>
-      <c r="F10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>263</v>
-      </c>
-      <c r="B11" t="s">
-        <v>277</v>
-      </c>
-      <c r="C11" t="s">
-        <v>146</v>
-      </c>
-      <c r="F11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>231</v>
-      </c>
-      <c r="B12" t="s">
-        <v>247</v>
-      </c>
-      <c r="C12" t="s">
-        <v>148</v>
-      </c>
-      <c r="F12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>264</v>
-      </c>
-      <c r="B13" t="s">
-        <v>482</v>
-      </c>
-      <c r="C13" t="s">
-        <v>146</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C16" t="s">
+        <v>142</v>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>250</v>
+      </c>
+      <c r="B17" t="s">
         <v>505</v>
       </c>
-      <c r="E13" t="s">
-        <v>487</v>
-      </c>
-      <c r="F13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>233</v>
-      </c>
-      <c r="B14" t="s">
-        <v>249</v>
-      </c>
-      <c r="C14" t="s">
-        <v>148</v>
-      </c>
-      <c r="F14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>265</v>
-      </c>
-      <c r="B15" t="s">
-        <v>483</v>
-      </c>
-      <c r="C15" t="s">
-        <v>146</v>
-      </c>
-      <c r="D15" t="s">
-        <v>505</v>
-      </c>
-      <c r="E15" t="s">
-        <v>487</v>
-      </c>
-      <c r="F15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>266</v>
-      </c>
-      <c r="B16" t="s">
-        <v>278</v>
-      </c>
-      <c r="C16" t="s">
-        <v>147</v>
-      </c>
-      <c r="F16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>267</v>
-      </c>
-      <c r="B17" t="s">
-        <v>243</v>
-      </c>
       <c r="C17" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K17" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="B18" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="C18" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>269</v>
-      </c>
-      <c r="B19" t="s">
-        <v>280</v>
-      </c>
-      <c r="C19" t="s">
-        <v>148</v>
-      </c>
-      <c r="F19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>270</v>
-      </c>
-      <c r="B20" t="s">
-        <v>281</v>
-      </c>
-      <c r="C20" t="s">
-        <v>148</v>
-      </c>
-      <c r="F20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F19" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F20" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="B21" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="C21" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F21" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>272</v>
-      </c>
-      <c r="B22" t="s">
-        <v>283</v>
-      </c>
-      <c r="C22" t="s">
-        <v>147</v>
-      </c>
-      <c r="F22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>273</v>
-      </c>
-      <c r="B23" t="s">
-        <v>284</v>
-      </c>
-      <c r="C23" t="s">
-        <v>148</v>
-      </c>
-      <c r="F23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K21" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F22" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F23" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="B24" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="C24" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
@@ -5394,24 +5606,24 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="78.33203125" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="63.85546875" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5443,249 +5655,276 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B2" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D2" t="s">
-        <v>517</v>
+        <v>475</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B3" t="s">
-        <v>242</v>
+        <v>380</v>
       </c>
       <c r="C3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B4" t="s">
-        <v>243</v>
+        <v>423</v>
       </c>
       <c r="C4" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B5" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B6" t="s">
+        <v>506</v>
+      </c>
+      <c r="C6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" t="s">
+        <v>477</v>
+      </c>
+      <c r="E6" t="s">
+        <v>423</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B7" t="s">
+        <v>507</v>
+      </c>
+      <c r="C7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7" t="s">
+        <v>477</v>
+      </c>
+      <c r="E7" t="s">
+        <v>423</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B8" t="s">
+        <v>508</v>
+      </c>
+      <c r="C8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" t="s">
+        <v>462</v>
+      </c>
+      <c r="E8" t="s">
+        <v>423</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>225</v>
+      </c>
+      <c r="B9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C9" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" t="s">
+        <v>218</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>226</v>
+      </c>
+      <c r="B10" t="s">
+        <v>440</v>
+      </c>
+      <c r="C10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D10" t="s">
+        <v>462</v>
+      </c>
+      <c r="E10" t="s">
+        <v>423</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>227</v>
+      </c>
+      <c r="B11" t="s">
+        <v>237</v>
+      </c>
+      <c r="C11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D11" t="s">
+        <v>218</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>228</v>
       </c>
-      <c r="B6" t="s">
-        <v>244</v>
-      </c>
-      <c r="C6" t="s">
-        <v>146</v>
-      </c>
-      <c r="D6" t="s">
-        <v>519</v>
-      </c>
-      <c r="F6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B12" t="s">
+        <v>441</v>
+      </c>
+      <c r="C12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D12" t="s">
+        <v>462</v>
+      </c>
+      <c r="E12" t="s">
+        <v>423</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>229</v>
       </c>
-      <c r="B7" t="s">
-        <v>245</v>
-      </c>
-      <c r="C7" t="s">
-        <v>146</v>
-      </c>
-      <c r="D7" t="s">
-        <v>519</v>
-      </c>
-      <c r="F7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B13" t="s">
+        <v>238</v>
+      </c>
+      <c r="C13" t="s">
+        <v>143</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>230</v>
       </c>
-      <c r="B8" t="s">
-        <v>246</v>
-      </c>
-      <c r="C8" t="s">
-        <v>146</v>
-      </c>
-      <c r="D8" t="s">
-        <v>504</v>
-      </c>
-      <c r="F8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="B14" t="s">
+        <v>442</v>
+      </c>
+      <c r="C14" t="s">
+        <v>143</v>
+      </c>
+      <c r="E14" t="s">
+        <v>423</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>231</v>
       </c>
-      <c r="B9" t="s">
-        <v>247</v>
-      </c>
-      <c r="C9" t="s">
-        <v>146</v>
-      </c>
-      <c r="D9" t="s">
-        <v>224</v>
-      </c>
-      <c r="F9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B15" t="s">
+        <v>443</v>
+      </c>
+      <c r="C15" t="s">
+        <v>142</v>
+      </c>
+      <c r="E15" t="s">
+        <v>423</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>232</v>
       </c>
-      <c r="B10" t="s">
-        <v>248</v>
-      </c>
-      <c r="C10" t="s">
-        <v>146</v>
-      </c>
-      <c r="D10" t="s">
-        <v>504</v>
-      </c>
-      <c r="F10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>233</v>
-      </c>
-      <c r="B11" t="s">
-        <v>249</v>
-      </c>
-      <c r="C11" t="s">
-        <v>146</v>
-      </c>
-      <c r="D11" t="s">
-        <v>224</v>
-      </c>
-      <c r="F11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>234</v>
-      </c>
-      <c r="B12" t="s">
-        <v>250</v>
-      </c>
-      <c r="C12" t="s">
-        <v>146</v>
-      </c>
-      <c r="D12" t="s">
-        <v>504</v>
-      </c>
-      <c r="F12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>235</v>
-      </c>
-      <c r="B13" t="s">
-        <v>251</v>
-      </c>
-      <c r="C13" t="s">
-        <v>148</v>
-      </c>
-      <c r="F13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>236</v>
-      </c>
-      <c r="B14" t="s">
-        <v>252</v>
-      </c>
-      <c r="C14" t="s">
-        <v>148</v>
-      </c>
-      <c r="F14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>237</v>
-      </c>
-      <c r="B15" t="s">
-        <v>253</v>
-      </c>
-      <c r="C15" t="s">
-        <v>147</v>
-      </c>
-      <c r="F15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>238</v>
-      </c>
       <c r="B16" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="C16" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="B17" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="C17" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -5698,27 +5937,27 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="K15" sqref="K15:K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.1640625" customWidth="1"/>
-    <col min="10" max="10" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5749,115 +5988,121 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1" s="5" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="B2" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="C2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D2" t="s">
-        <v>517</v>
+        <v>475</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="B3" t="s">
-        <v>422</v>
+        <v>380</v>
       </c>
       <c r="C3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="B4" t="s">
-        <v>297</v>
+        <v>489</v>
       </c>
       <c r="C4" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I4" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="B5" t="s">
-        <v>488</v>
+        <v>446</v>
       </c>
       <c r="C5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="B6" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="C6" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="B7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C7" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="B8" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
       <c r="C8" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D8" t="s">
-        <v>518</v>
+        <v>476</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -5865,337 +6110,355 @@
         <v>107</v>
       </c>
       <c r="C9" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D9" t="s">
-        <v>502</v>
+        <v>460</v>
+      </c>
+      <c r="E9" t="s">
+        <v>489</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>452</v>
+        <v>410</v>
       </c>
       <c r="C10" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E10" t="s">
-        <v>488</v>
+        <v>446</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>65</v>
       </c>
       <c r="B11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C11" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E11" t="s">
-        <v>488</v>
+        <v>446</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>66</v>
       </c>
       <c r="B12" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C12" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E12" t="s">
-        <v>488</v>
+        <v>446</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>67</v>
       </c>
       <c r="B13" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C13" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E13" t="s">
-        <v>488</v>
+        <v>446</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>69</v>
       </c>
       <c r="B14" t="s">
-        <v>456</v>
+        <v>414</v>
       </c>
       <c r="C14" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E14" t="s">
-        <v>488</v>
+        <v>446</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B15" t="s">
-        <v>468</v>
-      </c>
-      <c r="C15" t="s">
-        <v>146</v>
-      </c>
-      <c r="E15" t="s">
-        <v>488</v>
-      </c>
-      <c r="F15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="B15" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="F15" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B16" t="s">
-        <v>469</v>
-      </c>
-      <c r="C16" t="s">
-        <v>146</v>
-      </c>
-      <c r="E16" t="s">
-        <v>488</v>
-      </c>
-      <c r="F16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="B16" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="F16" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B17" t="s">
-        <v>470</v>
-      </c>
-      <c r="C17" t="s">
-        <v>146</v>
-      </c>
-      <c r="E17" t="s">
-        <v>488</v>
-      </c>
-      <c r="F17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="B17" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="F17" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B18" t="s">
-        <v>471</v>
-      </c>
-      <c r="C18" t="s">
-        <v>146</v>
-      </c>
-      <c r="E18" t="s">
-        <v>488</v>
-      </c>
-      <c r="F18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="B18" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="F18" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B19" t="s">
-        <v>472</v>
-      </c>
-      <c r="C19" t="s">
-        <v>146</v>
-      </c>
-      <c r="E19" t="s">
-        <v>488</v>
-      </c>
-      <c r="F19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B19" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="F19" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>84</v>
       </c>
       <c r="B20" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C20" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D20" t="s">
-        <v>502</v>
+        <v>460</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B21" t="s">
-        <v>467</v>
+        <v>425</v>
       </c>
       <c r="C21" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D21" t="s">
-        <v>502</v>
+        <v>460</v>
       </c>
       <c r="E21" t="s">
-        <v>488</v>
+        <v>446</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B22" t="s">
-        <v>478</v>
+        <v>436</v>
       </c>
       <c r="C22" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E22" t="s">
-        <v>488</v>
+        <v>446</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B23" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C23" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D23" t="s">
-        <v>502</v>
+        <v>460</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B24" t="s">
-        <v>475</v>
+        <v>433</v>
       </c>
       <c r="C24" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E24" t="s">
-        <v>488</v>
+        <v>446</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B25" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C25" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E25" t="s">
-        <v>488</v>
+        <v>446</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="B26" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="C26" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="B27" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="C27" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
@@ -6208,27 +6471,27 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="68.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="68.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6259,288 +6522,303 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B2" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D2" t="s">
-        <v>517</v>
+        <v>475</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B3" t="s">
-        <v>422</v>
+        <v>380</v>
       </c>
       <c r="C3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B4" t="s">
-        <v>465</v>
+        <v>423</v>
       </c>
       <c r="C4" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B5" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D5" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>303</v>
-      </c>
-      <c r="B6" t="s">
-        <v>315</v>
-      </c>
-      <c r="C6" t="s">
-        <v>149</v>
-      </c>
-      <c r="F6" t="b">
+    <row r="6" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F6" s="7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K6" s="7" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="B7" t="s">
-        <v>490</v>
+        <v>448</v>
       </c>
       <c r="C7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>465</v>
+        <v>423</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="B8" t="s">
-        <v>489</v>
+        <v>447</v>
       </c>
       <c r="C8" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>465</v>
+        <v>423</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>306</v>
-      </c>
-      <c r="B9" t="s">
-        <v>316</v>
-      </c>
-      <c r="C9" t="s">
-        <v>149</v>
-      </c>
-      <c r="F9" t="b">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F9" s="7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K9" s="7" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="B10" t="s">
-        <v>490</v>
+        <v>448</v>
       </c>
       <c r="C10" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E10" t="s">
-        <v>465</v>
+        <v>423</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="B11" t="s">
-        <v>489</v>
+        <v>447</v>
       </c>
       <c r="C11" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E11" t="s">
-        <v>465</v>
+        <v>423</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>309</v>
-      </c>
-      <c r="B12" t="s">
-        <v>317</v>
-      </c>
-      <c r="C12" t="s">
-        <v>149</v>
-      </c>
-      <c r="F12" t="b">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F12" s="7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K12" s="7" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="B13" t="s">
-        <v>490</v>
+        <v>448</v>
       </c>
       <c r="C13" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E13" t="s">
-        <v>465</v>
+        <v>423</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="B14" t="s">
-        <v>489</v>
+        <v>447</v>
       </c>
       <c r="C14" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E14" t="s">
-        <v>465</v>
+        <v>423</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>312</v>
-      </c>
-      <c r="B15" t="s">
-        <v>318</v>
-      </c>
-      <c r="C15" t="s">
-        <v>149</v>
-      </c>
-      <c r="F15" t="b">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F15" s="7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K15" s="7" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="B16" t="s">
-        <v>490</v>
+        <v>448</v>
       </c>
       <c r="C16" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E16" t="s">
-        <v>465</v>
+        <v>423</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="B17" t="s">
-        <v>489</v>
+        <v>447</v>
       </c>
       <c r="C17" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E17" t="s">
-        <v>465</v>
+        <v>423</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>492</v>
+        <v>450</v>
       </c>
       <c r="B18" t="s">
-        <v>493</v>
+        <v>451</v>
       </c>
       <c r="C18" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E18" t="s">
-        <v>465</v>
+        <v>423</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -6553,27 +6831,30 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:J52"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="80.5703125" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6604,767 +6885,869 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1" s="5" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B3" t="s">
+        <v>345</v>
+      </c>
+      <c r="C3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" t="s">
+        <v>528</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B4" t="s">
+        <v>346</v>
+      </c>
+      <c r="C4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" t="s">
+        <v>529</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B5" t="s">
+        <v>380</v>
+      </c>
+      <c r="C5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>221</v>
+      </c>
+      <c r="B6" t="s">
+        <v>423</v>
+      </c>
+      <c r="C6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" t="s">
+        <v>539</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>304</v>
+      </c>
+      <c r="B8" t="s">
+        <v>347</v>
+      </c>
+      <c r="C8" t="s">
+        <v>142</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>305</v>
+      </c>
+      <c r="B9" t="s">
+        <v>348</v>
+      </c>
+      <c r="C9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>306</v>
+      </c>
+      <c r="B10" t="s">
+        <v>349</v>
+      </c>
+      <c r="C10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D10" t="s">
+        <v>528</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>307</v>
+      </c>
+      <c r="B11" t="s">
+        <v>350</v>
+      </c>
+      <c r="C11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D11" t="s">
+        <v>530</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>308</v>
+      </c>
+      <c r="B12" t="s">
+        <v>351</v>
+      </c>
+      <c r="C12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D12" t="s">
+        <v>531</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>309</v>
+      </c>
+      <c r="B13" t="s">
+        <v>352</v>
+      </c>
+      <c r="C13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D13" t="s">
+        <v>532</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>310</v>
+      </c>
+      <c r="B14" t="s">
+        <v>353</v>
+      </c>
+      <c r="C14" t="s">
+        <v>141</v>
+      </c>
+      <c r="D14" t="s">
+        <v>533</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>311</v>
+      </c>
+      <c r="B15" t="s">
+        <v>354</v>
+      </c>
+      <c r="C15" t="s">
+        <v>141</v>
+      </c>
+      <c r="D15" t="s">
+        <v>534</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>312</v>
+      </c>
+      <c r="B16" t="s">
+        <v>355</v>
+      </c>
+      <c r="C16" t="s">
+        <v>141</v>
+      </c>
+      <c r="D16" t="s">
+        <v>535</v>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>313</v>
+      </c>
+      <c r="B17" t="s">
+        <v>356</v>
+      </c>
+      <c r="C17" t="s">
+        <v>141</v>
+      </c>
+      <c r="D17" t="s">
+        <v>536</v>
+      </c>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>314</v>
+      </c>
+      <c r="B18" t="s">
+        <v>357</v>
+      </c>
+      <c r="C18" t="s">
+        <v>141</v>
+      </c>
+      <c r="D18" t="s">
+        <v>537</v>
+      </c>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>222</v>
+      </c>
+      <c r="B19" t="s">
+        <v>438</v>
+      </c>
+      <c r="C19" t="s">
+        <v>146</v>
+      </c>
+      <c r="D19" t="s">
+        <v>538</v>
+      </c>
+      <c r="E19" t="s">
+        <v>423</v>
+      </c>
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>315</v>
+      </c>
+      <c r="B20" t="s">
+        <v>437</v>
+      </c>
+      <c r="C20" t="s">
+        <v>141</v>
+      </c>
+      <c r="D20" t="s">
+        <v>538</v>
+      </c>
+      <c r="E20" t="s">
+        <v>423</v>
+      </c>
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>316</v>
+      </c>
+      <c r="B21" t="s">
+        <v>513</v>
+      </c>
+      <c r="C21" t="s">
+        <v>141</v>
+      </c>
+      <c r="D21" t="s">
+        <v>538</v>
+      </c>
+      <c r="E21" t="s">
+        <v>423</v>
+      </c>
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="F22" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>318</v>
+      </c>
+      <c r="B23" t="s">
+        <v>359</v>
+      </c>
+      <c r="C23" t="s">
+        <v>145</v>
+      </c>
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>319</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B24" t="s">
+        <v>440</v>
+      </c>
+      <c r="C24" t="s">
+        <v>146</v>
+      </c>
+      <c r="E24" t="s">
+        <v>423</v>
+      </c>
+      <c r="F24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>320</v>
+      </c>
+      <c r="B25" t="s">
+        <v>514</v>
+      </c>
+      <c r="C25" t="s">
+        <v>145</v>
+      </c>
+      <c r="E25" t="s">
+        <v>423</v>
+      </c>
+      <c r="F25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>321</v>
+      </c>
+      <c r="B26" t="s">
+        <v>360</v>
+      </c>
+      <c r="C26" t="s">
+        <v>145</v>
+      </c>
+      <c r="F26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>322</v>
+      </c>
+      <c r="B27" t="s">
+        <v>441</v>
+      </c>
+      <c r="C27" t="s">
+        <v>146</v>
+      </c>
+      <c r="E27" t="s">
+        <v>423</v>
+      </c>
+      <c r="F27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>323</v>
+      </c>
+      <c r="B28" t="s">
+        <v>516</v>
+      </c>
+      <c r="C28" t="s">
+        <v>145</v>
+      </c>
+      <c r="D28" t="s">
+        <v>518</v>
+      </c>
+      <c r="E28" t="s">
+        <v>423</v>
+      </c>
+      <c r="F28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F29" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="C2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>320</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C30" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F30" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="B31" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C31" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F31" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F32" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F33" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F34" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F35" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F36" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F37" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F38" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F39" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F40" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F41" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F42" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F43" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="F44" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="F45" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="F46" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>229</v>
+      </c>
+      <c r="B47" t="s">
+        <v>238</v>
+      </c>
+      <c r="C47" t="s">
+        <v>145</v>
+      </c>
+      <c r="F47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>342</v>
+      </c>
+      <c r="B48" t="s">
+        <v>442</v>
+      </c>
+      <c r="C48" t="s">
+        <v>145</v>
+      </c>
+      <c r="E48" t="s">
+        <v>423</v>
+      </c>
+      <c r="F48" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>231</v>
+      </c>
+      <c r="B49" t="s">
+        <v>443</v>
+      </c>
+      <c r="C49" t="s">
         <v>146</v>
       </c>
-      <c r="D3" t="s">
-        <v>404</v>
-      </c>
-      <c r="F3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>321</v>
-      </c>
-      <c r="B4" t="s">
-        <v>364</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="E49" t="s">
+        <v>423</v>
+      </c>
+      <c r="F49" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>232</v>
+      </c>
+      <c r="B50" t="s">
+        <v>239</v>
+      </c>
+      <c r="C50" t="s">
+        <v>145</v>
+      </c>
+      <c r="F50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>269</v>
+      </c>
+      <c r="B51" t="s">
+        <v>270</v>
+      </c>
+      <c r="C51" t="s">
+        <v>145</v>
+      </c>
+      <c r="F51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>343</v>
+      </c>
+      <c r="B52" t="s">
+        <v>379</v>
+      </c>
+      <c r="C52" t="s">
         <v>146</v>
-      </c>
-      <c r="D4" t="s">
-        <v>405</v>
-      </c>
-      <c r="F4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>226</v>
-      </c>
-      <c r="B5" t="s">
-        <v>242</v>
-      </c>
-      <c r="C5" t="s">
-        <v>147</v>
-      </c>
-      <c r="F5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>227</v>
-      </c>
-      <c r="B6" t="s">
-        <v>243</v>
-      </c>
-      <c r="C6" t="s">
-        <v>150</v>
-      </c>
-      <c r="F6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>156</v>
-      </c>
-      <c r="B7" t="s">
-        <v>197</v>
-      </c>
-      <c r="C7" t="s">
-        <v>147</v>
-      </c>
-      <c r="F7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>322</v>
-      </c>
-      <c r="B8" t="s">
-        <v>365</v>
-      </c>
-      <c r="C8" t="s">
-        <v>147</v>
-      </c>
-      <c r="F8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>323</v>
-      </c>
-      <c r="B9" t="s">
-        <v>366</v>
-      </c>
-      <c r="C9" t="s">
-        <v>147</v>
-      </c>
-      <c r="F9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>324</v>
-      </c>
-      <c r="B10" t="s">
-        <v>367</v>
-      </c>
-      <c r="C10" t="s">
-        <v>146</v>
-      </c>
-      <c r="D10" t="s">
-        <v>404</v>
-      </c>
-      <c r="F10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>325</v>
-      </c>
-      <c r="B11" t="s">
-        <v>368</v>
-      </c>
-      <c r="C11" t="s">
-        <v>146</v>
-      </c>
-      <c r="D11" t="s">
-        <v>406</v>
-      </c>
-      <c r="F11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>326</v>
-      </c>
-      <c r="B12" t="s">
-        <v>369</v>
-      </c>
-      <c r="C12" t="s">
-        <v>146</v>
-      </c>
-      <c r="D12" t="s">
-        <v>407</v>
-      </c>
-      <c r="F12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>327</v>
-      </c>
-      <c r="B13" t="s">
-        <v>370</v>
-      </c>
-      <c r="C13" t="s">
-        <v>146</v>
-      </c>
-      <c r="D13" t="s">
-        <v>408</v>
-      </c>
-      <c r="F13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>328</v>
-      </c>
-      <c r="B14" t="s">
-        <v>371</v>
-      </c>
-      <c r="C14" t="s">
-        <v>146</v>
-      </c>
-      <c r="D14" t="s">
-        <v>409</v>
-      </c>
-      <c r="F14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>329</v>
-      </c>
-      <c r="B15" t="s">
-        <v>372</v>
-      </c>
-      <c r="C15" t="s">
-        <v>146</v>
-      </c>
-      <c r="D15" t="s">
-        <v>410</v>
-      </c>
-      <c r="F15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>330</v>
-      </c>
-      <c r="B16" t="s">
-        <v>373</v>
-      </c>
-      <c r="C16" t="s">
-        <v>146</v>
-      </c>
-      <c r="D16" t="s">
-        <v>411</v>
-      </c>
-      <c r="F16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>331</v>
-      </c>
-      <c r="B17" t="s">
-        <v>374</v>
-      </c>
-      <c r="C17" t="s">
-        <v>146</v>
-      </c>
-      <c r="D17" t="s">
-        <v>412</v>
-      </c>
-      <c r="F17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>332</v>
-      </c>
-      <c r="B18" t="s">
-        <v>375</v>
-      </c>
-      <c r="C18" t="s">
-        <v>146</v>
-      </c>
-      <c r="D18" t="s">
-        <v>413</v>
-      </c>
-      <c r="F18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>228</v>
-      </c>
-      <c r="B19" t="s">
-        <v>244</v>
-      </c>
-      <c r="C19" t="s">
-        <v>151</v>
-      </c>
-      <c r="F19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>333</v>
-      </c>
-      <c r="B20" t="s">
-        <v>376</v>
-      </c>
-      <c r="C20" t="s">
-        <v>146</v>
-      </c>
-      <c r="D20" t="s">
-        <v>520</v>
-      </c>
-      <c r="F20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>334</v>
-      </c>
-      <c r="B21" t="s">
-        <v>377</v>
-      </c>
-      <c r="C21" t="s">
-        <v>146</v>
-      </c>
-      <c r="D21" t="s">
-        <v>521</v>
-      </c>
-      <c r="F21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>335</v>
-      </c>
-      <c r="B22" t="s">
-        <v>378</v>
-      </c>
-      <c r="C22" t="s">
-        <v>146</v>
-      </c>
-      <c r="D22" t="s">
-        <v>522</v>
-      </c>
-      <c r="F22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>336</v>
-      </c>
-      <c r="B23" t="s">
-        <v>379</v>
-      </c>
-      <c r="C23" t="s">
-        <v>150</v>
-      </c>
-      <c r="F23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>337</v>
-      </c>
-      <c r="B24" t="s">
-        <v>380</v>
-      </c>
-      <c r="C24" t="s">
-        <v>151</v>
-      </c>
-      <c r="F24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>338</v>
-      </c>
-      <c r="B25" t="s">
-        <v>381</v>
-      </c>
-      <c r="C25" t="s">
-        <v>150</v>
-      </c>
-      <c r="F25" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>339</v>
-      </c>
-      <c r="B26" t="s">
-        <v>382</v>
-      </c>
-      <c r="C26" t="s">
-        <v>150</v>
-      </c>
-      <c r="F26" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>340</v>
-      </c>
-      <c r="B27" t="s">
-        <v>383</v>
-      </c>
-      <c r="C27" t="s">
-        <v>151</v>
-      </c>
-      <c r="F27" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>341</v>
-      </c>
-      <c r="B28" t="s">
-        <v>384</v>
-      </c>
-      <c r="C28" t="s">
-        <v>150</v>
-      </c>
-      <c r="F28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>342</v>
-      </c>
-      <c r="B29" t="s">
-        <v>385</v>
-      </c>
-      <c r="C29" t="s">
-        <v>150</v>
-      </c>
-      <c r="F29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>343</v>
-      </c>
-      <c r="B30" t="s">
-        <v>386</v>
-      </c>
-      <c r="C30" t="s">
-        <v>150</v>
-      </c>
-      <c r="F30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>344</v>
-      </c>
-      <c r="B31" t="s">
-        <v>387</v>
-      </c>
-      <c r="C31" t="s">
-        <v>150</v>
-      </c>
-      <c r="F31" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>345</v>
-      </c>
-      <c r="B32" t="s">
-        <v>388</v>
-      </c>
-      <c r="C32" t="s">
-        <v>150</v>
-      </c>
-      <c r="F32" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>346</v>
-      </c>
-      <c r="B33" t="s">
-        <v>389</v>
-      </c>
-      <c r="C33" t="s">
-        <v>150</v>
-      </c>
-      <c r="F33" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>347</v>
-      </c>
-      <c r="B34" t="s">
-        <v>390</v>
-      </c>
-      <c r="C34" t="s">
-        <v>150</v>
-      </c>
-      <c r="F34" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>348</v>
-      </c>
-      <c r="B35" t="s">
-        <v>391</v>
-      </c>
-      <c r="C35" t="s">
-        <v>150</v>
-      </c>
-      <c r="F35" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>349</v>
-      </c>
-      <c r="B36" t="s">
-        <v>392</v>
-      </c>
-      <c r="C36" t="s">
-        <v>150</v>
-      </c>
-      <c r="F36" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>350</v>
-      </c>
-      <c r="B37" t="s">
-        <v>393</v>
-      </c>
-      <c r="C37" t="s">
-        <v>150</v>
-      </c>
-      <c r="F37" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>351</v>
-      </c>
-      <c r="B38" t="s">
-        <v>394</v>
-      </c>
-      <c r="C38" t="s">
-        <v>150</v>
-      </c>
-      <c r="F38" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>352</v>
-      </c>
-      <c r="B39" t="s">
-        <v>395</v>
-      </c>
-      <c r="C39" t="s">
-        <v>150</v>
-      </c>
-      <c r="F39" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>353</v>
-      </c>
-      <c r="B40" t="s">
-        <v>396</v>
-      </c>
-      <c r="C40" t="s">
-        <v>150</v>
-      </c>
-      <c r="F40" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>354</v>
-      </c>
-      <c r="B41" t="s">
-        <v>397</v>
-      </c>
-      <c r="C41" t="s">
-        <v>150</v>
-      </c>
-      <c r="F41" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>355</v>
-      </c>
-      <c r="B42" t="s">
-        <v>398</v>
-      </c>
-      <c r="C42" t="s">
-        <v>150</v>
-      </c>
-      <c r="F42" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>356</v>
-      </c>
-      <c r="B43" t="s">
-        <v>399</v>
-      </c>
-      <c r="C43" t="s">
-        <v>150</v>
-      </c>
-      <c r="F43" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>357</v>
-      </c>
-      <c r="B44" t="s">
-        <v>400</v>
-      </c>
-      <c r="C44" t="s">
-        <v>146</v>
-      </c>
-      <c r="D44" t="s">
-        <v>414</v>
-      </c>
-      <c r="F44" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>358</v>
-      </c>
-      <c r="B45" t="s">
-        <v>401</v>
-      </c>
-      <c r="C45" t="s">
-        <v>146</v>
-      </c>
-      <c r="D45" t="s">
-        <v>415</v>
-      </c>
-      <c r="F45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>359</v>
-      </c>
-      <c r="B46" t="s">
-        <v>402</v>
-      </c>
-      <c r="C46" t="s">
-        <v>146</v>
-      </c>
-      <c r="D46" t="s">
-        <v>416</v>
-      </c>
-      <c r="F46" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>235</v>
-      </c>
-      <c r="B47" t="s">
-        <v>251</v>
-      </c>
-      <c r="C47" t="s">
-        <v>150</v>
-      </c>
-      <c r="F47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>360</v>
-      </c>
-      <c r="B48" t="s">
-        <v>252</v>
-      </c>
-      <c r="C48" t="s">
-        <v>150</v>
-      </c>
-      <c r="F48" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>237</v>
-      </c>
-      <c r="B49" t="s">
-        <v>253</v>
-      </c>
-      <c r="C49" t="s">
-        <v>151</v>
-      </c>
-      <c r="F49" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>238</v>
-      </c>
-      <c r="B50" t="s">
-        <v>254</v>
-      </c>
-      <c r="C50" t="s">
-        <v>150</v>
-      </c>
-      <c r="F50" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>286</v>
-      </c>
-      <c r="B51" t="s">
-        <v>287</v>
-      </c>
-      <c r="C51" t="s">
-        <v>150</v>
-      </c>
-      <c r="F51" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>361</v>
-      </c>
-      <c r="B52" t="s">
-        <v>403</v>
-      </c>
-      <c r="C52" t="s">
-        <v>151</v>
       </c>
       <c r="F52" t="b">
         <v>0</v>
@@ -7380,24 +7763,24 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.140625" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7429,518 +7812,539 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="B2" t="s">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="C2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="B3" t="s">
-        <v>363</v>
+        <v>345</v>
       </c>
       <c r="C3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D3" t="s">
-        <v>404</v>
+        <v>523</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="B4" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
       <c r="C4" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D4" t="s">
-        <v>256</v>
+        <v>524</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B5" t="s">
-        <v>242</v>
+        <v>380</v>
       </c>
       <c r="C5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B6" t="s">
-        <v>243</v>
+        <v>423</v>
       </c>
       <c r="C6" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C7" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B8" t="s">
-        <v>244</v>
+        <v>438</v>
       </c>
       <c r="C8" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D8" t="s">
-        <v>417</v>
+        <v>478</v>
+      </c>
+      <c r="E8" t="s">
+        <v>423</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>315</v>
+      </c>
+      <c r="B9" t="s">
+        <v>437</v>
+      </c>
+      <c r="C9" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" t="s">
+        <v>478</v>
+      </c>
+      <c r="E9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>316</v>
+      </c>
+      <c r="B10" t="s">
+        <v>513</v>
+      </c>
+      <c r="C10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D10" t="s">
+        <v>478</v>
+      </c>
+      <c r="E10" t="s">
+        <v>423</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>317</v>
+      </c>
+      <c r="B11" t="s">
+        <v>358</v>
+      </c>
+      <c r="C11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D11" t="s">
+        <v>522</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="F12" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F13" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="F14" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="F15" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F16" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="F17" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F18" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B19" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F19" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="F20" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F21" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F22" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="F23" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F24" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="C9" t="s">
-        <v>146</v>
-      </c>
-      <c r="D9" t="s">
-        <v>418</v>
-      </c>
-      <c r="F9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>334</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C25" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F25" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="C10" t="s">
-        <v>146</v>
-      </c>
-      <c r="D10" t="s">
-        <v>419</v>
-      </c>
-      <c r="F10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>335</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="C26" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="F26" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="C11" t="s">
-        <v>146</v>
-      </c>
-      <c r="D11" t="s">
-        <v>420</v>
-      </c>
-      <c r="F11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>344</v>
-      </c>
-      <c r="B12" t="s">
-        <v>387</v>
-      </c>
-      <c r="C12" t="s">
-        <v>146</v>
-      </c>
-      <c r="D12" t="s">
-        <v>257</v>
-      </c>
-      <c r="F12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>345</v>
-      </c>
-      <c r="B13" t="s">
-        <v>388</v>
-      </c>
-      <c r="C13" t="s">
-        <v>146</v>
-      </c>
-      <c r="D13" t="s">
-        <v>224</v>
-      </c>
-      <c r="F13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>346</v>
-      </c>
-      <c r="B14" t="s">
-        <v>389</v>
-      </c>
-      <c r="C14" t="s">
-        <v>146</v>
-      </c>
-      <c r="D14" t="s">
-        <v>421</v>
-      </c>
-      <c r="F14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>347</v>
-      </c>
-      <c r="B15" t="s">
-        <v>390</v>
-      </c>
-      <c r="C15" t="s">
-        <v>146</v>
-      </c>
-      <c r="D15" t="s">
-        <v>421</v>
-      </c>
-      <c r="F15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>348</v>
-      </c>
-      <c r="B16" t="s">
-        <v>391</v>
-      </c>
-      <c r="C16" t="s">
-        <v>146</v>
-      </c>
-      <c r="D16" t="s">
-        <v>224</v>
-      </c>
-      <c r="F16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>349</v>
-      </c>
-      <c r="B17" t="s">
-        <v>392</v>
-      </c>
-      <c r="C17" t="s">
-        <v>146</v>
-      </c>
-      <c r="D17" t="s">
-        <v>421</v>
-      </c>
-      <c r="F17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>350</v>
-      </c>
-      <c r="B18" t="s">
-        <v>393</v>
-      </c>
-      <c r="C18" t="s">
-        <v>146</v>
-      </c>
-      <c r="D18" t="s">
-        <v>224</v>
-      </c>
-      <c r="F18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>351</v>
-      </c>
-      <c r="B19" t="s">
-        <v>394</v>
-      </c>
-      <c r="C19" t="s">
-        <v>146</v>
-      </c>
-      <c r="D19" t="s">
-        <v>224</v>
-      </c>
-      <c r="F19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>352</v>
-      </c>
-      <c r="B20" t="s">
-        <v>395</v>
-      </c>
-      <c r="C20" t="s">
-        <v>146</v>
-      </c>
-      <c r="D20" t="s">
-        <v>421</v>
-      </c>
-      <c r="F20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>353</v>
-      </c>
-      <c r="B21" t="s">
-        <v>396</v>
-      </c>
-      <c r="C21" t="s">
-        <v>146</v>
-      </c>
-      <c r="D21" t="s">
-        <v>224</v>
-      </c>
-      <c r="F21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>354</v>
-      </c>
-      <c r="B22" t="s">
-        <v>397</v>
-      </c>
-      <c r="C22" t="s">
-        <v>146</v>
-      </c>
-      <c r="D22" t="s">
-        <v>224</v>
-      </c>
-      <c r="F22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>355</v>
-      </c>
-      <c r="B23" t="s">
-        <v>398</v>
-      </c>
-      <c r="C23" t="s">
-        <v>146</v>
-      </c>
-      <c r="D23" t="s">
-        <v>421</v>
-      </c>
-      <c r="F23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>356</v>
-      </c>
-      <c r="B24" t="s">
-        <v>399</v>
-      </c>
-      <c r="C24" t="s">
-        <v>146</v>
-      </c>
-      <c r="D24" t="s">
-        <v>224</v>
-      </c>
-      <c r="F24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>357</v>
-      </c>
-      <c r="B25" t="s">
-        <v>400</v>
-      </c>
-      <c r="C25" t="s">
-        <v>146</v>
-      </c>
-      <c r="D25" t="s">
-        <v>224</v>
-      </c>
-      <c r="F25" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>358</v>
-      </c>
-      <c r="B26" t="s">
-        <v>401</v>
-      </c>
-      <c r="C26" t="s">
-        <v>146</v>
-      </c>
-      <c r="D26" t="s">
-        <v>421</v>
-      </c>
-      <c r="F26" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>359</v>
-      </c>
-      <c r="B27" t="s">
-        <v>402</v>
-      </c>
-      <c r="C27" t="s">
-        <v>146</v>
-      </c>
-      <c r="D27" t="s">
-        <v>224</v>
-      </c>
-      <c r="F27" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C27" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F27" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B28" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="C28" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>360</v>
+        <v>342</v>
       </c>
       <c r="B29" t="s">
-        <v>252</v>
+        <v>442</v>
       </c>
       <c r="C29" t="s">
-        <v>148</v>
+        <v>143</v>
+      </c>
+      <c r="E29" t="s">
+        <v>423</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I29" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B30" t="s">
-        <v>253</v>
+        <v>443</v>
       </c>
       <c r="C30" t="s">
-        <v>147</v>
+        <v>142</v>
+      </c>
+      <c r="E30" t="s">
+        <v>423</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I30" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B31" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="C31" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F31" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="B32" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="C32" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="B33" t="s">
-        <v>403</v>
+        <v>379</v>
       </c>
       <c r="C33" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D33" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>

--- a/examples/oucru/oucru-dr/resources/outputs/templates/ccfgs_dr_data_fixed.xlsx
+++ b/examples/oucru/oucru-dr/resources/outputs/templates/ccfgs_dr_data_fixed.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kelda\Desktop\repositories\github\datablend\main\examples\oucru\oucru-dr\resources\outputs\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bernard\Desktop\repositories\datablend\examples\oucru\oucru-dr\resources\outputs\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF71D2D5-B1D9-49D0-A2B5-B49B0C17E37B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4933EE78-2807-488D-98EC-BB019DCEBF53}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DR1_2232_ENROL" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1456" uniqueCount="545">
   <si>
     <t>from_name</t>
   </si>
@@ -405,9 +405,6 @@
   </si>
   <si>
     <t>dbp</t>
-  </si>
-  <si>
-    <t>progress bleeding</t>
   </si>
   <si>
     <t>other symptoms / comments</t>
@@ -1604,9 +1601,6 @@
     <t>got it from POSITIVE_PCR?</t>
   </si>
   <si>
-    <t>{1: 1, 2: 2, 9: 9}</t>
-  </si>
-  <si>
     <t>{0: 'V_1'}</t>
   </si>
   <si>
@@ -1662,6 +1656,27 @@
   </si>
   <si>
     <t>{'Mising': None, 'Missing': None}</t>
+  </si>
+  <si>
+    <t>going back patient hat fever 5 days ago</t>
+  </si>
+  <si>
+    <t>bleeding after admission</t>
+  </si>
+  <si>
+    <t>forget</t>
+  </si>
+  <si>
+    <t>ns1_urine_optical_density</t>
+  </si>
+  <si>
+    <t>ns1_plasma_optical_density</t>
+  </si>
+  <si>
+    <t>serology_interpretation</t>
+  </si>
+  <si>
+    <t>{1: 'Primary', 2: 'Secondary', 9: None}</t>
   </si>
 </sst>
 </file>
@@ -2110,10 +2125,10 @@
   <dimension ref="A1:K88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="E77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I87" sqref="I87"/>
+      <selection pane="bottomRight" activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2162,7 +2177,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -2173,7 +2188,7 @@
         <v>97</v>
       </c>
       <c r="C2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -2184,10 +2199,10 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -2198,19 +2213,19 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -2221,7 +2236,7 @@
         <v>98</v>
       </c>
       <c r="C5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -2235,7 +2250,7 @@
         <v>99</v>
       </c>
       <c r="C6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -2246,16 +2261,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -2266,10 +2281,10 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
@@ -2283,10 +2298,10 @@
         <v>101</v>
       </c>
       <c r="C9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -2300,7 +2315,7 @@
         <v>102</v>
       </c>
       <c r="C10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -2314,7 +2329,7 @@
         <v>103</v>
       </c>
       <c r="C11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -2328,7 +2343,7 @@
         <v>104</v>
       </c>
       <c r="C12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -2342,7 +2357,7 @@
         <v>105</v>
       </c>
       <c r="C13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -2356,13 +2371,13 @@
         <v>106</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F14" s="4" t="b">
         <v>0</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -2373,13 +2388,13 @@
         <v>107</v>
       </c>
       <c r="C15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E15" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -2390,22 +2405,22 @@
         <v>24</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F16" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -2413,36 +2428,39 @@
         <v>108</v>
       </c>
       <c r="C17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D17" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E17" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F18" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -2450,56 +2468,56 @@
         <v>109</v>
       </c>
       <c r="C19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D19" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E19" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F20" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D21" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E21" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>30</v>
       </c>
@@ -2507,198 +2525,198 @@
         <v>110</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F22" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D23" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E23" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F24" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E25" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F26" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D27" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E27" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F28" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D29" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E29" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B30" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="F30" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="F30" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" s="6" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D31" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E31" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F31" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F32" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -2709,13 +2727,13 @@
         <v>111</v>
       </c>
       <c r="C33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D33" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E33" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
@@ -2726,16 +2744,16 @@
         <v>42</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F34" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -2743,16 +2761,16 @@
         <v>43</v>
       </c>
       <c r="B35" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D35" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E35" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
@@ -2763,16 +2781,16 @@
         <v>44</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F36" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -2780,16 +2798,16 @@
         <v>45</v>
       </c>
       <c r="B37" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C37" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D37" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E37" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
@@ -2800,16 +2818,16 @@
         <v>46</v>
       </c>
       <c r="B38" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
@@ -2820,16 +2838,16 @@
         <v>47</v>
       </c>
       <c r="B39" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D39" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E39" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
@@ -2840,16 +2858,16 @@
         <v>48</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F40" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -2857,16 +2875,16 @@
         <v>49</v>
       </c>
       <c r="B41" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C41" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D41" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E41" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F41" t="b">
         <v>0</v>
@@ -2877,16 +2895,16 @@
         <v>50</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F42" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -2894,10 +2912,10 @@
         <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F43" t="b">
         <v>0</v>
@@ -2911,10 +2929,10 @@
         <v>112</v>
       </c>
       <c r="C44" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D44" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
@@ -2928,10 +2946,10 @@
         <v>113</v>
       </c>
       <c r="C45" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D45" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F45" t="b">
         <v>0</v>
@@ -2945,10 +2963,10 @@
         <v>114</v>
       </c>
       <c r="C46" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D46" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F46" t="b">
         <v>0</v>
@@ -2962,10 +2980,10 @@
         <v>115</v>
       </c>
       <c r="C47" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F47" t="b">
         <v>0</v>
@@ -2976,13 +2994,13 @@
         <v>56</v>
       </c>
       <c r="B48" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C48" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E48" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
@@ -2996,16 +3014,16 @@
         <v>116</v>
       </c>
       <c r="C49" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E49" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F49" t="b">
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="50" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3013,16 +3031,16 @@
         <v>58</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F50" s="6" t="b">
         <v>0</v>
@@ -3036,7 +3054,7 @@
         <v>117</v>
       </c>
       <c r="C51" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F51" t="b">
         <v>0</v>
@@ -3050,13 +3068,13 @@
         <v>118</v>
       </c>
       <c r="C52" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D52" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E52" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F52" t="b">
         <v>0</v>
@@ -3067,16 +3085,16 @@
         <v>61</v>
       </c>
       <c r="B53" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C53" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D53" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E53" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F53" t="b">
         <v>0</v>
@@ -3087,16 +3105,16 @@
         <v>62</v>
       </c>
       <c r="B54" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C54" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D54" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E54" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F54" t="b">
         <v>0</v>
@@ -3107,16 +3125,16 @@
         <v>63</v>
       </c>
       <c r="B55" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C55" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D55" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E55" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F55" t="b">
         <v>0</v>
@@ -3127,16 +3145,16 @@
         <v>64</v>
       </c>
       <c r="B56" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C56" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E56" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F56" t="b">
         <v>0</v>
@@ -3150,16 +3168,16 @@
         <v>119</v>
       </c>
       <c r="C57" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E57" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F57" t="b">
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -3170,16 +3188,16 @@
         <v>120</v>
       </c>
       <c r="C58" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E58" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F58" t="b">
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -3190,16 +3208,16 @@
         <v>121</v>
       </c>
       <c r="C59" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E59" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F59" t="b">
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -3207,22 +3225,22 @@
         <v>68</v>
       </c>
       <c r="B60" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C60" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D60" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E60" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F60" t="b">
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -3230,19 +3248,19 @@
         <v>69</v>
       </c>
       <c r="B61" t="s">
+        <v>413</v>
+      </c>
+      <c r="C61" t="s">
+        <v>141</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="F61" t="b">
+        <v>0</v>
+      </c>
+      <c r="J61" t="s">
         <v>414</v>
-      </c>
-      <c r="C61" t="s">
-        <v>142</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="F61" t="b">
-        <v>0</v>
-      </c>
-      <c r="J61" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="62" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3250,16 +3268,16 @@
         <v>70</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F62" s="4" t="b">
         <v>0</v>
@@ -3270,16 +3288,16 @@
         <v>71</v>
       </c>
       <c r="B63" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C63" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D63" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E63" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F63" t="b">
         <v>0</v>
@@ -3290,261 +3308,273 @@
         <v>72</v>
       </c>
       <c r="B64" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C64" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D64" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E64" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F64" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>122</v>
+        <v>483</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>383</v>
       </c>
       <c r="F65" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K65" s="4" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>74</v>
       </c>
       <c r="B66" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C66" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F66" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>75</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F67" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K67" s="4" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>76</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F68" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K68" s="4" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>77</v>
       </c>
       <c r="B69" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C69" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D69" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E69" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F69" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>78</v>
       </c>
       <c r="B70" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C70" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D70" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F70" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>79</v>
       </c>
       <c r="B71" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C71" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F71" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>80</v>
       </c>
       <c r="B72" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C72" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F72" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>81</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F73" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>82</v>
       </c>
       <c r="B74" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C74" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F74" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>83</v>
       </c>
       <c r="B75" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C75" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F75" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>84</v>
       </c>
       <c r="B76" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C76" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D76" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F76" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>85</v>
       </c>
       <c r="B77" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C77" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F77" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>86</v>
       </c>
       <c r="B78" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C78" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D78" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F78" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>87</v>
       </c>
       <c r="B79" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C79" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F79" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>88</v>
       </c>
       <c r="B80" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C80" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D80" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F80" t="b">
         <v>0</v>
@@ -3555,13 +3585,13 @@
         <v>89</v>
       </c>
       <c r="B81" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C81" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D81" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F81" t="b">
         <v>0</v>
@@ -3572,16 +3602,16 @@
         <v>90</v>
       </c>
       <c r="B82" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C82" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F82" t="b">
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -3589,10 +3619,10 @@
         <v>91</v>
       </c>
       <c r="B83" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C83" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F83" t="b">
         <v>0</v>
@@ -3603,16 +3633,16 @@
         <v>92</v>
       </c>
       <c r="B84" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C84" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F84" t="b">
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -3620,16 +3650,16 @@
         <v>93</v>
       </c>
       <c r="B85" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C85" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D85" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E85" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F85" t="b">
         <v>0</v>
@@ -3640,10 +3670,10 @@
         <v>94</v>
       </c>
       <c r="B86" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C86" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F86" t="b">
         <v>0</v>
@@ -3654,16 +3684,16 @@
         <v>95</v>
       </c>
       <c r="B87" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C87" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F87" t="b">
         <v>1</v>
       </c>
       <c r="I87" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -3671,10 +3701,10 @@
         <v>96</v>
       </c>
       <c r="B88" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C88" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F88" t="b">
         <v>0</v>
@@ -3689,7 +3719,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A44" sqref="A44:XFD48"/>
     </sheetView>
   </sheetViews>
@@ -3739,18 +3769,18 @@
         <v>9</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -3758,13 +3788,13 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -3778,7 +3808,7 @@
         <v>97</v>
       </c>
       <c r="C4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -3786,13 +3816,13 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -3800,30 +3830,30 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B6" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -3837,7 +3867,7 @@
         <v>99</v>
       </c>
       <c r="C8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -3851,13 +3881,13 @@
         <v>100</v>
       </c>
       <c r="C9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D9" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -3865,13 +3895,13 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
@@ -3879,16 +3909,16 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D11" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -3902,13 +3932,13 @@
         <v>107</v>
       </c>
       <c r="C12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D12" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E12" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -3919,19 +3949,19 @@
         <v>56</v>
       </c>
       <c r="B13" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E13" t="s">
+        <v>422</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
         <v>423</v>
-      </c>
-      <c r="F13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -3942,16 +3972,16 @@
         <v>119</v>
       </c>
       <c r="C14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E14" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -3962,16 +3992,16 @@
         <v>120</v>
       </c>
       <c r="C15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -3982,39 +4012,39 @@
         <v>121</v>
       </c>
       <c r="C16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E16" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B17" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D17" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E17" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -4022,19 +4052,19 @@
         <v>69</v>
       </c>
       <c r="B18" t="s">
+        <v>413</v>
+      </c>
+      <c r="C18" t="s">
+        <v>141</v>
+      </c>
+      <c r="E18" t="s">
+        <v>422</v>
+      </c>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
         <v>414</v>
-      </c>
-      <c r="C18" t="s">
-        <v>142</v>
-      </c>
-      <c r="E18" t="s">
-        <v>423</v>
-      </c>
-      <c r="F18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -4042,13 +4072,13 @@
         <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E19" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -4059,13 +4089,13 @@
         <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E20" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -4076,13 +4106,13 @@
         <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E21" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -4093,13 +4123,13 @@
         <v>63</v>
       </c>
       <c r="B22" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E22" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
@@ -4110,13 +4140,13 @@
         <v>49</v>
       </c>
       <c r="B23" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E23" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -4127,13 +4157,13 @@
         <v>84</v>
       </c>
       <c r="B24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D24" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
@@ -4141,19 +4171,19 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B25" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E25" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -4161,39 +4191,39 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B26" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D26" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E26" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B27" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D27" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
@@ -4201,398 +4231,398 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B28" t="s">
+        <v>432</v>
+      </c>
+      <c r="C28" t="s">
+        <v>144</v>
+      </c>
+      <c r="E28" t="s">
+        <v>422</v>
+      </c>
+      <c r="F28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" t="s">
         <v>433</v>
-      </c>
-      <c r="C28" t="s">
-        <v>145</v>
-      </c>
-      <c r="E28" t="s">
-        <v>423</v>
-      </c>
-      <c r="F28" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E29" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B30" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C30" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E30" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B31" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C31" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E31" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F31" t="b">
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B32" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C32" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E32" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="33" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F33" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="34" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F34" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="35" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F35" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="36" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F36" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="37" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F37" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="38" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F38" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="39" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F39" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="40" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F40" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="41" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F41" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="42" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F42" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="43" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F43" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="44" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F44" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="45" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F45" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="46" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F46" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="47" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F47" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="48" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F48" s="7" t="b">
         <v>0</v>
@@ -4600,16 +4630,16 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B49" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C49" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D49" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F49" t="b">
         <v>0</v>
@@ -4617,16 +4647,16 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B50" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C50" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D50" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F50" t="b">
         <v>0</v>
@@ -4634,19 +4664,19 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B51" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C51" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D51" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E51" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F51" t="b">
         <v>0</v>
@@ -4654,19 +4684,19 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B52" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C52" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D52" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E52" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F52" t="b">
         <v>0</v>
@@ -4674,19 +4704,19 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B53" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C53" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D53" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E53" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F53" t="b">
         <v>0</v>
@@ -4694,19 +4724,19 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B54" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C54" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D54" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E54" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F54" t="b">
         <v>0</v>
@@ -4714,19 +4744,19 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B55" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C55" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D55" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E55" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F55" t="b">
         <v>0</v>
@@ -4734,19 +4764,19 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B56" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C56" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D56" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E56" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F56" t="b">
         <v>0</v>
@@ -4754,16 +4784,16 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B57" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C57" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D57" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F57" t="b">
         <v>0</v>
@@ -4771,16 +4801,16 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B58" t="s">
+        <v>216</v>
+      </c>
+      <c r="C58" t="s">
+        <v>140</v>
+      </c>
+      <c r="D58" t="s">
         <v>217</v>
-      </c>
-      <c r="C58" t="s">
-        <v>141</v>
-      </c>
-      <c r="D58" t="s">
-        <v>218</v>
       </c>
       <c r="F58" t="b">
         <v>0</v>
@@ -4796,7 +4826,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4845,21 +4875,21 @@
         <v>9</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -4867,13 +4897,13 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -4881,13 +4911,13 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -4895,13 +4925,13 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -4909,19 +4939,19 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -4929,19 +4959,19 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -4949,19 +4979,19 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B8" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -4969,13 +4999,13 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B9" t="s">
-        <v>236</v>
+        <v>542</v>
       </c>
       <c r="C9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -4983,36 +5013,36 @@
     </row>
     <row r="10" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F10" s="6" t="b">
         <v>0</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B11" t="s">
-        <v>237</v>
+        <v>541</v>
       </c>
       <c r="C11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -5020,119 +5050,119 @@
     </row>
     <row r="12" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F12" s="6" t="b">
         <v>0</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F13" s="4" t="b">
         <v>0</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F14" s="4" t="b">
         <v>0</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F15" s="4" t="b">
         <v>0</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F16" s="4" t="b">
         <v>0</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B17" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -5140,16 +5170,16 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D18" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -5164,7 +5194,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
@@ -5219,16 +5249,16 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -5236,13 +5266,13 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -5250,13 +5280,13 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -5264,13 +5294,13 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -5278,36 +5308,36 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -5315,19 +5345,19 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B8" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D8" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -5335,36 +5365,36 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B10" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -5372,13 +5402,13 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -5386,13 +5416,13 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -5400,19 +5430,19 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B13" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D13" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E13" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -5420,13 +5450,13 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -5434,19 +5464,19 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B15" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D15" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E15" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -5454,13 +5484,13 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -5468,30 +5498,30 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B17" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
       </c>
       <c r="K17" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -5499,98 +5529,98 @@
     </row>
     <row r="19" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F19" s="4" t="b">
         <v>0</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F20" s="4" t="b">
         <v>0</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F21" t="b">
         <v>1</v>
       </c>
       <c r="K21" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F22" s="4" t="b">
         <v>0</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F23" s="4" t="b">
         <v>0</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B24" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
@@ -5657,16 +5687,16 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -5674,13 +5704,13 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -5688,13 +5718,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -5702,13 +5732,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -5716,19 +5746,19 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B6" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -5736,19 +5766,19 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -5756,19 +5786,19 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B8" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -5776,16 +5806,16 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -5793,19 +5823,19 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B10" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -5813,16 +5843,16 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -5830,19 +5860,19 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B12" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D12" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E12" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -5850,13 +5880,13 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -5864,53 +5894,53 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B14" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E14" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B15" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -5918,13 +5948,13 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>268</v>
+      </c>
+      <c r="B17" t="s">
         <v>269</v>
       </c>
-      <c r="B17" t="s">
-        <v>270</v>
-      </c>
       <c r="C17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -5940,7 +5970,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15:K19"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5955,6 +5985,7 @@
     <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.140625" customWidth="1"/>
     <col min="10" max="10" width="11.42578125" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -5989,21 +6020,21 @@
         <v>9</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -6011,13 +6042,13 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -6025,47 +6056,47 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -6073,13 +6104,13 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -6087,16 +6118,16 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D8" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -6110,13 +6141,13 @@
         <v>107</v>
       </c>
       <c r="C9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D9" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -6127,19 +6158,19 @@
         <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -6150,16 +6181,16 @@
         <v>119</v>
       </c>
       <c r="C11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E11" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -6170,16 +6201,16 @@
         <v>120</v>
       </c>
       <c r="C12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E12" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -6190,16 +6221,16 @@
         <v>121</v>
       </c>
       <c r="C13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E13" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -6207,19 +6238,19 @@
         <v>69</v>
       </c>
       <c r="B14" t="s">
+        <v>413</v>
+      </c>
+      <c r="C14" t="s">
+        <v>141</v>
+      </c>
+      <c r="E14" t="s">
+        <v>445</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
         <v>414</v>
-      </c>
-      <c r="C14" t="s">
-        <v>142</v>
-      </c>
-      <c r="E14" t="s">
-        <v>446</v>
-      </c>
-      <c r="F14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -6227,19 +6258,19 @@
         <v>37</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F15" s="6" t="b">
         <v>0</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -6247,19 +6278,19 @@
         <v>39</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F16" s="6" t="b">
         <v>0</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -6267,19 +6298,19 @@
         <v>60</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F17" s="6" t="b">
         <v>0</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -6287,19 +6318,19 @@
         <v>63</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F18" s="6" t="b">
         <v>0</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -6307,19 +6338,19 @@
         <v>49</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F19" s="6" t="b">
         <v>0</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -6327,13 +6358,13 @@
         <v>84</v>
       </c>
       <c r="B20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D20" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -6341,19 +6372,19 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B21" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D21" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E21" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -6361,36 +6392,36 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B22" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E22" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D23" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -6398,53 +6429,53 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B24" t="s">
+        <v>432</v>
+      </c>
+      <c r="C24" t="s">
+        <v>142</v>
+      </c>
+      <c r="E24" t="s">
+        <v>445</v>
+      </c>
+      <c r="F24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" t="s">
         <v>433</v>
-      </c>
-      <c r="C24" t="s">
-        <v>143</v>
-      </c>
-      <c r="E24" t="s">
-        <v>446</v>
-      </c>
-      <c r="F24" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E25" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B26" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C26" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
@@ -6452,13 +6483,13 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B27" t="s">
+        <v>282</v>
+      </c>
+      <c r="C27" t="s">
         <v>283</v>
-      </c>
-      <c r="C27" t="s">
-        <v>284</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
@@ -6528,16 +6559,16 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -6545,13 +6576,13 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -6559,33 +6590,33 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -6593,33 +6624,33 @@
     </row>
     <row r="6" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F6" s="7" t="b">
         <v>1</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -6627,53 +6658,53 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F9" s="7" t="b">
         <v>1</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B10" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -6681,53 +6712,53 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B11" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E11" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F12" s="7" t="b">
         <v>1</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B13" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -6735,53 +6766,53 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E14" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F15" s="7" t="b">
         <v>1</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B16" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E16" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -6789,36 +6820,36 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B17" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E17" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>449</v>
+      </c>
+      <c r="B18" t="s">
         <v>450</v>
       </c>
-      <c r="B18" t="s">
-        <v>451</v>
-      </c>
       <c r="C18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E18" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -6833,19 +6864,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
     <col min="2" max="2" width="41.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="80.5703125" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" customWidth="1"/>
     <col min="5" max="5" width="26.85546875" customWidth="1"/>
     <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -6886,18 +6917,18 @@
         <v>9</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -6905,16 +6936,16 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -6922,16 +6953,16 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D4" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -6939,13 +6970,13 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -6953,16 +6984,16 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D6" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -6970,13 +7001,13 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -6984,13 +7015,13 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -6998,13 +7029,13 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -7012,16 +7043,16 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D10" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -7029,16 +7060,16 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D11" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -7046,16 +7077,16 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B12" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D12" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -7063,16 +7094,16 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D13" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -7080,16 +7111,16 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D14" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -7097,16 +7128,16 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B15" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D15" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -7114,16 +7145,16 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D16" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -7131,16 +7162,16 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B17" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D17" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -7148,16 +7179,16 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B18" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D18" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -7165,19 +7196,19 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B19" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D19" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E19" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -7185,19 +7216,19 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B20" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D20" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E20" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -7205,19 +7236,19 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B21" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D21" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E21" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -7225,16 +7256,16 @@
     </row>
     <row r="22" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>358</v>
+        <v>543</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>520</v>
+        <v>544</v>
       </c>
       <c r="F22" s="4" t="b">
         <v>0</v>
@@ -7242,13 +7273,13 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B23" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -7256,16 +7287,16 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B24" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E24" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
@@ -7273,33 +7304,33 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B25" t="s">
+        <v>513</v>
+      </c>
+      <c r="C25" t="s">
+        <v>144</v>
+      </c>
+      <c r="E25" t="s">
+        <v>422</v>
+      </c>
+      <c r="F25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" t="s">
         <v>514</v>
-      </c>
-      <c r="C25" t="s">
-        <v>145</v>
-      </c>
-      <c r="E25" t="s">
-        <v>423</v>
-      </c>
-      <c r="F25" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B26" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
@@ -7307,16 +7338,16 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B27" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E27" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
@@ -7324,53 +7355,53 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B28" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E28" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="29" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F29" s="4" t="b">
         <v>0</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="30" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F30" s="4" t="b">
         <v>0</v>
@@ -7378,294 +7409,294 @@
     </row>
     <row r="31" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F31" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="32" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F32" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="33" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F33" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="34" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F34" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="35" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F35" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="36" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F36" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="37" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F37" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="38" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F38" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="39" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F39" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="40" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F40" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="41" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F41" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="42" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F42" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="43" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F43" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="44" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F44" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="45" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="F45" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="46" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F46" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B47" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C47" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F47" t="b">
         <v>0</v>
@@ -7673,53 +7704,53 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B48" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C48" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E48" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B49" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C49" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E49" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F49" t="b">
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B50" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C50" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F50" t="b">
         <v>0</v>
@@ -7727,13 +7758,13 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>268</v>
+      </c>
+      <c r="B51" t="s">
         <v>269</v>
       </c>
-      <c r="B51" t="s">
-        <v>270</v>
-      </c>
       <c r="C51" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F51" t="b">
         <v>0</v>
@@ -7741,13 +7772,13 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B52" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C52" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F52" t="b">
         <v>0</v>
@@ -7762,7 +7793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -7814,13 +7845,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -7828,16 +7859,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -7845,16 +7876,16 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -7862,13 +7893,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -7876,13 +7907,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
@@ -7890,13 +7921,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -7904,19 +7935,19 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B8" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D8" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -7924,19 +7955,19 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B9" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -7944,19 +7975,19 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -7964,16 +7995,16 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D11" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -7981,16 +8012,16 @@
     </row>
     <row r="12" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F12" s="7" t="b">
         <v>0</v>
@@ -7998,16 +8029,16 @@
     </row>
     <row r="13" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F13" s="7" t="b">
         <v>0</v>
@@ -8015,16 +8046,16 @@
     </row>
     <row r="14" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F14" s="7" t="b">
         <v>0</v>
@@ -8032,16 +8063,16 @@
     </row>
     <row r="15" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F15" s="7" t="b">
         <v>0</v>
@@ -8049,16 +8080,16 @@
     </row>
     <row r="16" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F16" s="7" t="b">
         <v>0</v>
@@ -8066,16 +8097,16 @@
     </row>
     <row r="17" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F17" s="7" t="b">
         <v>0</v>
@@ -8083,16 +8114,16 @@
     </row>
     <row r="18" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F18" s="7" t="b">
         <v>0</v>
@@ -8100,16 +8131,16 @@
     </row>
     <row r="19" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F19" s="7" t="b">
         <v>0</v>
@@ -8117,16 +8148,16 @@
     </row>
     <row r="20" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F20" s="7" t="b">
         <v>0</v>
@@ -8134,16 +8165,16 @@
     </row>
     <row r="21" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F21" s="7" t="b">
         <v>0</v>
@@ -8151,16 +8182,16 @@
     </row>
     <row r="22" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F22" s="7" t="b">
         <v>0</v>
@@ -8168,16 +8199,16 @@
     </row>
     <row r="23" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F23" s="7" t="b">
         <v>0</v>
@@ -8185,16 +8216,16 @@
     </row>
     <row r="24" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F24" s="7" t="b">
         <v>0</v>
@@ -8202,16 +8233,16 @@
     </row>
     <row r="25" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F25" s="7" t="b">
         <v>0</v>
@@ -8219,16 +8250,16 @@
     </row>
     <row r="26" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F26" s="7" t="b">
         <v>0</v>
@@ -8236,16 +8267,16 @@
     </row>
     <row r="27" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F27" s="7" t="b">
         <v>0</v>
@@ -8253,13 +8284,13 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B28" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
@@ -8267,53 +8298,53 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B29" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E29" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B30" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E30" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B31" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F31" t="b">
         <v>0</v>
@@ -8321,13 +8352,13 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>268</v>
+      </c>
+      <c r="B32" t="s">
         <v>269</v>
       </c>
-      <c r="B32" t="s">
-        <v>270</v>
-      </c>
       <c r="C32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
@@ -8335,16 +8366,16 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B33" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D33" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>

--- a/examples/oucru/oucru-dr/resources/outputs/templates/ccfgs_dr_data_fixed.xlsx
+++ b/examples/oucru/oucru-dr/resources/outputs/templates/ccfgs_dr_data_fixed.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bernard\Desktop\repositories\datablend\examples\oucru\oucru-dr\resources\outputs\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kelda\Desktop\repositories\github\datablend\main\examples\oucru\oucru-dr\resources\outputs\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4933EE78-2807-488D-98EC-BB019DCEBF53}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E478797-05EC-4479-BC64-4A390938C9DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DR1_2232_ENROL" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1456" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="574">
   <si>
     <t>from_name</t>
   </si>
@@ -341,9 +341,6 @@
     <t>age_decimal</t>
   </si>
   <si>
-    <t>sex</t>
-  </si>
-  <si>
     <t>research</t>
   </si>
   <si>
@@ -369,9 +366,6 @@
   </si>
   <si>
     <t>muscle_pain</t>
-  </si>
-  <si>
-    <t>short_breathe_days</t>
   </si>
   <si>
     <t>cough</t>
@@ -749,12 +743,6 @@
     <t>st.code</t>
   </si>
   <si>
-    <t>od value</t>
-  </si>
-  <si>
-    <t>od value.1</t>
-  </si>
-  <si>
     <t>urine albumin (ug/ml)</t>
   </si>
   <si>
@@ -1115,15 +1103,6 @@
     <t>d3-d5</t>
   </si>
   <si>
-    <t>primary/ secondary assessment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">od value ns1 plasma (qualitative test)  </t>
-  </si>
-  <si>
-    <t>od value ns1 urine</t>
-  </si>
-  <si>
     <t>ns1 urine (ng/l)</t>
   </si>
   <si>
@@ -1199,9 +1178,6 @@
     <t>vomiting</t>
   </si>
   <si>
-    <t>vomiting_duration</t>
-  </si>
-  <si>
     <t>day</t>
   </si>
   <si>
@@ -1211,60 +1187,30 @@
     <t>diarrhoea</t>
   </si>
   <si>
-    <t>diarrhoea_duration</t>
-  </si>
-  <si>
-    <t>cough_duration</t>
-  </si>
-  <si>
     <t>abdominal_pain</t>
   </si>
   <si>
-    <t>abdominal_pain_duration</t>
-  </si>
-  <si>
     <t>bleeding_skin</t>
   </si>
   <si>
-    <t>bleeding_skin_duration</t>
-  </si>
-  <si>
     <t>bleeding_mucosal</t>
   </si>
   <si>
-    <t>bleeding_mucosal_duration</t>
-  </si>
-  <si>
     <t>bleeding_mucosal_description</t>
   </si>
   <si>
     <t>chills</t>
   </si>
   <si>
-    <t>chills_duration</t>
-  </si>
-  <si>
     <t>restlessness</t>
   </si>
   <si>
-    <t>restlessness_duration</t>
-  </si>
-  <si>
-    <t>headache_duration</t>
-  </si>
-  <si>
-    <t>muscle_pain_duration</t>
-  </si>
-  <si>
     <t>date_admission</t>
   </si>
   <si>
     <t>skin_rash</t>
   </si>
   <si>
-    <t>skin_rash_duration</t>
-  </si>
-  <si>
     <t>kg</t>
   </si>
   <si>
@@ -1517,9 +1463,6 @@
     <t>shortness_of_breath</t>
   </si>
   <si>
-    <t>fever_duration</t>
-  </si>
-  <si>
     <t>date_first_fever</t>
   </si>
   <si>
@@ -1604,9 +1547,6 @@
     <t>{0: 'V_1'}</t>
   </si>
   <si>
-    <t>{2:2, 0: 0, 1: 1}</t>
-  </si>
-  <si>
     <t>{1:1}</t>
   </si>
   <si>
@@ -1661,9 +1601,6 @@
     <t>going back patient hat fever 5 days ago</t>
   </si>
   <si>
-    <t>bleeding after admission</t>
-  </si>
-  <si>
     <t>forget</t>
   </si>
   <si>
@@ -1677,6 +1614,156 @@
   </si>
   <si>
     <t>{1: 'Primary', 2: 'Secondary', 9: None}</t>
+  </si>
+  <si>
+    <t>date_onset</t>
+  </si>
+  <si>
+    <t>study_day_col</t>
+  </si>
+  <si>
+    <t>study_day_ref</t>
+  </si>
+  <si>
+    <t>event_onset</t>
+  </si>
+  <si>
+    <t>-DaysofIllness</t>
+  </si>
+  <si>
+    <t>fever_day</t>
+  </si>
+  <si>
+    <t>headache_day</t>
+  </si>
+  <si>
+    <t>muscle_pain_day</t>
+  </si>
+  <si>
+    <t>short_breathe_day</t>
+  </si>
+  <si>
+    <t>restlessness_day</t>
+  </si>
+  <si>
+    <t>diarrhoea_day</t>
+  </si>
+  <si>
+    <t>chills_day</t>
+  </si>
+  <si>
+    <t>vomiting_day</t>
+  </si>
+  <si>
+    <t>abdominal_pain_day</t>
+  </si>
+  <si>
+    <t>cough_day</t>
+  </si>
+  <si>
+    <t>skin_rash_day</t>
+  </si>
+  <si>
+    <t>bleeding_skin_day</t>
+  </si>
+  <si>
+    <t>bleeding_mucosal_day</t>
+  </si>
+  <si>
+    <t>date_headache</t>
+  </si>
+  <si>
+    <t>date_musclepain</t>
+  </si>
+  <si>
+    <t>date_shortbreathe</t>
+  </si>
+  <si>
+    <t>date_tiredness</t>
+  </si>
+  <si>
+    <t>date_chilly</t>
+  </si>
+  <si>
+    <t>date_vomitting</t>
+  </si>
+  <si>
+    <t>date_abdopain</t>
+  </si>
+  <si>
+    <t>date_cough</t>
+  </si>
+  <si>
+    <t>date_history rash</t>
+  </si>
+  <si>
+    <t>date_skinbleeding</t>
+  </si>
+  <si>
+    <t>date_mucousbeeding</t>
+  </si>
+  <si>
+    <t>-Fever_days</t>
+  </si>
+  <si>
+    <t>-Headache_days</t>
+  </si>
+  <si>
+    <t>-MusclePain_days</t>
+  </si>
+  <si>
+    <t>-ShortBreathe_days</t>
+  </si>
+  <si>
+    <t>-Tiredness_days</t>
+  </si>
+  <si>
+    <t>-Diarrhea_days</t>
+  </si>
+  <si>
+    <t>-Chilly_days</t>
+  </si>
+  <si>
+    <t>-Vomitting_days</t>
+  </si>
+  <si>
+    <t>-AbdoPain_days</t>
+  </si>
+  <si>
+    <t>-Cough_days</t>
+  </si>
+  <si>
+    <t>-History Rash_days</t>
+  </si>
+  <si>
+    <t>-SkinBleeding_days</t>
+  </si>
+  <si>
+    <t>-MucousBeeding_days</t>
+  </si>
+  <si>
+    <t>date_diarrohea</t>
+  </si>
+  <si>
+    <t>progressive bleeding</t>
+  </si>
+  <si>
+    <t>{'Missing': None, 'no sample': None }</t>
+  </si>
+  <si>
+    <t>{2: 'Secondary', 0: None, 1: 'Primary'}</t>
+  </si>
+  <si>
+    <t>event_entrolment</t>
+  </si>
+  <si>
+    <t>Only has a few values</t>
+  </si>
+  <si>
+    <t>date_discharge</t>
+  </si>
+  <si>
+    <t>event_discharge</t>
   </si>
 </sst>
 </file>
@@ -1707,7 +1794,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1729,6 +1816,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1771,7 +1864,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1784,6 +1877,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2122,30 +2219,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K88"/>
+  <dimension ref="A1:M103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E77" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B99" sqref="B99"/>
+      <selection pane="bottomRight" activeCell="H101" sqref="H101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29" customWidth="1"/>
     <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="84.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="59.85546875" customWidth="1"/>
     <col min="5" max="5" width="26.140625" customWidth="1"/>
     <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.140625" customWidth="1"/>
     <col min="10" max="10" width="16.42578125" customWidth="1"/>
+    <col min="11" max="11" width="20" customWidth="1"/>
+    <col min="13" max="13" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2176,11 +2275,17 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K1" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2188,47 +2293,47 @@
         <v>97</v>
       </c>
       <c r="C2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="C3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="C4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E4" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2236,13 +2341,13 @@
         <v>98</v>
       </c>
       <c r="C5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -2250,473 +2355,479 @@
         <v>99</v>
       </c>
       <c r="C6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="C7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D7" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
       <c r="E7" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="C8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I8" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D9" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C13" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F14" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="K14" s="4" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M14" s="4" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D15" t="s">
-        <v>451</v>
+        <v>433</v>
       </c>
       <c r="E15" t="s">
-        <v>383</v>
+        <v>470</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>491</v>
+        <v>529</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F16" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D17" t="s">
-        <v>451</v>
+        <v>433</v>
       </c>
       <c r="E17" t="s">
-        <v>383</v>
+        <v>542</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>402</v>
+        <v>530</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F18" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D19" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="E19" t="s">
-        <v>383</v>
+        <v>543</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>403</v>
+        <v>531</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F20" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>490</v>
+        <v>472</v>
       </c>
       <c r="C21" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D21" t="s">
-        <v>451</v>
+        <v>433</v>
       </c>
       <c r="E21" t="s">
-        <v>383</v>
+        <v>544</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>110</v>
+        <v>532</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F22" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="C23" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D23" t="s">
-        <v>451</v>
+        <v>433</v>
       </c>
       <c r="E23" t="s">
-        <v>383</v>
+        <v>545</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>401</v>
+        <v>533</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F24" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="C25" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D25" t="s">
-        <v>451</v>
+        <v>433</v>
       </c>
       <c r="E25" t="s">
-        <v>383</v>
+        <v>566</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>389</v>
+        <v>534</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F26" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="C27" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D27" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="E27" t="s">
-        <v>383</v>
+        <v>546</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>399</v>
+        <v>535</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>140</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="E28"/>
       <c r="F28" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="C29" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D29" t="s">
-        <v>451</v>
+        <v>433</v>
       </c>
       <c r="E29" t="s">
-        <v>383</v>
+        <v>547</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>385</v>
+        <v>536</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>140</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="E30"/>
       <c r="F30" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="C31" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D31" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="E31" t="s">
-        <v>383</v>
+        <v>548</v>
       </c>
       <c r="F31" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>392</v>
+        <v>537</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>140</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="E32"/>
       <c r="F32" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -2724,16 +2835,16 @@
         <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C33" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D33" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="E33" t="s">
-        <v>383</v>
+        <v>549</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
@@ -2744,16 +2855,16 @@
         <v>42</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>390</v>
+        <v>538</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F34" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -2761,16 +2872,16 @@
         <v>43</v>
       </c>
       <c r="B35" t="s">
-        <v>405</v>
+        <v>388</v>
       </c>
       <c r="C35" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D35" t="s">
-        <v>451</v>
+        <v>433</v>
       </c>
       <c r="E35" t="s">
-        <v>404</v>
+        <v>550</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
@@ -2781,16 +2892,16 @@
         <v>44</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>406</v>
+        <v>539</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F36" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -2798,16 +2909,16 @@
         <v>45</v>
       </c>
       <c r="B37" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="C37" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D37" t="s">
-        <v>451</v>
+        <v>433</v>
       </c>
       <c r="E37" t="s">
-        <v>404</v>
+        <v>387</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
@@ -2818,16 +2929,16 @@
         <v>46</v>
       </c>
       <c r="B38" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="C38" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>404</v>
+        <v>435</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>387</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
@@ -2838,16 +2949,16 @@
         <v>47</v>
       </c>
       <c r="B39" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="C39" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D39" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="E39" t="s">
-        <v>383</v>
+        <v>551</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
@@ -2858,16 +2969,16 @@
         <v>48</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>394</v>
+        <v>540</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F40" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -2875,16 +2986,16 @@
         <v>49</v>
       </c>
       <c r="B41" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="C41" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D41" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="E41" t="s">
-        <v>383</v>
+        <v>552</v>
       </c>
       <c r="F41" t="b">
         <v>0</v>
@@ -2895,16 +3006,16 @@
         <v>50</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>396</v>
+        <v>541</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F42" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -2912,10 +3023,10 @@
         <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="C43" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F43" t="b">
         <v>0</v>
@@ -2926,13 +3037,13 @@
         <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C44" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D44" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
@@ -2943,13 +3054,13 @@
         <v>53</v>
       </c>
       <c r="B45" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C45" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D45" t="s">
-        <v>467</v>
+        <v>449</v>
       </c>
       <c r="F45" t="b">
         <v>0</v>
@@ -2960,13 +3071,13 @@
         <v>54</v>
       </c>
       <c r="B46" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C46" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D46" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="F46" t="b">
         <v>0</v>
@@ -2977,13 +3088,13 @@
         <v>55</v>
       </c>
       <c r="B47" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C47" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>464</v>
+        <v>446</v>
       </c>
       <c r="F47" t="b">
         <v>0</v>
@@ -2994,13 +3105,13 @@
         <v>56</v>
       </c>
       <c r="B48" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="C48" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E48" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
@@ -3011,19 +3122,19 @@
         <v>57</v>
       </c>
       <c r="B49" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C49" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E49" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="F49" t="b">
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
     </row>
     <row r="50" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3031,16 +3142,16 @@
         <v>58</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>405</v>
+        <v>388</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="F50" s="6" t="b">
         <v>0</v>
@@ -3051,10 +3162,10 @@
         <v>59</v>
       </c>
       <c r="B51" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C51" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F51" t="b">
         <v>0</v>
@@ -3065,16 +3176,16 @@
         <v>60</v>
       </c>
       <c r="B52" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C52" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D52" t="s">
-        <v>451</v>
+        <v>433</v>
       </c>
       <c r="E52" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="F52" t="b">
         <v>0</v>
@@ -3085,16 +3196,16 @@
         <v>61</v>
       </c>
       <c r="B53" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="C53" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D53" t="s">
-        <v>451</v>
+        <v>433</v>
       </c>
       <c r="E53" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="F53" t="b">
         <v>0</v>
@@ -3105,16 +3216,16 @@
         <v>62</v>
       </c>
       <c r="B54" t="s">
-        <v>411</v>
+        <v>393</v>
       </c>
       <c r="C54" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D54" t="s">
-        <v>451</v>
+        <v>433</v>
       </c>
       <c r="E54" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="F54" t="b">
         <v>0</v>
@@ -3125,16 +3236,16 @@
         <v>63</v>
       </c>
       <c r="B55" t="s">
-        <v>417</v>
+        <v>399</v>
       </c>
       <c r="C55" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D55" t="s">
-        <v>451</v>
+        <v>433</v>
       </c>
       <c r="E55" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="F55" t="b">
         <v>0</v>
@@ -3145,16 +3256,16 @@
         <v>64</v>
       </c>
       <c r="B56" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="C56" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="E56" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="F56" t="b">
         <v>0</v>
@@ -3165,19 +3276,19 @@
         <v>65</v>
       </c>
       <c r="B57" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C57" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E57" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="F57" t="b">
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -3185,19 +3296,19 @@
         <v>66</v>
       </c>
       <c r="B58" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C58" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E58" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="F58" t="b">
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -3205,19 +3316,19 @@
         <v>67</v>
       </c>
       <c r="B59" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C59" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E59" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="F59" t="b">
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -3225,22 +3336,22 @@
         <v>68</v>
       </c>
       <c r="B60" t="s">
-        <v>415</v>
+        <v>397</v>
       </c>
       <c r="C60" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D60" t="s">
-        <v>479</v>
+        <v>461</v>
       </c>
       <c r="E60" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="F60" t="b">
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -3248,19 +3359,19 @@
         <v>69</v>
       </c>
       <c r="B61" t="s">
-        <v>413</v>
+        <v>395</v>
       </c>
       <c r="C61" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="F61" t="b">
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
     </row>
     <row r="62" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3268,16 +3379,16 @@
         <v>70</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>451</v>
+        <v>433</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="F62" s="4" t="b">
         <v>0</v>
@@ -3288,16 +3399,16 @@
         <v>71</v>
       </c>
       <c r="B63" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="C63" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D63" t="s">
-        <v>451</v>
+        <v>433</v>
       </c>
       <c r="E63" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="F63" t="b">
         <v>0</v>
@@ -3308,419 +3419,735 @@
         <v>72</v>
       </c>
       <c r="B64" t="s">
-        <v>418</v>
+        <v>400</v>
       </c>
       <c r="C64" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D64" t="s">
-        <v>451</v>
+        <v>433</v>
       </c>
       <c r="E64" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="F64" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>483</v>
+        <v>465</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>441</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="F65" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="K65" s="4" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M65" s="4" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>74</v>
       </c>
       <c r="B66" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C66" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F66" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>75</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F67" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="K67" s="4" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M67" s="4" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>76</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="F68" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="K68" s="4" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M68" s="4" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>77</v>
       </c>
       <c r="B69" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="C69" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D69" t="s">
-        <v>463</v>
+        <v>445</v>
       </c>
       <c r="E69" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="F69" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>78</v>
       </c>
       <c r="B70" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C70" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D70" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="F70" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>79</v>
       </c>
       <c r="B71" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C71" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F71" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>80</v>
       </c>
       <c r="B72" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C72" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F72" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>81</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F73" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>82</v>
       </c>
       <c r="B74" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C74" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F74" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>83</v>
       </c>
       <c r="B75" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C75" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F75" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>84</v>
       </c>
       <c r="B76" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C76" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D76" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="F76" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>85</v>
       </c>
       <c r="B77" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C77" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F77" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>86</v>
       </c>
       <c r="B78" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C78" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D78" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="F78" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>87</v>
       </c>
       <c r="B79" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C79" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F79" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>88</v>
       </c>
       <c r="B80" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C80" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D80" t="s">
-        <v>455</v>
+        <v>437</v>
       </c>
       <c r="F80" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>89</v>
       </c>
       <c r="B81" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C81" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D81" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="F81" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>90</v>
       </c>
       <c r="B82" t="s">
-        <v>404</v>
+        <v>387</v>
       </c>
       <c r="C82" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F82" t="b">
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+      <c r="M82" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>91</v>
       </c>
       <c r="B83" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C83" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F83" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>92</v>
       </c>
       <c r="B84" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="C84" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F84" t="b">
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>93</v>
       </c>
       <c r="B85" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="C85" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D85" t="s">
-        <v>470</v>
+        <v>452</v>
       </c>
       <c r="E85" t="s">
-        <v>383</v>
+        <v>474</v>
       </c>
       <c r="F85" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>94</v>
       </c>
       <c r="B86" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C86" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F86" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>95</v>
       </c>
       <c r="B87" t="s">
-        <v>492</v>
+        <v>473</v>
       </c>
       <c r="C87" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F87" t="b">
         <v>1</v>
       </c>
       <c r="I87" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>96</v>
       </c>
       <c r="B88" t="s">
+        <v>137</v>
+      </c>
+      <c r="C88" t="s">
         <v>139</v>
       </c>
-      <c r="C88" t="s">
+      <c r="F88" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>524</v>
+      </c>
+      <c r="B89" t="s">
+        <v>524</v>
+      </c>
+      <c r="C89" t="s">
         <v>141</v>
       </c>
-      <c r="F88" t="b">
-        <v>0</v>
+      <c r="F89" t="b">
+        <v>1</v>
+      </c>
+      <c r="I89" t="s">
+        <v>527</v>
+      </c>
+      <c r="K89" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="L89" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>470</v>
+      </c>
+      <c r="B90" t="s">
+        <v>470</v>
+      </c>
+      <c r="C90" t="s">
+        <v>141</v>
+      </c>
+      <c r="F90" t="b">
+        <v>1</v>
+      </c>
+      <c r="I90" t="s">
+        <v>475</v>
+      </c>
+      <c r="K90" s="9" t="s">
+        <v>553</v>
+      </c>
+      <c r="L90" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>542</v>
+      </c>
+      <c r="B91" t="s">
+        <v>542</v>
+      </c>
+      <c r="C91" t="s">
+        <v>141</v>
+      </c>
+      <c r="F91" t="b">
+        <v>1</v>
+      </c>
+      <c r="K91" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="L91" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>543</v>
+      </c>
+      <c r="B92" t="s">
+        <v>543</v>
+      </c>
+      <c r="C92" t="s">
+        <v>141</v>
+      </c>
+      <c r="F92" t="b">
+        <v>1</v>
+      </c>
+      <c r="K92" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="L92" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>544</v>
+      </c>
+      <c r="B93" t="s">
+        <v>544</v>
+      </c>
+      <c r="C93" t="s">
+        <v>141</v>
+      </c>
+      <c r="F93" t="b">
+        <v>1</v>
+      </c>
+      <c r="K93" s="9" t="s">
+        <v>556</v>
+      </c>
+      <c r="L93" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>545</v>
+      </c>
+      <c r="B94" t="s">
+        <v>545</v>
+      </c>
+      <c r="C94" t="s">
+        <v>141</v>
+      </c>
+      <c r="F94" t="b">
+        <v>1</v>
+      </c>
+      <c r="K94" s="9" t="s">
+        <v>557</v>
+      </c>
+      <c r="L94" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>566</v>
+      </c>
+      <c r="B95" t="s">
+        <v>566</v>
+      </c>
+      <c r="C95" t="s">
+        <v>141</v>
+      </c>
+      <c r="F95" t="b">
+        <v>1</v>
+      </c>
+      <c r="K95" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="L95" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>546</v>
+      </c>
+      <c r="B96" t="s">
+        <v>546</v>
+      </c>
+      <c r="C96" t="s">
+        <v>141</v>
+      </c>
+      <c r="F96" t="b">
+        <v>1</v>
+      </c>
+      <c r="K96" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="L96" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>547</v>
+      </c>
+      <c r="B97" t="s">
+        <v>547</v>
+      </c>
+      <c r="C97" t="s">
+        <v>141</v>
+      </c>
+      <c r="F97" t="b">
+        <v>1</v>
+      </c>
+      <c r="K97" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="L97" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>548</v>
+      </c>
+      <c r="B98" t="s">
+        <v>548</v>
+      </c>
+      <c r="C98" t="s">
+        <v>141</v>
+      </c>
+      <c r="F98" t="b">
+        <v>1</v>
+      </c>
+      <c r="K98" s="9" t="s">
+        <v>561</v>
+      </c>
+      <c r="L98" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>549</v>
+      </c>
+      <c r="B99" t="s">
+        <v>549</v>
+      </c>
+      <c r="C99" t="s">
+        <v>141</v>
+      </c>
+      <c r="F99" t="b">
+        <v>1</v>
+      </c>
+      <c r="K99" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="L99" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>550</v>
+      </c>
+      <c r="B100" t="s">
+        <v>550</v>
+      </c>
+      <c r="C100" t="s">
+        <v>141</v>
+      </c>
+      <c r="F100" t="b">
+        <v>1</v>
+      </c>
+      <c r="K100" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="L100" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>551</v>
+      </c>
+      <c r="B101" t="s">
+        <v>551</v>
+      </c>
+      <c r="C101" t="s">
+        <v>141</v>
+      </c>
+      <c r="F101" t="b">
+        <v>1</v>
+      </c>
+      <c r="K101" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="L101" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>552</v>
+      </c>
+      <c r="B102" t="s">
+        <v>552</v>
+      </c>
+      <c r="C102" t="s">
+        <v>141</v>
+      </c>
+      <c r="F102" t="b">
+        <v>1</v>
+      </c>
+      <c r="K102" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="L102" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>572</v>
+      </c>
+      <c r="B103" t="s">
+        <v>572</v>
+      </c>
+      <c r="C103" t="s">
+        <v>141</v>
+      </c>
+      <c r="F103" t="b">
+        <v>1</v>
+      </c>
+      <c r="I103" t="s">
+        <v>573</v>
+      </c>
+      <c r="K103" t="s">
+        <v>82</v>
+      </c>
+      <c r="L103" t="s">
+        <v>524</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K58"/>
+  <dimension ref="A1:M58"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:XFD48"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3733,11 +4160,11 @@
     <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
     <col min="10" max="10" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3769,38 +4196,44 @@
         <v>9</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>468</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>145</v>
       </c>
-      <c r="F2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>147</v>
-      </c>
       <c r="B3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -3808,58 +4241,58 @@
         <v>97</v>
       </c>
       <c r="C4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B5" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="C5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" t="s">
+        <v>473</v>
+      </c>
+      <c r="C6" t="s">
         <v>141</v>
-      </c>
-      <c r="F5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>149</v>
-      </c>
-      <c r="B6" t="s">
-        <v>492</v>
-      </c>
-      <c r="C6" t="s">
-        <v>143</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -3867,184 +4300,184 @@
         <v>99</v>
       </c>
       <c r="C8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>374</v>
       </c>
       <c r="C9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D9" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="E9" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B10" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="C10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B11" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D11" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D12" t="s">
-        <v>458</v>
+        <v>440</v>
       </c>
       <c r="E12" t="s">
-        <v>492</v>
+        <v>473</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>56</v>
       </c>
       <c r="B13" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="C13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E13" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>65</v>
       </c>
       <c r="B14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E14" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>66</v>
       </c>
       <c r="B15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E15" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>67</v>
       </c>
       <c r="B16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E16" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B17" t="s">
-        <v>415</v>
+        <v>397</v>
       </c>
       <c r="C17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D17" t="s">
-        <v>479</v>
+        <v>461</v>
       </c>
       <c r="E17" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -4052,19 +4485,19 @@
         <v>69</v>
       </c>
       <c r="B18" t="s">
-        <v>413</v>
+        <v>395</v>
       </c>
       <c r="C18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E18" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -4072,13 +4505,13 @@
         <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="C19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E19" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -4089,13 +4522,13 @@
         <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="C20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E20" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -4106,13 +4539,13 @@
         <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="C21" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E21" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -4123,13 +4556,13 @@
         <v>63</v>
       </c>
       <c r="B22" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
       <c r="C22" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E22" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
@@ -4140,13 +4573,13 @@
         <v>49</v>
       </c>
       <c r="B23" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="C23" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E23" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -4157,13 +4590,13 @@
         <v>84</v>
       </c>
       <c r="B24" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C24" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D24" t="s">
-        <v>458</v>
+        <v>440</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
@@ -4171,19 +4604,19 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B25" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="C25" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D25" t="s">
-        <v>451</v>
+        <v>433</v>
       </c>
       <c r="E25" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -4191,39 +4624,39 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B26" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="C26" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D26" t="s">
-        <v>478</v>
+        <v>460</v>
       </c>
       <c r="E26" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B27" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C27" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D27" t="s">
-        <v>451</v>
+        <v>433</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
@@ -4231,398 +4664,398 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B28" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
       <c r="C28" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E28" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B29" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C29" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E29" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B30" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C30" t="s">
-        <v>480</v>
+        <v>462</v>
       </c>
       <c r="E30" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B31" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="C31" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E31" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="F31" t="b">
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B32" t="s">
-        <v>431</v>
+        <v>413</v>
       </c>
       <c r="C32" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E32" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
     </row>
     <row r="33" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F33" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>495</v>
+        <v>476</v>
       </c>
     </row>
     <row r="34" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F34" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
     </row>
     <row r="35" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F35" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
     </row>
     <row r="36" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F36" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
     </row>
     <row r="37" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F37" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
     </row>
     <row r="38" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F38" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
     </row>
     <row r="39" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F39" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
     </row>
     <row r="40" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F40" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
     </row>
     <row r="41" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F41" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
     </row>
     <row r="42" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F42" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
     </row>
     <row r="43" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F43" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
     </row>
     <row r="44" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F44" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
     </row>
     <row r="45" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F45" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
     </row>
     <row r="46" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F46" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
     </row>
     <row r="47" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F47" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
     </row>
     <row r="48" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F48" s="7" t="b">
         <v>0</v>
@@ -4630,16 +5063,16 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B49" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C49" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D49" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F49" t="b">
         <v>0</v>
@@ -4647,16 +5080,16 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B50" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C50" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D50" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F50" t="b">
         <v>0</v>
@@ -4664,19 +5097,19 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B51" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="C51" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D51" t="s">
-        <v>451</v>
+        <v>433</v>
       </c>
       <c r="E51" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="F51" t="b">
         <v>0</v>
@@ -4684,19 +5117,19 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B52" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="C52" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D52" t="s">
-        <v>451</v>
+        <v>433</v>
       </c>
       <c r="E52" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="F52" t="b">
         <v>0</v>
@@ -4704,19 +5137,19 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B53" t="s">
-        <v>483</v>
+        <v>465</v>
       </c>
       <c r="C53" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D53" t="s">
-        <v>451</v>
+        <v>433</v>
       </c>
       <c r="E53" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="F53" t="b">
         <v>0</v>
@@ -4724,19 +5157,19 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B54" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C54" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D54" t="s">
-        <v>451</v>
+        <v>433</v>
       </c>
       <c r="E54" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="F54" t="b">
         <v>0</v>
@@ -4744,19 +5177,19 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B55" t="s">
-        <v>481</v>
+        <v>463</v>
       </c>
       <c r="C55" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D55" t="s">
-        <v>451</v>
+        <v>433</v>
       </c>
       <c r="E55" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="F55" t="b">
         <v>0</v>
@@ -4764,19 +5197,19 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B56" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C56" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D56" t="s">
-        <v>457</v>
+        <v>439</v>
       </c>
       <c r="E56" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="F56" t="b">
         <v>0</v>
@@ -4784,16 +5217,16 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B57" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C57" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D57" t="s">
-        <v>471</v>
+        <v>453</v>
       </c>
       <c r="F57" t="b">
         <v>0</v>
@@ -4801,16 +5234,16 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B58" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C58" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D58" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F58" t="b">
         <v>0</v>
@@ -4823,10 +5256,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4843,7 +5276,7 @@
     <col min="10" max="10" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4875,294 +5308,300 @@
         <v>9</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>468</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D2" t="s">
+        <v>448</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B3" t="s">
+        <v>372</v>
+      </c>
+      <c r="C3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>218</v>
       </c>
-      <c r="B2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D2" t="s">
-        <v>466</v>
-      </c>
-      <c r="F2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>219</v>
-      </c>
-      <c r="B3" t="s">
-        <v>379</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
+        <v>404</v>
+      </c>
+      <c r="C4" t="s">
         <v>141</v>
-      </c>
-      <c r="F3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>220</v>
-      </c>
-      <c r="B4" t="s">
-        <v>422</v>
-      </c>
-      <c r="C4" t="s">
-        <v>143</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>219</v>
+      </c>
+      <c r="B6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" t="s">
+        <v>442</v>
+      </c>
+      <c r="E6" t="s">
+        <v>404</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>220</v>
+      </c>
+      <c r="B7" t="s">
+        <v>418</v>
+      </c>
+      <c r="C7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" t="s">
+        <v>442</v>
+      </c>
+      <c r="E7" t="s">
+        <v>404</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>221</v>
       </c>
-      <c r="B6" t="s">
-        <v>437</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B8" t="s">
+        <v>420</v>
+      </c>
+      <c r="C8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" t="s">
+        <v>443</v>
+      </c>
+      <c r="E8" t="s">
+        <v>404</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B9" t="s">
+        <v>521</v>
+      </c>
+      <c r="C9" t="s">
         <v>140</v>
       </c>
-      <c r="D6" t="s">
-        <v>460</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="F10" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>224</v>
+      </c>
+      <c r="B11" t="s">
+        <v>520</v>
+      </c>
+      <c r="C11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="F6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>222</v>
-      </c>
-      <c r="B7" t="s">
-        <v>436</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="C12" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="F12" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F13" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D7" t="s">
-        <v>460</v>
-      </c>
-      <c r="E7" t="s">
-        <v>422</v>
-      </c>
-      <c r="F7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>223</v>
-      </c>
-      <c r="B8" t="s">
-        <v>438</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="E14" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="F14" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="F15" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D8" t="s">
-        <v>461</v>
-      </c>
-      <c r="E8" t="s">
-        <v>422</v>
-      </c>
-      <c r="F8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B9" t="s">
-        <v>542</v>
-      </c>
-      <c r="C9" t="s">
-        <v>142</v>
-      </c>
-      <c r="F9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="F10" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>226</v>
-      </c>
-      <c r="B11" t="s">
-        <v>541</v>
-      </c>
-      <c r="C11" t="s">
-        <v>142</v>
-      </c>
-      <c r="F11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="F12" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="F13" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="F14" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="F15" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>142</v>
-      </c>
       <c r="F16" s="4" t="b">
         <v>0</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>500</v>
+        <v>481</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>498</v>
+        <v>479</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B17" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="C17" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -5170,16 +5609,16 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B18" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D18" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -5192,10 +5631,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5212,7 +5651,7 @@
     <col min="10" max="10" width="4.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5246,251 +5685,263 @@
       <c r="K1" s="5" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D2" t="s">
+        <v>455</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B3" t="s">
+        <v>372</v>
+      </c>
+      <c r="C3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>218</v>
       </c>
-      <c r="B2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D2" t="s">
-        <v>473</v>
-      </c>
-      <c r="F2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>219</v>
-      </c>
-      <c r="B3" t="s">
-        <v>379</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
+        <v>426</v>
+      </c>
+      <c r="C4" t="s">
         <v>141</v>
-      </c>
-      <c r="F3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>220</v>
-      </c>
-      <c r="B4" t="s">
-        <v>444</v>
-      </c>
-      <c r="C4" t="s">
-        <v>143</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>236</v>
+      </c>
+      <c r="B6" t="s">
+        <v>253</v>
+      </c>
+      <c r="C6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>237</v>
+      </c>
+      <c r="B7" t="s">
+        <v>419</v>
+      </c>
+      <c r="C7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" t="s">
+        <v>442</v>
+      </c>
+      <c r="E7" t="s">
+        <v>426</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>238</v>
+      </c>
+      <c r="B8" t="s">
+        <v>418</v>
+      </c>
+      <c r="C8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" t="s">
+        <v>442</v>
+      </c>
+      <c r="E8" t="s">
+        <v>426</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>239</v>
+      </c>
+      <c r="B9" t="s">
+        <v>254</v>
+      </c>
+      <c r="C9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="B6" t="s">
-        <v>257</v>
-      </c>
-      <c r="C6" t="s">
-        <v>144</v>
-      </c>
-      <c r="F6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B10" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="F10" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>241</v>
       </c>
-      <c r="B7" t="s">
-        <v>437</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B11" t="s">
+        <v>255</v>
+      </c>
+      <c r="C11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>222</v>
+      </c>
+      <c r="B12" t="s">
+        <v>521</v>
+      </c>
+      <c r="C12" t="s">
         <v>140</v>
       </c>
-      <c r="D7" t="s">
-        <v>460</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="E12" t="s">
+        <v>426</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>242</v>
+      </c>
+      <c r="B13" t="s">
+        <v>421</v>
+      </c>
+      <c r="C13" t="s">
+        <v>138</v>
+      </c>
+      <c r="D13" t="s">
         <v>444</v>
       </c>
-      <c r="F7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>242</v>
-      </c>
-      <c r="B8" t="s">
-        <v>436</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="E13" t="s">
+        <v>426</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>224</v>
+      </c>
+      <c r="B14" t="s">
+        <v>520</v>
+      </c>
+      <c r="C14" t="s">
         <v>140</v>
       </c>
-      <c r="D8" t="s">
-        <v>460</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="E14" t="s">
+        <v>426</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>243</v>
+      </c>
+      <c r="B15" t="s">
+        <v>422</v>
+      </c>
+      <c r="C15" t="s">
+        <v>138</v>
+      </c>
+      <c r="D15" t="s">
         <v>444</v>
       </c>
-      <c r="F8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>243</v>
-      </c>
-      <c r="B9" t="s">
-        <v>258</v>
-      </c>
-      <c r="C9" t="s">
-        <v>140</v>
-      </c>
-      <c r="F9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K9" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="E15" t="s">
+        <v>426</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>244</v>
       </c>
-      <c r="B10" t="s">
-        <v>438</v>
-      </c>
-      <c r="C10" t="s">
-        <v>140</v>
-      </c>
-      <c r="D10" t="s">
-        <v>461</v>
-      </c>
-      <c r="E10" t="s">
-        <v>444</v>
-      </c>
-      <c r="F10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>245</v>
-      </c>
-      <c r="B11" t="s">
-        <v>259</v>
-      </c>
-      <c r="C11" t="s">
-        <v>140</v>
-      </c>
-      <c r="F11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>224</v>
-      </c>
-      <c r="B12" t="s">
-        <v>235</v>
-      </c>
-      <c r="C12" t="s">
-        <v>142</v>
-      </c>
-      <c r="F12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>246</v>
-      </c>
-      <c r="B13" t="s">
-        <v>439</v>
-      </c>
-      <c r="C13" t="s">
-        <v>140</v>
-      </c>
-      <c r="D13" t="s">
-        <v>462</v>
-      </c>
-      <c r="E13" t="s">
-        <v>444</v>
-      </c>
-      <c r="F13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>226</v>
-      </c>
-      <c r="B14" t="s">
-        <v>236</v>
-      </c>
-      <c r="C14" t="s">
-        <v>142</v>
-      </c>
-      <c r="F14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>247</v>
-      </c>
-      <c r="B15" t="s">
-        <v>440</v>
-      </c>
-      <c r="C15" t="s">
-        <v>140</v>
-      </c>
-      <c r="D15" t="s">
-        <v>462</v>
-      </c>
-      <c r="E15" t="s">
-        <v>444</v>
-      </c>
-      <c r="F15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>248</v>
-      </c>
       <c r="B16" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -5498,30 +5949,30 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B17" t="s">
-        <v>504</v>
+        <v>485</v>
       </c>
       <c r="C17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
       </c>
       <c r="K17" t="s">
-        <v>503</v>
+        <v>484</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B18" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -5529,98 +5980,98 @@
     </row>
     <row r="19" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F19" s="4" t="b">
         <v>0</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>508</v>
+        <v>489</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F20" s="4" t="b">
         <v>0</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>508</v>
+        <v>489</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B21" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C21" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F21" t="b">
         <v>1</v>
       </c>
       <c r="K21" t="s">
-        <v>509</v>
+        <v>490</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F22" s="4" t="b">
         <v>0</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>508</v>
+        <v>489</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F23" s="4" t="b">
         <v>0</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>508</v>
+        <v>489</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B24" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C24" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
@@ -5633,10 +6084,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5653,7 +6104,7 @@
     <col min="10" max="10" width="4.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5684,263 +6135,269 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D2" t="s">
+        <v>456</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B3" t="s">
+        <v>372</v>
+      </c>
+      <c r="C3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>218</v>
       </c>
-      <c r="B2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D2" t="s">
-        <v>474</v>
-      </c>
-      <c r="F2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>219</v>
-      </c>
-      <c r="B3" t="s">
-        <v>379</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
+        <v>404</v>
+      </c>
+      <c r="C4" t="s">
         <v>141</v>
-      </c>
-      <c r="F3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>220</v>
-      </c>
-      <c r="B4" t="s">
-        <v>422</v>
-      </c>
-      <c r="C4" t="s">
-        <v>143</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>219</v>
+      </c>
+      <c r="B6" t="s">
+        <v>486</v>
+      </c>
+      <c r="C6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" t="s">
+        <v>458</v>
+      </c>
+      <c r="E6" t="s">
+        <v>404</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>220</v>
+      </c>
+      <c r="B7" t="s">
+        <v>487</v>
+      </c>
+      <c r="C7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" t="s">
+        <v>458</v>
+      </c>
+      <c r="E7" t="s">
+        <v>404</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>221</v>
       </c>
-      <c r="B6" t="s">
-        <v>505</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B8" t="s">
+        <v>488</v>
+      </c>
+      <c r="C8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" t="s">
+        <v>443</v>
+      </c>
+      <c r="E8" t="s">
+        <v>404</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B9" t="s">
+        <v>521</v>
+      </c>
+      <c r="C9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" t="s">
+        <v>215</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>223</v>
+      </c>
+      <c r="B10" t="s">
+        <v>421</v>
+      </c>
+      <c r="C10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" t="s">
+        <v>443</v>
+      </c>
+      <c r="E10" t="s">
+        <v>404</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>224</v>
+      </c>
+      <c r="B11" t="s">
+        <v>520</v>
+      </c>
+      <c r="C11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" t="s">
+        <v>215</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>225</v>
+      </c>
+      <c r="B12" t="s">
+        <v>422</v>
+      </c>
+      <c r="C12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D12" t="s">
+        <v>443</v>
+      </c>
+      <c r="E12" t="s">
+        <v>404</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>226</v>
+      </c>
+      <c r="B13" t="s">
+        <v>233</v>
+      </c>
+      <c r="C13" t="s">
         <v>140</v>
       </c>
-      <c r="D6" t="s">
-        <v>476</v>
-      </c>
-      <c r="E6" t="s">
-        <v>422</v>
-      </c>
-      <c r="F6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>222</v>
-      </c>
-      <c r="B7" t="s">
-        <v>506</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>227</v>
+      </c>
+      <c r="B14" t="s">
+        <v>423</v>
+      </c>
+      <c r="C14" t="s">
         <v>140</v>
       </c>
-      <c r="D7" t="s">
-        <v>476</v>
-      </c>
-      <c r="E7" t="s">
-        <v>422</v>
-      </c>
-      <c r="F7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>223</v>
-      </c>
-      <c r="B8" t="s">
-        <v>507</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="E14" t="s">
+        <v>404</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>228</v>
+      </c>
+      <c r="B15" t="s">
+        <v>424</v>
+      </c>
+      <c r="C15" t="s">
+        <v>139</v>
+      </c>
+      <c r="E15" t="s">
+        <v>404</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>229</v>
+      </c>
+      <c r="B16" t="s">
+        <v>234</v>
+      </c>
+      <c r="C16" t="s">
         <v>140</v>
-      </c>
-      <c r="D8" t="s">
-        <v>461</v>
-      </c>
-      <c r="E8" t="s">
-        <v>422</v>
-      </c>
-      <c r="F8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B9" t="s">
-        <v>235</v>
-      </c>
-      <c r="C9" t="s">
-        <v>140</v>
-      </c>
-      <c r="D9" t="s">
-        <v>217</v>
-      </c>
-      <c r="F9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>225</v>
-      </c>
-      <c r="B10" t="s">
-        <v>439</v>
-      </c>
-      <c r="C10" t="s">
-        <v>140</v>
-      </c>
-      <c r="D10" t="s">
-        <v>461</v>
-      </c>
-      <c r="E10" t="s">
-        <v>422</v>
-      </c>
-      <c r="F10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>226</v>
-      </c>
-      <c r="B11" t="s">
-        <v>236</v>
-      </c>
-      <c r="C11" t="s">
-        <v>140</v>
-      </c>
-      <c r="D11" t="s">
-        <v>217</v>
-      </c>
-      <c r="F11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>227</v>
-      </c>
-      <c r="B12" t="s">
-        <v>440</v>
-      </c>
-      <c r="C12" t="s">
-        <v>140</v>
-      </c>
-      <c r="D12" t="s">
-        <v>461</v>
-      </c>
-      <c r="E12" t="s">
-        <v>422</v>
-      </c>
-      <c r="F12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>228</v>
-      </c>
-      <c r="B13" t="s">
-        <v>237</v>
-      </c>
-      <c r="C13" t="s">
-        <v>142</v>
-      </c>
-      <c r="F13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>229</v>
-      </c>
-      <c r="B14" t="s">
-        <v>441</v>
-      </c>
-      <c r="C14" t="s">
-        <v>142</v>
-      </c>
-      <c r="E14" t="s">
-        <v>422</v>
-      </c>
-      <c r="F14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>230</v>
-      </c>
-      <c r="B15" t="s">
-        <v>442</v>
-      </c>
-      <c r="C15" t="s">
-        <v>141</v>
-      </c>
-      <c r="E15" t="s">
-        <v>422</v>
-      </c>
-      <c r="F15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>231</v>
-      </c>
-      <c r="B16" t="s">
-        <v>238</v>
-      </c>
-      <c r="C16" t="s">
-        <v>142</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -5948,13 +6405,13 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B17" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C17" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -5967,10 +6424,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="L1" sqref="L1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5988,7 +6445,7 @@
     <col min="11" max="11" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6020,277 +6477,283 @@
         <v>9</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>468</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D2" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B3" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="C3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B4" t="s">
+        <v>470</v>
+      </c>
+      <c r="C4" t="s">
         <v>141</v>
-      </c>
-      <c r="F3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>272</v>
-      </c>
-      <c r="B4" t="s">
-        <v>488</v>
-      </c>
-      <c r="C4" t="s">
-        <v>143</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B5" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="C5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B6" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>272</v>
+      </c>
+      <c r="B8" t="s">
         <v>276</v>
       </c>
-      <c r="B8" t="s">
-        <v>280</v>
-      </c>
       <c r="C8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D8" t="s">
-        <v>475</v>
+        <v>457</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D9" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
       <c r="E9" t="s">
-        <v>488</v>
+        <v>470</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="C10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E10" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>65</v>
       </c>
       <c r="B11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E11" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>66</v>
       </c>
       <c r="B12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E12" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>67</v>
       </c>
       <c r="B13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E13" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>69</v>
       </c>
       <c r="B14" t="s">
-        <v>413</v>
+        <v>395</v>
       </c>
       <c r="C14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E14" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="F15" s="6" t="b">
         <v>0</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="F16" s="6" t="b">
         <v>0</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>510</v>
+        <v>491</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -6298,19 +6761,19 @@
         <v>60</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>445</v>
-      </c>
       <c r="F17" s="6" t="b">
         <v>0</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>510</v>
+        <v>491</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -6318,19 +6781,19 @@
         <v>63</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="F18" s="6" t="b">
         <v>0</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>510</v>
+        <v>491</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -6338,19 +6801,19 @@
         <v>49</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="F19" s="6" t="b">
         <v>0</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>510</v>
+        <v>491</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -6358,13 +6821,13 @@
         <v>84</v>
       </c>
       <c r="B20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D20" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -6372,19 +6835,19 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B21" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="C21" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D21" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
       <c r="E21" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -6392,36 +6855,36 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B22" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="C22" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E22" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B23" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C23" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D23" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -6429,53 +6892,53 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B24" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
       <c r="C24" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E24" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B25" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C25" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E25" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>273</v>
+      </c>
+      <c r="B26" t="s">
         <v>277</v>
       </c>
-      <c r="B26" t="s">
-        <v>281</v>
-      </c>
       <c r="C26" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
@@ -6483,13 +6946,13 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>274</v>
+      </c>
+      <c r="B27" t="s">
         <v>278</v>
       </c>
-      <c r="B27" t="s">
-        <v>282</v>
-      </c>
       <c r="C27" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
@@ -6502,10 +6965,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="L1" sqref="L1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6522,7 +6985,7 @@
     <col min="10" max="10" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6556,263 +7019,269 @@
       <c r="K1" s="5" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D2" t="s">
+        <v>456</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B3" t="s">
+        <v>372</v>
+      </c>
+      <c r="C3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>218</v>
       </c>
-      <c r="B2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D2" t="s">
-        <v>474</v>
-      </c>
-      <c r="F2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>219</v>
-      </c>
-      <c r="B3" t="s">
-        <v>379</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
+        <v>404</v>
+      </c>
+      <c r="C4" t="s">
         <v>141</v>
-      </c>
-      <c r="F3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>220</v>
-      </c>
-      <c r="B4" t="s">
-        <v>422</v>
-      </c>
-      <c r="C4" t="s">
-        <v>143</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F6" s="7" t="b">
         <v>1</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B7" t="s">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="C7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B8" t="s">
-        <v>446</v>
+        <v>428</v>
       </c>
       <c r="C8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F9" s="7" t="b">
         <v>1</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B10" t="s">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="C10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E10" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B11" t="s">
-        <v>446</v>
+        <v>428</v>
       </c>
       <c r="C11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E11" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F12" s="7" t="b">
         <v>1</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B13" t="s">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="C13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E13" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B14" t="s">
-        <v>446</v>
+        <v>428</v>
       </c>
       <c r="C14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E14" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F15" s="7" t="b">
         <v>1</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B16" t="s">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="C16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E16" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -6820,36 +7289,36 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B17" t="s">
-        <v>446</v>
+        <v>428</v>
       </c>
       <c r="C17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E17" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>448</v>
+        <v>430</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="B18" t="s">
-        <v>450</v>
+        <v>432</v>
       </c>
       <c r="C18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E18" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -6862,13 +7331,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:K52"/>
+  <dimension ref="A1:M52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomRight" activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6876,7 +7345,7 @@
     <col min="1" max="1" width="35.7109375" customWidth="1"/>
     <col min="2" max="2" width="41.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" customWidth="1"/>
+    <col min="4" max="4" width="36.28515625" customWidth="1"/>
     <col min="5" max="5" width="26.85546875" customWidth="1"/>
     <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -6885,7 +7354,7 @@
     <col min="10" max="10" width="4.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6917,244 +7386,250 @@
         <v>9</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>468</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" t="s">
+        <v>506</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" t="s">
+        <v>507</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B5" t="s">
+        <v>372</v>
+      </c>
+      <c r="C5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B6" t="s">
+        <v>404</v>
+      </c>
+      <c r="C6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" t="s">
+        <v>517</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>299</v>
+      </c>
+      <c r="B8" t="s">
+        <v>342</v>
+      </c>
+      <c r="C8" t="s">
+        <v>139</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>300</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B9" t="s">
         <v>343</v>
       </c>
-      <c r="C2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>301</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B10" t="s">
         <v>344</v>
       </c>
-      <c r="C3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D3" t="s">
-        <v>526</v>
-      </c>
-      <c r="F3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" t="s">
+        <v>506</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>302</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B11" t="s">
         <v>345</v>
       </c>
-      <c r="C4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D4" t="s">
-        <v>527</v>
-      </c>
-      <c r="F4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>219</v>
-      </c>
-      <c r="B5" t="s">
-        <v>379</v>
-      </c>
-      <c r="C5" t="s">
-        <v>141</v>
-      </c>
-      <c r="F5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>220</v>
-      </c>
-      <c r="B6" t="s">
-        <v>422</v>
-      </c>
-      <c r="C6" t="s">
-        <v>144</v>
-      </c>
-      <c r="D6" t="s">
-        <v>537</v>
-      </c>
-      <c r="F6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>150</v>
-      </c>
-      <c r="B7" t="s">
-        <v>190</v>
-      </c>
-      <c r="C7" t="s">
-        <v>141</v>
-      </c>
-      <c r="F7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" t="s">
+        <v>508</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>303</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B12" t="s">
         <v>346</v>
       </c>
-      <c r="C8" t="s">
-        <v>141</v>
-      </c>
-      <c r="F8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="C12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D12" t="s">
+        <v>509</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>304</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B13" t="s">
         <v>347</v>
       </c>
-      <c r="C9" t="s">
-        <v>141</v>
-      </c>
-      <c r="F9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="C13" t="s">
+        <v>138</v>
+      </c>
+      <c r="D13" t="s">
+        <v>510</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>305</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B14" t="s">
         <v>348</v>
       </c>
-      <c r="C10" t="s">
-        <v>140</v>
-      </c>
-      <c r="D10" t="s">
-        <v>526</v>
-      </c>
-      <c r="F10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="C14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D14" t="s">
+        <v>511</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>306</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B15" t="s">
         <v>349</v>
       </c>
-      <c r="C11" t="s">
-        <v>140</v>
-      </c>
-      <c r="D11" t="s">
-        <v>528</v>
-      </c>
-      <c r="F11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="C15" t="s">
+        <v>138</v>
+      </c>
+      <c r="D15" t="s">
+        <v>512</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>307</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B16" t="s">
         <v>350</v>
       </c>
-      <c r="C12" t="s">
-        <v>140</v>
-      </c>
-      <c r="D12" t="s">
-        <v>529</v>
-      </c>
-      <c r="F12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>308</v>
-      </c>
-      <c r="B13" t="s">
-        <v>351</v>
-      </c>
-      <c r="C13" t="s">
-        <v>140</v>
-      </c>
-      <c r="D13" t="s">
-        <v>530</v>
-      </c>
-      <c r="F13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>309</v>
-      </c>
-      <c r="B14" t="s">
-        <v>352</v>
-      </c>
-      <c r="C14" t="s">
-        <v>140</v>
-      </c>
-      <c r="D14" t="s">
-        <v>531</v>
-      </c>
-      <c r="F14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>310</v>
-      </c>
-      <c r="B15" t="s">
-        <v>353</v>
-      </c>
-      <c r="C15" t="s">
-        <v>140</v>
-      </c>
-      <c r="D15" t="s">
-        <v>532</v>
-      </c>
-      <c r="F15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>311</v>
-      </c>
-      <c r="B16" t="s">
-        <v>354</v>
-      </c>
       <c r="C16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D16" t="s">
-        <v>533</v>
+        <v>513</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -7162,16 +7637,16 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B17" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D17" t="s">
-        <v>534</v>
+        <v>514</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -7179,16 +7654,16 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B18" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D18" t="s">
-        <v>535</v>
+        <v>515</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -7196,19 +7671,19 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B19" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="C19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D19" t="s">
-        <v>536</v>
+        <v>516</v>
       </c>
       <c r="E19" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -7216,19 +7691,19 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B20" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="C20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D20" t="s">
-        <v>536</v>
+        <v>516</v>
       </c>
       <c r="E20" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -7236,19 +7711,19 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B21" t="s">
-        <v>512</v>
+        <v>493</v>
       </c>
       <c r="C21" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D21" t="s">
-        <v>536</v>
+        <v>516</v>
       </c>
       <c r="E21" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -7256,16 +7731,19 @@
     </row>
     <row r="22" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>543</v>
+        <v>522</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>544</v>
+        <v>523</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>404</v>
       </c>
       <c r="F22" s="4" t="b">
         <v>0</v>
@@ -7273,13 +7751,16 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B23" t="s">
-        <v>358</v>
+        <v>521</v>
       </c>
       <c r="C23" t="s">
-        <v>144</v>
+        <v>142</v>
+      </c>
+      <c r="E23" t="s">
+        <v>404</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -7287,16 +7768,16 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B24" t="s">
-        <v>439</v>
+        <v>421</v>
       </c>
       <c r="C24" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E24" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
@@ -7304,33 +7785,42 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B25" t="s">
-        <v>513</v>
+        <v>494</v>
       </c>
       <c r="C25" t="s">
-        <v>144</v>
+        <v>142</v>
+      </c>
+      <c r="D25" t="s">
+        <v>498</v>
       </c>
       <c r="E25" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>514</v>
+        <v>495</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B26" t="s">
-        <v>359</v>
+        <v>520</v>
       </c>
       <c r="C26" t="s">
-        <v>144</v>
+        <v>142</v>
+      </c>
+      <c r="D26" t="s">
+        <v>568</v>
+      </c>
+      <c r="E26" t="s">
+        <v>404</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
@@ -7338,16 +7828,16 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B27" t="s">
-        <v>440</v>
+        <v>422</v>
       </c>
       <c r="C27" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E27" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
@@ -7355,53 +7845,53 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B28" t="s">
-        <v>515</v>
+        <v>496</v>
       </c>
       <c r="C28" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D28" t="s">
-        <v>517</v>
+        <v>498</v>
       </c>
       <c r="E28" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>514</v>
+        <v>495</v>
       </c>
     </row>
     <row r="29" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F29" s="4" t="b">
         <v>0</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>516</v>
+        <v>497</v>
       </c>
     </row>
     <row r="30" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F30" s="4" t="b">
         <v>0</v>
@@ -7409,294 +7899,294 @@
     </row>
     <row r="31" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F31" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>518</v>
+        <v>499</v>
       </c>
     </row>
     <row r="32" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F32" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>518</v>
+        <v>499</v>
       </c>
     </row>
     <row r="33" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F33" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>518</v>
+        <v>499</v>
       </c>
     </row>
     <row r="34" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F34" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>518</v>
+        <v>499</v>
       </c>
     </row>
     <row r="35" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F35" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>518</v>
+        <v>499</v>
       </c>
     </row>
     <row r="36" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F36" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>518</v>
+        <v>499</v>
       </c>
     </row>
     <row r="37" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F37" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>518</v>
+        <v>499</v>
       </c>
     </row>
     <row r="38" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F38" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>518</v>
+        <v>499</v>
       </c>
     </row>
     <row r="39" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F39" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>518</v>
+        <v>499</v>
       </c>
     </row>
     <row r="40" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F40" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>518</v>
+        <v>499</v>
       </c>
     </row>
     <row r="41" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F41" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>518</v>
+        <v>499</v>
       </c>
     </row>
     <row r="42" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F42" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>518</v>
+        <v>499</v>
       </c>
     </row>
     <row r="43" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F43" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>518</v>
+        <v>499</v>
       </c>
     </row>
     <row r="44" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>523</v>
+        <v>503</v>
       </c>
       <c r="F44" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>518</v>
+        <v>499</v>
       </c>
     </row>
     <row r="45" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>524</v>
+        <v>504</v>
       </c>
       <c r="F45" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>518</v>
+        <v>499</v>
       </c>
     </row>
     <row r="46" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>525</v>
+        <v>505</v>
       </c>
       <c r="F46" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>518</v>
+        <v>499</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B47" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C47" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F47" t="b">
         <v>0</v>
@@ -7704,53 +8194,53 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B48" t="s">
-        <v>441</v>
+        <v>423</v>
       </c>
       <c r="C48" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E48" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B49" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="C49" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E49" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="F49" t="b">
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B50" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C50" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F50" t="b">
         <v>0</v>
@@ -7758,13 +8248,13 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B51" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C51" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F51" t="b">
         <v>0</v>
@@ -7772,13 +8262,13 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B52" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="C52" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F52" t="b">
         <v>0</v>
@@ -7791,10 +8281,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7811,7 +8301,7 @@
     <col min="10" max="10" width="4.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7842,523 +8332,529 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B2" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" t="s">
+        <v>501</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" t="s">
+        <v>502</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B5" t="s">
+        <v>372</v>
+      </c>
+      <c r="C5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B6" t="s">
+        <v>404</v>
+      </c>
+      <c r="C6" t="s">
         <v>141</v>
-      </c>
-      <c r="F2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>301</v>
-      </c>
-      <c r="B3" t="s">
-        <v>344</v>
-      </c>
-      <c r="C3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D3" t="s">
-        <v>521</v>
-      </c>
-      <c r="F3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>302</v>
-      </c>
-      <c r="B4" t="s">
-        <v>345</v>
-      </c>
-      <c r="C4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D4" t="s">
-        <v>522</v>
-      </c>
-      <c r="F4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>219</v>
-      </c>
-      <c r="B5" t="s">
-        <v>379</v>
-      </c>
-      <c r="C5" t="s">
-        <v>141</v>
-      </c>
-      <c r="F5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>220</v>
-      </c>
-      <c r="B6" t="s">
-        <v>422</v>
-      </c>
-      <c r="C6" t="s">
-        <v>143</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B8" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="C8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" t="s">
+        <v>459</v>
+      </c>
+      <c r="E8" t="s">
+        <v>404</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>310</v>
+      </c>
+      <c r="B9" t="s">
+        <v>418</v>
+      </c>
+      <c r="C9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" t="s">
+        <v>459</v>
+      </c>
+      <c r="E9" t="s">
+        <v>404</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>311</v>
+      </c>
+      <c r="B10" t="s">
+        <v>493</v>
+      </c>
+      <c r="C10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" t="s">
+        <v>459</v>
+      </c>
+      <c r="E10" t="s">
+        <v>404</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>312</v>
+      </c>
+      <c r="B11" t="s">
+        <v>522</v>
+      </c>
+      <c r="C11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" t="s">
+        <v>569</v>
+      </c>
+      <c r="E11" t="s">
+        <v>404</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F12" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F13" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="F14" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="F15" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F16" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="F17" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F18" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F19" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="F20" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F21" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F22" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="F23" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F24" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F25" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="F26" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F27" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>226</v>
+      </c>
+      <c r="B28" t="s">
+        <v>233</v>
+      </c>
+      <c r="C28" t="s">
         <v>140</v>
       </c>
-      <c r="D8" t="s">
-        <v>477</v>
-      </c>
-      <c r="E8" t="s">
-        <v>422</v>
-      </c>
-      <c r="F8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>314</v>
-      </c>
-      <c r="B9" t="s">
-        <v>436</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="F28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>337</v>
+      </c>
+      <c r="B29" t="s">
+        <v>423</v>
+      </c>
+      <c r="C29" t="s">
         <v>140</v>
       </c>
-      <c r="D9" t="s">
-        <v>477</v>
-      </c>
-      <c r="E9" t="s">
-        <v>422</v>
-      </c>
-      <c r="F9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>315</v>
-      </c>
-      <c r="B10" t="s">
-        <v>512</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="E29" t="s">
+        <v>404</v>
+      </c>
+      <c r="F29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>228</v>
+      </c>
+      <c r="B30" t="s">
+        <v>424</v>
+      </c>
+      <c r="C30" t="s">
+        <v>139</v>
+      </c>
+      <c r="E30" t="s">
+        <v>404</v>
+      </c>
+      <c r="F30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>229</v>
+      </c>
+      <c r="B31" t="s">
+        <v>234</v>
+      </c>
+      <c r="C31" t="s">
         <v>140</v>
       </c>
-      <c r="D10" t="s">
-        <v>477</v>
-      </c>
-      <c r="E10" t="s">
-        <v>422</v>
-      </c>
-      <c r="F10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>316</v>
-      </c>
-      <c r="B11" t="s">
-        <v>357</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="F31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>264</v>
+      </c>
+      <c r="B32" t="s">
+        <v>265</v>
+      </c>
+      <c r="C32" t="s">
         <v>140</v>
-      </c>
-      <c r="D11" t="s">
-        <v>520</v>
-      </c>
-      <c r="F11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="F12" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="F13" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="F14" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="F15" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="F16" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="F17" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="F18" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="F19" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="F20" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="F21" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="F22" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="F23" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="F24" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="F25" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="F26" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="F27" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>228</v>
-      </c>
-      <c r="B28" t="s">
-        <v>237</v>
-      </c>
-      <c r="C28" t="s">
-        <v>142</v>
-      </c>
-      <c r="F28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>341</v>
-      </c>
-      <c r="B29" t="s">
-        <v>441</v>
-      </c>
-      <c r="C29" t="s">
-        <v>142</v>
-      </c>
-      <c r="E29" t="s">
-        <v>422</v>
-      </c>
-      <c r="F29" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>230</v>
-      </c>
-      <c r="B30" t="s">
-        <v>442</v>
-      </c>
-      <c r="C30" t="s">
-        <v>141</v>
-      </c>
-      <c r="E30" t="s">
-        <v>422</v>
-      </c>
-      <c r="F30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>231</v>
-      </c>
-      <c r="B31" t="s">
-        <v>238</v>
-      </c>
-      <c r="C31" t="s">
-        <v>142</v>
-      </c>
-      <c r="F31" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>268</v>
-      </c>
-      <c r="B32" t="s">
-        <v>269</v>
-      </c>
-      <c r="C32" t="s">
-        <v>142</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
@@ -8366,16 +8862,16 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B33" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="C33" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D33" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>

--- a/examples/oucru/oucru-dr/resources/outputs/templates/ccfgs_dr_data_fixed.xlsx
+++ b/examples/oucru/oucru-dr/resources/outputs/templates/ccfgs_dr_data_fixed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kelda\Desktop\repositories\github\datablend\main\examples\oucru\oucru-dr\resources\outputs\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E478797-05EC-4479-BC64-4A390938C9DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB88797D-459E-4AF6-8857-B91759A1620D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3405" yWindow="600" windowWidth="23430" windowHeight="16470" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DR1_2232_ENROL" sheetId="1" r:id="rId1"/>
@@ -1436,9 +1436,6 @@
     <t>pleural_effusion</t>
   </si>
   <si>
-    <t>gigacount/L</t>
-  </si>
-  <si>
     <t>bleeding</t>
   </si>
   <si>
@@ -1764,6 +1761,9 @@
   </si>
   <si>
     <t>event_discharge</t>
+  </si>
+  <si>
+    <t>megacount/L</t>
   </si>
 </sst>
 </file>
@@ -2222,7 +2222,7 @@
   <dimension ref="A1:M103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D65" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="H101" sqref="H101"/>
@@ -2276,13 +2276,13 @@
         <v>9</v>
       </c>
       <c r="K1" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="L1" s="8" t="s">
         <v>525</v>
       </c>
-      <c r="L1" s="8" t="s">
-        <v>526</v>
-      </c>
       <c r="M1" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -2395,7 +2395,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -2502,7 +2502,7 @@
         <v>433</v>
       </c>
       <c r="E15" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -2513,7 +2513,7 @@
         <v>24</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>138</v>
@@ -2525,7 +2525,7 @@
         <v>378</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -2542,7 +2542,7 @@
         <v>433</v>
       </c>
       <c r="E17" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -2553,7 +2553,7 @@
         <v>26</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>138</v>
@@ -2565,7 +2565,7 @@
         <v>378</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -2582,7 +2582,7 @@
         <v>450</v>
       </c>
       <c r="E19" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -2593,7 +2593,7 @@
         <v>28</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>138</v>
@@ -2610,7 +2610,7 @@
         <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C21" t="s">
         <v>138</v>
@@ -2619,7 +2619,7 @@
         <v>433</v>
       </c>
       <c r="E21" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -2630,7 +2630,7 @@
         <v>30</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>138</v>
@@ -2656,7 +2656,7 @@
         <v>433</v>
       </c>
       <c r="E23" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -2667,7 +2667,7 @@
         <v>32</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>139</v>
@@ -2693,7 +2693,7 @@
         <v>433</v>
       </c>
       <c r="E25" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -2704,7 +2704,7 @@
         <v>34</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>138</v>
@@ -2730,7 +2730,7 @@
         <v>450</v>
       </c>
       <c r="E27" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
@@ -2741,7 +2741,7 @@
         <v>36</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>138</v>
@@ -2768,7 +2768,7 @@
         <v>433</v>
       </c>
       <c r="E29" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>38</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>138</v>
@@ -2806,7 +2806,7 @@
         <v>451</v>
       </c>
       <c r="E31" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F31" t="b">
         <v>0</v>
@@ -2817,7 +2817,7 @@
         <v>40</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>138</v>
@@ -2844,7 +2844,7 @@
         <v>450</v>
       </c>
       <c r="E33" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
@@ -2855,7 +2855,7 @@
         <v>42</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>138</v>
@@ -2881,7 +2881,7 @@
         <v>433</v>
       </c>
       <c r="E35" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
@@ -2892,7 +2892,7 @@
         <v>44</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>138</v>
@@ -2958,7 +2958,7 @@
         <v>450</v>
       </c>
       <c r="E39" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
@@ -2969,7 +2969,7 @@
         <v>48</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>138</v>
@@ -2995,7 +2995,7 @@
         <v>450</v>
       </c>
       <c r="E41" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F41" t="b">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>50</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>138</v>
@@ -3439,7 +3439,7 @@
         <v>73</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>139</v>
@@ -3454,7 +3454,7 @@
         <v>0</v>
       </c>
       <c r="M65" s="4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -3485,7 +3485,7 @@
         <v>0</v>
       </c>
       <c r="M67" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="68" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3505,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="M68" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -3728,7 +3728,7 @@
         <v>375</v>
       </c>
       <c r="M82" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
@@ -3750,7 +3750,7 @@
         <v>92</v>
       </c>
       <c r="B84" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C84" t="s">
         <v>142</v>
@@ -3759,7 +3759,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -3776,7 +3776,7 @@
         <v>452</v>
       </c>
       <c r="E85" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F85" t="b">
         <v>0</v>
@@ -3801,7 +3801,7 @@
         <v>95</v>
       </c>
       <c r="B87" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C87" t="s">
         <v>141</v>
@@ -3810,7 +3810,7 @@
         <v>1</v>
       </c>
       <c r="I87" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
@@ -3829,10 +3829,10 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B89" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C89" t="s">
         <v>141</v>
@@ -3841,10 +3841,10 @@
         <v>1</v>
       </c>
       <c r="I89" t="s">
+        <v>526</v>
+      </c>
+      <c r="K89" s="9" t="s">
         <v>527</v>
-      </c>
-      <c r="K89" s="9" t="s">
-        <v>528</v>
       </c>
       <c r="L89" t="s">
         <v>16</v>
@@ -3852,10 +3852,10 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B90" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C90" t="s">
         <v>141</v>
@@ -3864,10 +3864,10 @@
         <v>1</v>
       </c>
       <c r="I90" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="K90" s="9" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="L90" t="s">
         <v>16</v>
@@ -3875,10 +3875,10 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B91" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C91" t="s">
         <v>141</v>
@@ -3887,7 +3887,7 @@
         <v>1</v>
       </c>
       <c r="K91" s="9" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="L91" t="s">
         <v>16</v>
@@ -3895,10 +3895,10 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B92" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C92" t="s">
         <v>141</v>
@@ -3907,7 +3907,7 @@
         <v>1</v>
       </c>
       <c r="K92" s="9" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="L92" t="s">
         <v>16</v>
@@ -3915,10 +3915,10 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B93" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C93" t="s">
         <v>141</v>
@@ -3927,7 +3927,7 @@
         <v>1</v>
       </c>
       <c r="K93" s="9" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="L93" t="s">
         <v>16</v>
@@ -3935,10 +3935,10 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B94" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C94" t="s">
         <v>141</v>
@@ -3947,7 +3947,7 @@
         <v>1</v>
       </c>
       <c r="K94" s="9" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="L94" t="s">
         <v>16</v>
@@ -3955,10 +3955,10 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B95" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C95" t="s">
         <v>141</v>
@@ -3967,7 +3967,7 @@
         <v>1</v>
       </c>
       <c r="K95" s="9" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="L95" t="s">
         <v>16</v>
@@ -3975,10 +3975,10 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B96" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C96" t="s">
         <v>141</v>
@@ -3987,7 +3987,7 @@
         <v>1</v>
       </c>
       <c r="K96" s="9" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="L96" t="s">
         <v>16</v>
@@ -3995,10 +3995,10 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B97" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C97" t="s">
         <v>141</v>
@@ -4007,7 +4007,7 @@
         <v>1</v>
       </c>
       <c r="K97" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="L97" t="s">
         <v>16</v>
@@ -4015,10 +4015,10 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B98" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C98" t="s">
         <v>141</v>
@@ -4027,7 +4027,7 @@
         <v>1</v>
       </c>
       <c r="K98" s="9" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="L98" t="s">
         <v>16</v>
@@ -4035,10 +4035,10 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B99" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C99" t="s">
         <v>141</v>
@@ -4047,7 +4047,7 @@
         <v>1</v>
       </c>
       <c r="K99" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="L99" t="s">
         <v>16</v>
@@ -4055,10 +4055,10 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B100" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C100" t="s">
         <v>141</v>
@@ -4067,7 +4067,7 @@
         <v>1</v>
       </c>
       <c r="K100" s="9" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="L100" t="s">
         <v>16</v>
@@ -4075,10 +4075,10 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B101" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C101" t="s">
         <v>141</v>
@@ -4087,7 +4087,7 @@
         <v>1</v>
       </c>
       <c r="K101" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="L101" t="s">
         <v>16</v>
@@ -4095,10 +4095,10 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B102" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C102" t="s">
         <v>141</v>
@@ -4107,7 +4107,7 @@
         <v>1</v>
       </c>
       <c r="K102" s="9" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="L102" t="s">
         <v>16</v>
@@ -4115,10 +4115,10 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B103" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C103" t="s">
         <v>141</v>
@@ -4127,13 +4127,13 @@
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K103" t="s">
         <v>82</v>
       </c>
       <c r="L103" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
   </sheetData>
@@ -4146,8 +4146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M58"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4196,13 +4196,13 @@
         <v>9</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="L1" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>525</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -4266,7 +4266,7 @@
         <v>147</v>
       </c>
       <c r="B6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C6" t="s">
         <v>141</v>
@@ -4275,7 +4275,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -4371,7 +4371,7 @@
         <v>440</v>
       </c>
       <c r="E12" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -4699,7 +4699,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>464</v>
+        <v>573</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -4719,7 +4719,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>464</v>
+        <v>573</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -4776,7 +4776,7 @@
         <v>0</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="34" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -4793,7 +4793,7 @@
         <v>0</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="35" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -4810,7 +4810,7 @@
         <v>0</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="36" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -4830,7 +4830,7 @@
         <v>0</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="37" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -4850,7 +4850,7 @@
         <v>0</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="38" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -4870,7 +4870,7 @@
         <v>0</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="39" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -4890,7 +4890,7 @@
         <v>0</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="40" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -4907,7 +4907,7 @@
         <v>0</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="41" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -4927,7 +4927,7 @@
         <v>0</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="42" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -4947,7 +4947,7 @@
         <v>0</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="43" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -4967,7 +4967,7 @@
         <v>0</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="44" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -4987,7 +4987,7 @@
         <v>0</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="45" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -5007,7 +5007,7 @@
         <v>0</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="46" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -5027,7 +5027,7 @@
         <v>0</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="47" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -5044,7 +5044,7 @@
         <v>0</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="48" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -5140,7 +5140,7 @@
         <v>180</v>
       </c>
       <c r="B53" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C53" t="s">
         <v>138</v>
@@ -5308,13 +5308,13 @@
         <v>9</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="L1" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>525</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -5441,7 +5441,7 @@
         <v>222</v>
       </c>
       <c r="B9" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C9" t="s">
         <v>140</v>
@@ -5470,7 +5470,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -5478,7 +5478,7 @@
         <v>224</v>
       </c>
       <c r="B11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C11" t="s">
         <v>140</v>
@@ -5507,7 +5507,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5524,7 +5524,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5544,10 +5544,10 @@
         <v>0</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5567,10 +5567,10 @@
         <v>0</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="16" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5587,10 +5587,10 @@
         <v>0</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -5686,10 +5686,10 @@
         <v>83</v>
       </c>
       <c r="L1" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>525</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -5765,7 +5765,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -5822,7 +5822,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -5864,7 +5864,7 @@
         <v>222</v>
       </c>
       <c r="B12" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C12" t="s">
         <v>140</v>
@@ -5901,7 +5901,7 @@
         <v>224</v>
       </c>
       <c r="B14" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C14" t="s">
         <v>140</v>
@@ -5952,7 +5952,7 @@
         <v>245</v>
       </c>
       <c r="B17" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C17" t="s">
         <v>141</v>
@@ -5961,7 +5961,7 @@
         <v>1</v>
       </c>
       <c r="K17" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -5992,7 +5992,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -6009,7 +6009,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -6026,7 +6026,7 @@
         <v>1</v>
       </c>
       <c r="K21" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -6043,7 +6043,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -6060,7 +6060,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -6136,10 +6136,10 @@
         <v>9</v>
       </c>
       <c r="K1" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>525</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -6206,7 +6206,7 @@
         <v>219</v>
       </c>
       <c r="B6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C6" t="s">
         <v>138</v>
@@ -6226,7 +6226,7 @@
         <v>220</v>
       </c>
       <c r="B7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C7" t="s">
         <v>138</v>
@@ -6246,7 +6246,7 @@
         <v>221</v>
       </c>
       <c r="B8" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C8" t="s">
         <v>138</v>
@@ -6266,7 +6266,7 @@
         <v>222</v>
       </c>
       <c r="B9" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C9" t="s">
         <v>138</v>
@@ -6303,7 +6303,7 @@
         <v>224</v>
       </c>
       <c r="B11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C11" t="s">
         <v>138</v>
@@ -6366,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -6386,7 +6386,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -6427,7 +6427,7 @@
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:M1"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6477,13 +6477,13 @@
         <v>9</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="L1" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>525</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -6522,7 +6522,7 @@
         <v>268</v>
       </c>
       <c r="B4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C4" t="s">
         <v>141</v>
@@ -6531,7 +6531,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -6548,7 +6548,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -6610,7 +6610,7 @@
         <v>441</v>
       </c>
       <c r="E9" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -6733,7 +6733,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="16" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -6753,7 +6753,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -6773,7 +6773,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -6793,7 +6793,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -6813,7 +6813,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -6927,7 +6927,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>464</v>
+        <v>573</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -7020,10 +7020,10 @@
         <v>83</v>
       </c>
       <c r="L1" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>525</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -7071,7 +7071,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -7105,7 +7105,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -7159,7 +7159,7 @@
         <v>1</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -7213,7 +7213,7 @@
         <v>1</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -7267,7 +7267,7 @@
         <v>1</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -7386,13 +7386,13 @@
         <v>9</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="L1" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>525</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -7420,7 +7420,7 @@
         <v>138</v>
       </c>
       <c r="D3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -7437,7 +7437,7 @@
         <v>138</v>
       </c>
       <c r="D4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -7468,7 +7468,7 @@
         <v>142</v>
       </c>
       <c r="D6" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -7527,7 +7527,7 @@
         <v>138</v>
       </c>
       <c r="D10" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -7544,7 +7544,7 @@
         <v>138</v>
       </c>
       <c r="D11" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -7561,7 +7561,7 @@
         <v>138</v>
       </c>
       <c r="D12" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -7578,7 +7578,7 @@
         <v>138</v>
       </c>
       <c r="D13" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -7595,7 +7595,7 @@
         <v>138</v>
       </c>
       <c r="D14" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -7612,7 +7612,7 @@
         <v>138</v>
       </c>
       <c r="D15" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -7629,7 +7629,7 @@
         <v>138</v>
       </c>
       <c r="D16" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -7646,7 +7646,7 @@
         <v>138</v>
       </c>
       <c r="D17" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -7663,7 +7663,7 @@
         <v>138</v>
       </c>
       <c r="D18" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -7680,7 +7680,7 @@
         <v>143</v>
       </c>
       <c r="D19" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E19" t="s">
         <v>404</v>
@@ -7700,7 +7700,7 @@
         <v>138</v>
       </c>
       <c r="D20" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E20" t="s">
         <v>404</v>
@@ -7714,13 +7714,13 @@
         <v>311</v>
       </c>
       <c r="B21" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C21" t="s">
         <v>138</v>
       </c>
       <c r="D21" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E21" t="s">
         <v>404</v>
@@ -7734,13 +7734,13 @@
         <v>312</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>522</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>523</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>404</v>
@@ -7754,7 +7754,7 @@
         <v>313</v>
       </c>
       <c r="B23" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C23" t="s">
         <v>142</v>
@@ -7788,13 +7788,13 @@
         <v>315</v>
       </c>
       <c r="B25" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C25" t="s">
         <v>142</v>
       </c>
       <c r="D25" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E25" t="s">
         <v>404</v>
@@ -7803,7 +7803,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -7811,13 +7811,13 @@
         <v>316</v>
       </c>
       <c r="B26" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C26" t="s">
         <v>142</v>
       </c>
       <c r="D26" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E26" t="s">
         <v>404</v>
@@ -7848,13 +7848,13 @@
         <v>318</v>
       </c>
       <c r="B28" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C28" t="s">
         <v>142</v>
       </c>
       <c r="D28" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E28" t="s">
         <v>404</v>
@@ -7863,7 +7863,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="29" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -7880,7 +7880,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="30" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="32" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -7928,7 +7928,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="33" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -7945,7 +7945,7 @@
         <v>0</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="34" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -7962,7 +7962,7 @@
         <v>0</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="35" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -7979,7 +7979,7 @@
         <v>0</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="36" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -7996,7 +7996,7 @@
         <v>0</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="37" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -8013,7 +8013,7 @@
         <v>0</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="38" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -8030,7 +8030,7 @@
         <v>0</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="39" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -8047,7 +8047,7 @@
         <v>0</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="40" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -8064,7 +8064,7 @@
         <v>0</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="41" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="42" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -8098,7 +8098,7 @@
         <v>0</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="43" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -8115,7 +8115,7 @@
         <v>0</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="44" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -8129,13 +8129,13 @@
         <v>138</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F44" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="45" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -8149,13 +8149,13 @@
         <v>138</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F45" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="46" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -8169,13 +8169,13 @@
         <v>138</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F46" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -8209,7 +8209,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -8229,7 +8229,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -8283,7 +8283,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
@@ -8333,10 +8333,10 @@
         <v>9</v>
       </c>
       <c r="K1" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>525</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -8364,7 +8364,7 @@
         <v>138</v>
       </c>
       <c r="D3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -8381,7 +8381,7 @@
         <v>138</v>
       </c>
       <c r="D4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -8474,7 +8474,7 @@
         <v>311</v>
       </c>
       <c r="B10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C10" t="s">
         <v>138</v>
@@ -8494,13 +8494,13 @@
         <v>312</v>
       </c>
       <c r="B11" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C11" t="s">
         <v>138</v>
       </c>
       <c r="D11" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E11" t="s">
         <v>404</v>
@@ -8554,7 +8554,7 @@
         <v>138</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F14" s="7" t="b">
         <v>0</v>
@@ -8571,7 +8571,7 @@
         <v>138</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F15" s="7" t="b">
         <v>0</v>
@@ -8605,7 +8605,7 @@
         <v>138</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F17" s="7" t="b">
         <v>0</v>
@@ -8656,7 +8656,7 @@
         <v>138</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F20" s="7" t="b">
         <v>0</v>
@@ -8707,7 +8707,7 @@
         <v>138</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F23" s="7" t="b">
         <v>0</v>
@@ -8758,7 +8758,7 @@
         <v>138</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F26" s="7" t="b">
         <v>0</v>
@@ -8812,7 +8812,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">

--- a/examples/oucru/oucru-dr/resources/outputs/templates/ccfgs_dr_data_fixed.xlsx
+++ b/examples/oucru/oucru-dr/resources/outputs/templates/ccfgs_dr_data_fixed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kelda\Desktop\repositories\github\datablend\main\examples\oucru\oucru-dr\resources\outputs\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB88797D-459E-4AF6-8857-B91759A1620D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49477A3-1A99-4CEA-9134-8026CCD38A62}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3405" yWindow="600" windowWidth="23430" windowHeight="16470" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="420" yWindow="465" windowWidth="23730" windowHeight="16470" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DR1_2232_ENROL" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="574">
   <si>
     <t>from_name</t>
   </si>
@@ -356,9 +356,6 @@
     <t>other study</t>
   </si>
   <si>
-    <t>daysof_illness</t>
-  </si>
-  <si>
     <t>fever</t>
   </si>
   <si>
@@ -384,9 +381,6 @@
   </si>
   <si>
     <t>weight</t>
-  </si>
-  <si>
-    <t>exam_rash_desc</t>
   </si>
   <si>
     <t>petechiae</t>
@@ -610,9 +604,6 @@
     <t>day of illness</t>
   </si>
   <si>
-    <t>1home,2hospital,3fu</t>
-  </si>
-  <si>
     <t>other</t>
   </si>
   <si>
@@ -1751,9 +1742,6 @@
     <t>{2: 'Secondary', 0: None, 1: 'Primary'}</t>
   </si>
   <si>
-    <t>event_entrolment</t>
-  </si>
-  <si>
     <t>Only has a few values</t>
   </si>
   <si>
@@ -1764,6 +1752,18 @@
   </si>
   <si>
     <t>megacount/L</t>
+  </si>
+  <si>
+    <t>event_enrolment</t>
+  </si>
+  <si>
+    <t>day_from_illness</t>
+  </si>
+  <si>
+    <t>skin_reash_description</t>
+  </si>
+  <si>
+    <t>care_type</t>
   </si>
 </sst>
 </file>
@@ -2222,10 +2222,10 @@
   <dimension ref="A1:M103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H101" sqref="H101"/>
+      <selection pane="bottomRight" activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2276,13 +2276,13 @@
         <v>9</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -2293,7 +2293,7 @@
         <v>97</v>
       </c>
       <c r="C2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -2304,10 +2304,10 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -2318,19 +2318,19 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" t="s">
         <v>373</v>
       </c>
-      <c r="C4" t="s">
-        <v>139</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
         <v>376</v>
-      </c>
-      <c r="F4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -2341,7 +2341,7 @@
         <v>98</v>
       </c>
       <c r="C5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -2355,7 +2355,7 @@
         <v>99</v>
       </c>
       <c r="C6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -2366,16 +2366,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="E7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -2386,16 +2386,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -2406,10 +2406,10 @@
         <v>100</v>
       </c>
       <c r="C9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D9" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -2423,7 +2423,7 @@
         <v>101</v>
       </c>
       <c r="C10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -2437,7 +2437,7 @@
         <v>102</v>
       </c>
       <c r="C11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -2451,7 +2451,7 @@
         <v>103</v>
       </c>
       <c r="C12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -2465,7 +2465,7 @@
         <v>104</v>
       </c>
       <c r="C13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -2476,16 +2476,19 @@
         <v>22</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>105</v>
+        <v>571</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>373</v>
       </c>
       <c r="F14" s="4" t="b">
         <v>0</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -2493,16 +2496,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D15" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="E15" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -2513,19 +2516,19 @@
         <v>24</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F16" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -2533,16 +2536,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C17" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D17" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="E17" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -2553,19 +2556,19 @@
         <v>26</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F18" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -2573,16 +2576,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C19" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D19" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E19" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -2593,16 +2596,16 @@
         <v>28</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F20" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -2610,16 +2613,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D21" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="E21" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -2630,16 +2633,16 @@
         <v>30</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F22" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -2647,16 +2650,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C23" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D23" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="E23" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -2667,16 +2670,16 @@
         <v>32</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F24" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -2684,16 +2687,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C25" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D25" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="E25" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -2704,16 +2707,16 @@
         <v>34</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F26" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -2721,16 +2724,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C27" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D27" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E27" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
@@ -2741,17 +2744,16 @@
         <v>36</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="E28"/>
+        <v>136</v>
+      </c>
       <c r="F28" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -2759,16 +2761,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C29" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D29" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="E29" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
@@ -2779,17 +2781,16 @@
         <v>38</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="E30"/>
+        <v>136</v>
+      </c>
       <c r="F30" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -2797,16 +2798,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C31" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D31" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E31" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F31" t="b">
         <v>0</v>
@@ -2817,17 +2818,16 @@
         <v>40</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="E32"/>
+        <v>136</v>
+      </c>
       <c r="F32" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -2835,16 +2835,16 @@
         <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C33" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D33" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E33" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
@@ -2855,16 +2855,16 @@
         <v>42</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F34" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -2872,16 +2872,16 @@
         <v>43</v>
       </c>
       <c r="B35" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C35" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D35" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="E35" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
@@ -2892,16 +2892,16 @@
         <v>44</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F36" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -2909,16 +2909,16 @@
         <v>45</v>
       </c>
       <c r="B37" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C37" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D37" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="E37" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
@@ -2929,16 +2929,16 @@
         <v>46</v>
       </c>
       <c r="B38" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C38" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
@@ -2949,16 +2949,16 @@
         <v>47</v>
       </c>
       <c r="B39" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C39" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D39" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E39" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
@@ -2969,16 +2969,16 @@
         <v>48</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F40" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -2986,16 +2986,16 @@
         <v>49</v>
       </c>
       <c r="B41" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C41" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D41" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E41" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="F41" t="b">
         <v>0</v>
@@ -3006,16 +3006,16 @@
         <v>50</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F42" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -3023,10 +3023,10 @@
         <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C43" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F43" t="b">
         <v>0</v>
@@ -3037,13 +3037,16 @@
         <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C44" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D44" t="s">
-        <v>436</v>
+        <v>433</v>
+      </c>
+      <c r="E44" t="s">
+        <v>373</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
@@ -3054,13 +3057,16 @@
         <v>53</v>
       </c>
       <c r="B45" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C45" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D45" t="s">
-        <v>449</v>
+        <v>446</v>
+      </c>
+      <c r="E45" t="s">
+        <v>373</v>
       </c>
       <c r="F45" t="b">
         <v>0</v>
@@ -3071,13 +3077,16 @@
         <v>54</v>
       </c>
       <c r="B46" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C46" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D46" t="s">
-        <v>436</v>
+        <v>433</v>
+      </c>
+      <c r="E46" t="s">
+        <v>373</v>
       </c>
       <c r="F46" t="b">
         <v>0</v>
@@ -3088,13 +3097,16 @@
         <v>55</v>
       </c>
       <c r="B47" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C47" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>446</v>
+        <v>443</v>
+      </c>
+      <c r="E47" t="s">
+        <v>373</v>
       </c>
       <c r="F47" t="b">
         <v>0</v>
@@ -3105,13 +3117,13 @@
         <v>56</v>
       </c>
       <c r="B48" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C48" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E48" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
@@ -3122,19 +3134,19 @@
         <v>57</v>
       </c>
       <c r="B49" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C49" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E49" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F49" t="b">
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="50" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3142,16 +3154,16 @@
         <v>58</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F50" s="6" t="b">
         <v>0</v>
@@ -3162,10 +3174,13 @@
         <v>59</v>
       </c>
       <c r="B51" t="s">
-        <v>115</v>
+        <v>572</v>
       </c>
       <c r="C51" t="s">
-        <v>143</v>
+        <v>141</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>373</v>
       </c>
       <c r="F51" t="b">
         <v>0</v>
@@ -3176,16 +3191,16 @@
         <v>60</v>
       </c>
       <c r="B52" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C52" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D52" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="E52" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F52" t="b">
         <v>0</v>
@@ -3196,16 +3211,16 @@
         <v>61</v>
       </c>
       <c r="B53" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C53" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D53" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="E53" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F53" t="b">
         <v>0</v>
@@ -3216,16 +3231,16 @@
         <v>62</v>
       </c>
       <c r="B54" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C54" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D54" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="E54" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F54" t="b">
         <v>0</v>
@@ -3236,16 +3251,16 @@
         <v>63</v>
       </c>
       <c r="B55" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C55" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D55" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="E55" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F55" t="b">
         <v>0</v>
@@ -3256,16 +3271,16 @@
         <v>64</v>
       </c>
       <c r="B56" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C56" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E56" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F56" t="b">
         <v>0</v>
@@ -3276,19 +3291,19 @@
         <v>65</v>
       </c>
       <c r="B57" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C57" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E57" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F57" t="b">
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -3296,19 +3311,19 @@
         <v>66</v>
       </c>
       <c r="B58" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C58" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E58" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F58" t="b">
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -3316,19 +3331,19 @@
         <v>67</v>
       </c>
       <c r="B59" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C59" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E59" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F59" t="b">
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -3336,22 +3351,22 @@
         <v>68</v>
       </c>
       <c r="B60" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C60" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D60" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E60" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F60" t="b">
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -3359,19 +3374,19 @@
         <v>69</v>
       </c>
       <c r="B61" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C61" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F61" t="b">
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="62" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3379,16 +3394,16 @@
         <v>70</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F62" s="4" t="b">
         <v>0</v>
@@ -3399,16 +3414,16 @@
         <v>71</v>
       </c>
       <c r="B63" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C63" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D63" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="E63" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F63" t="b">
         <v>0</v>
@@ -3419,16 +3434,16 @@
         <v>72</v>
       </c>
       <c r="B64" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C64" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D64" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="E64" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F64" t="b">
         <v>0</v>
@@ -3439,22 +3454,22 @@
         <v>73</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F65" s="4" t="b">
         <v>0</v>
       </c>
       <c r="M65" s="4" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -3462,10 +3477,10 @@
         <v>74</v>
       </c>
       <c r="B66" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C66" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F66" t="b">
         <v>0</v>
@@ -3476,16 +3491,16 @@
         <v>75</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F67" s="4" t="b">
         <v>0</v>
       </c>
       <c r="M67" s="4" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="68" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3493,19 +3508,19 @@
         <v>76</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="F68" s="4" t="b">
         <v>0</v>
       </c>
       <c r="M68" s="4" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -3513,16 +3528,16 @@
         <v>77</v>
       </c>
       <c r="B69" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C69" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D69" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="E69" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F69" t="b">
         <v>0</v>
@@ -3533,13 +3548,13 @@
         <v>78</v>
       </c>
       <c r="B70" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C70" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D70" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="F70" t="b">
         <v>0</v>
@@ -3550,10 +3565,10 @@
         <v>79</v>
       </c>
       <c r="B71" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C71" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F71" t="b">
         <v>0</v>
@@ -3564,10 +3579,10 @@
         <v>80</v>
       </c>
       <c r="B72" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C72" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F72" t="b">
         <v>0</v>
@@ -3578,10 +3593,10 @@
         <v>81</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F73" s="4" t="b">
         <v>0</v>
@@ -3592,10 +3607,10 @@
         <v>82</v>
       </c>
       <c r="B74" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C74" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F74" t="b">
         <v>0</v>
@@ -3606,10 +3621,10 @@
         <v>83</v>
       </c>
       <c r="B75" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C75" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F75" t="b">
         <v>0</v>
@@ -3620,13 +3635,13 @@
         <v>84</v>
       </c>
       <c r="B76" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C76" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D76" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="F76" t="b">
         <v>0</v>
@@ -3637,10 +3652,10 @@
         <v>85</v>
       </c>
       <c r="B77" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C77" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F77" t="b">
         <v>0</v>
@@ -3651,13 +3666,13 @@
         <v>86</v>
       </c>
       <c r="B78" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C78" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D78" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="F78" t="b">
         <v>0</v>
@@ -3668,10 +3683,10 @@
         <v>87</v>
       </c>
       <c r="B79" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C79" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F79" t="b">
         <v>0</v>
@@ -3682,13 +3697,13 @@
         <v>88</v>
       </c>
       <c r="B80" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C80" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D80" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F80" t="b">
         <v>0</v>
@@ -3699,13 +3714,13 @@
         <v>89</v>
       </c>
       <c r="B81" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C81" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D81" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="F81" t="b">
         <v>0</v>
@@ -3716,19 +3731,19 @@
         <v>90</v>
       </c>
       <c r="B82" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C82" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F82" t="b">
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="M82" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
@@ -3736,10 +3751,10 @@
         <v>91</v>
       </c>
       <c r="B83" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C83" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F83" t="b">
         <v>0</v>
@@ -3750,16 +3765,16 @@
         <v>92</v>
       </c>
       <c r="B84" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C84" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F84" t="b">
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -3767,16 +3782,16 @@
         <v>93</v>
       </c>
       <c r="B85" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C85" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D85" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="E85" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F85" t="b">
         <v>0</v>
@@ -3787,10 +3802,10 @@
         <v>94</v>
       </c>
       <c r="B86" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C86" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F86" t="b">
         <v>0</v>
@@ -3801,16 +3816,16 @@
         <v>95</v>
       </c>
       <c r="B87" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C87" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F87" t="b">
         <v>1</v>
       </c>
       <c r="I87" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
@@ -3818,10 +3833,10 @@
         <v>96</v>
       </c>
       <c r="B88" t="s">
+        <v>135</v>
+      </c>
+      <c r="C88" t="s">
         <v>137</v>
-      </c>
-      <c r="C88" t="s">
-        <v>139</v>
       </c>
       <c r="F88" t="b">
         <v>0</v>
@@ -3829,22 +3844,22 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B89" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C89" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F89" t="b">
         <v>1</v>
       </c>
       <c r="I89" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="K89" s="9" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="L89" t="s">
         <v>16</v>
@@ -3852,22 +3867,22 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B90" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C90" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F90" t="b">
         <v>1</v>
       </c>
       <c r="I90" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="K90" s="9" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="L90" t="s">
         <v>16</v>
@@ -3875,19 +3890,19 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B91" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C91" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F91" t="b">
         <v>1</v>
       </c>
       <c r="K91" s="9" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="L91" t="s">
         <v>16</v>
@@ -3895,19 +3910,19 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B92" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C92" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F92" t="b">
         <v>1</v>
       </c>
       <c r="K92" s="9" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="L92" t="s">
         <v>16</v>
@@ -3915,19 +3930,19 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B93" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C93" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F93" t="b">
         <v>1</v>
       </c>
       <c r="K93" s="9" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="L93" t="s">
         <v>16</v>
@@ -3935,19 +3950,19 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B94" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C94" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F94" t="b">
         <v>1</v>
       </c>
       <c r="K94" s="9" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="L94" t="s">
         <v>16</v>
@@ -3955,19 +3970,19 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B95" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C95" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F95" t="b">
         <v>1</v>
       </c>
       <c r="K95" s="9" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="L95" t="s">
         <v>16</v>
@@ -3975,19 +3990,19 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B96" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C96" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F96" t="b">
         <v>1</v>
       </c>
       <c r="K96" s="9" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="L96" t="s">
         <v>16</v>
@@ -3995,19 +4010,19 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B97" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C97" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F97" t="b">
         <v>1</v>
       </c>
       <c r="K97" s="9" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="L97" t="s">
         <v>16</v>
@@ -4015,19 +4030,19 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B98" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C98" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F98" t="b">
         <v>1</v>
       </c>
       <c r="K98" s="9" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="L98" t="s">
         <v>16</v>
@@ -4035,19 +4050,19 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B99" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C99" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F99" t="b">
         <v>1</v>
       </c>
       <c r="K99" s="9" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="L99" t="s">
         <v>16</v>
@@ -4055,19 +4070,19 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B100" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C100" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F100" t="b">
         <v>1</v>
       </c>
       <c r="K100" s="9" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="L100" t="s">
         <v>16</v>
@@ -4075,19 +4090,19 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B101" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C101" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F101" t="b">
         <v>1</v>
       </c>
       <c r="K101" s="9" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="L101" t="s">
         <v>16</v>
@@ -4095,19 +4110,19 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B102" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C102" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F102" t="b">
         <v>1</v>
       </c>
       <c r="K102" s="9" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="L102" t="s">
         <v>16</v>
@@ -4115,25 +4130,25 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B103" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="C103" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F103" t="b">
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="K103" t="s">
         <v>82</v>
       </c>
       <c r="L103" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
   </sheetData>
@@ -4146,8 +4161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4196,24 +4211,24 @@
         <v>9</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -4221,13 +4236,13 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -4241,7 +4256,7 @@
         <v>97</v>
       </c>
       <c r="C4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -4249,13 +4264,13 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B5" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -4263,30 +4278,33 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B6" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B7" t="s">
-        <v>188</v>
+        <v>571</v>
       </c>
       <c r="C7" t="s">
-        <v>139</v>
+        <v>137</v>
+      </c>
+      <c r="E7" t="s">
+        <v>401</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -4300,7 +4318,7 @@
         <v>99</v>
       </c>
       <c r="C8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -4311,16 +4329,16 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D9" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E9" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -4328,13 +4346,13 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B10" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
@@ -4342,16 +4360,19 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B11" t="s">
-        <v>189</v>
+        <v>573</v>
       </c>
       <c r="C11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D11" t="s">
-        <v>438</v>
+        <v>435</v>
+      </c>
+      <c r="E11" t="s">
+        <v>401</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -4362,16 +4383,16 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D12" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="E12" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -4382,19 +4403,19 @@
         <v>56</v>
       </c>
       <c r="B13" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C13" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E13" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -4402,19 +4423,19 @@
         <v>65</v>
       </c>
       <c r="B14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E14" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -4422,19 +4443,19 @@
         <v>66</v>
       </c>
       <c r="B15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E15" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -4442,42 +4463,42 @@
         <v>67</v>
       </c>
       <c r="B16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E16" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B17" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C17" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D17" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E17" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -4485,19 +4506,19 @@
         <v>69</v>
       </c>
       <c r="B18" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C18" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E18" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -4505,13 +4526,13 @@
         <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C19" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E19" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -4522,13 +4543,13 @@
         <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C20" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E20" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -4539,13 +4560,13 @@
         <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E21" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -4556,13 +4577,13 @@
         <v>63</v>
       </c>
       <c r="B22" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C22" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E22" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
@@ -4573,13 +4594,13 @@
         <v>49</v>
       </c>
       <c r="B23" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C23" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E23" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -4590,13 +4611,13 @@
         <v>84</v>
       </c>
       <c r="B24" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C24" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D24" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
@@ -4604,19 +4625,19 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B25" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C25" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D25" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="E25" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -4624,39 +4645,39 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B26" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C26" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D26" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="E26" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C27" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D27" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
@@ -4664,398 +4685,398 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B28" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C28" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E28" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B29" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C29" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E29" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B30" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C30" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="E30" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B31" t="s">
+        <v>409</v>
+      </c>
+      <c r="C31" t="s">
+        <v>140</v>
+      </c>
+      <c r="E31" t="s">
+        <v>401</v>
+      </c>
+      <c r="F31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" t="s">
         <v>412</v>
-      </c>
-      <c r="C31" t="s">
-        <v>142</v>
-      </c>
-      <c r="E31" t="s">
-        <v>404</v>
-      </c>
-      <c r="F31" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B32" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C32" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E32" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="33" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F33" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="34" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F34" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="35" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F35" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="36" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F36" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="37" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F37" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="38" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F38" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="39" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F39" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="40" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F40" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="41" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F41" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="42" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F42" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="43" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F43" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="44" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F44" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="45" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F45" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="46" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F46" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="47" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F47" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="48" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F48" s="7" t="b">
         <v>0</v>
@@ -5063,16 +5084,16 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B49" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C49" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D49" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F49" t="b">
         <v>0</v>
@@ -5080,16 +5101,16 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B50" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C50" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D50" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F50" t="b">
         <v>0</v>
@@ -5097,19 +5118,19 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B51" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C51" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D51" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="E51" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F51" t="b">
         <v>0</v>
@@ -5117,19 +5138,19 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B52" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C52" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D52" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="E52" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F52" t="b">
         <v>0</v>
@@ -5137,19 +5158,19 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B53" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C53" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D53" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="E53" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F53" t="b">
         <v>0</v>
@@ -5157,19 +5178,19 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B54" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C54" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D54" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="E54" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F54" t="b">
         <v>0</v>
@@ -5177,19 +5198,19 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B55" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C55" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D55" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="E55" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F55" t="b">
         <v>0</v>
@@ -5197,19 +5218,19 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B56" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C56" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D56" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E56" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F56" t="b">
         <v>0</v>
@@ -5217,16 +5238,16 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B57" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C57" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D57" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F57" t="b">
         <v>0</v>
@@ -5234,16 +5255,16 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B58" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C58" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D58" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F58" t="b">
         <v>0</v>
@@ -5259,7 +5280,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5308,27 +5329,27 @@
         <v>9</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D2" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -5336,13 +5357,13 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B3" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -5350,13 +5371,13 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B4" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -5364,13 +5385,16 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B5" t="s">
-        <v>188</v>
+        <v>571</v>
       </c>
       <c r="C5" t="s">
-        <v>139</v>
+        <v>137</v>
+      </c>
+      <c r="E5" t="s">
+        <v>401</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -5378,19 +5402,19 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B6" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E6" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -5398,19 +5422,19 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B7" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -5418,19 +5442,19 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B8" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D8" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E8" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -5438,13 +5462,13 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B9" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -5452,36 +5476,36 @@
     </row>
     <row r="10" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F10" s="6" t="b">
         <v>0</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B11" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -5489,119 +5513,119 @@
     </row>
     <row r="12" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F12" s="6" t="b">
         <v>0</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F13" s="4" t="b">
         <v>0</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F14" s="4" t="b">
         <v>0</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F15" s="4" t="b">
         <v>0</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="16" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F16" s="4" t="b">
         <v>0</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B17" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -5609,16 +5633,16 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B18" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C18" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D18" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -5633,8 +5657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5686,24 +5710,24 @@
         <v>83</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D2" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -5711,13 +5735,13 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B3" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -5725,13 +5749,16 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B4" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C4" t="s">
-        <v>141</v>
+        <v>139</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>423</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -5739,13 +5766,13 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B5" t="s">
-        <v>188</v>
+        <v>571</v>
       </c>
       <c r="C5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -5753,36 +5780,36 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B6" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -5790,19 +5817,19 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B8" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D8" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E8" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -5810,36 +5837,36 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B9" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="F10" s="11" t="b">
         <v>0</v>
@@ -5847,13 +5874,13 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B11" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -5861,16 +5888,16 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B12" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E12" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -5878,19 +5905,19 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B13" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D13" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E13" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -5898,16 +5925,16 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B14" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E14" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -5915,19 +5942,19 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B15" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D15" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E15" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -5935,13 +5962,13 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B16" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -5949,30 +5976,30 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B17" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C17" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
       </c>
       <c r="K17" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B18" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C18" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -5980,98 +6007,98 @@
     </row>
     <row r="19" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F19" s="4" t="b">
         <v>0</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F20" s="4" t="b">
         <v>0</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B21" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C21" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F21" t="b">
         <v>1</v>
       </c>
       <c r="K21" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F22" s="4" t="b">
         <v>0</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F23" s="4" t="b">
         <v>0</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B24" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C24" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
@@ -6087,7 +6114,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6136,24 +6163,24 @@
         <v>9</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D2" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -6161,13 +6188,13 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B3" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -6175,13 +6202,13 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B4" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -6189,13 +6216,16 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B5" t="s">
-        <v>188</v>
+        <v>571</v>
       </c>
       <c r="C5" t="s">
-        <v>139</v>
+        <v>137</v>
+      </c>
+      <c r="E5" t="s">
+        <v>401</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -6203,19 +6233,19 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B6" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E6" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -6223,19 +6253,19 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -6243,19 +6273,19 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B8" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D8" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E8" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -6263,16 +6293,16 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B9" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D9" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -6280,19 +6310,19 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B10" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D10" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E10" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -6300,16 +6330,16 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B11" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D11" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -6317,19 +6347,19 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B12" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D12" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E12" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -6337,13 +6367,13 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B13" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C13" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -6351,53 +6381,53 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B14" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E14" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B15" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E15" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B16" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -6405,13 +6435,13 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B17" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -6427,7 +6457,7 @@
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6477,27 +6507,27 @@
         <v>9</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D2" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -6505,13 +6535,13 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B3" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -6519,47 +6549,47 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B4" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B5" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B6" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -6567,13 +6597,13 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B7" t="s">
-        <v>188</v>
+        <v>571</v>
       </c>
       <c r="C7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -6581,16 +6611,16 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B8" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D8" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -6601,16 +6631,16 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D9" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="E9" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -6621,19 +6651,19 @@
         <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E10" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -6641,19 +6671,19 @@
         <v>65</v>
       </c>
       <c r="B11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E11" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -6661,19 +6691,19 @@
         <v>66</v>
       </c>
       <c r="B12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E12" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -6681,19 +6711,19 @@
         <v>67</v>
       </c>
       <c r="B13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C13" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E13" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -6701,19 +6731,19 @@
         <v>69</v>
       </c>
       <c r="B14" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E14" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -6721,19 +6751,19 @@
         <v>37</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F15" s="6" t="b">
         <v>0</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="16" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -6741,19 +6771,19 @@
         <v>39</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F16" s="6" t="b">
         <v>0</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -6761,19 +6791,19 @@
         <v>60</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F17" s="6" t="b">
         <v>0</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -6781,19 +6811,19 @@
         <v>63</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F18" s="6" t="b">
         <v>0</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -6801,19 +6831,19 @@
         <v>49</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F19" s="6" t="b">
         <v>0</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -6821,13 +6851,13 @@
         <v>84</v>
       </c>
       <c r="B20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C20" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D20" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -6835,19 +6865,19 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B21" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D21" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="E21" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -6855,36 +6885,36 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B22" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C22" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E22" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B23" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C23" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D23" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -6892,53 +6922,53 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B24" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C24" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E24" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B25" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C25" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E25" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B26" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C26" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
@@ -6946,13 +6976,13 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B27" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C27" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
@@ -6968,7 +6998,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:M1"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7020,24 +7050,24 @@
         <v>83</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D2" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -7045,13 +7075,13 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B3" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -7059,67 +7089,67 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B4" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B5" t="s">
-        <v>188</v>
-      </c>
-      <c r="C5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D5" t="s">
-        <v>215</v>
-      </c>
-      <c r="F5" t="b">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="F5" s="6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F6" s="7" t="b">
         <v>1</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -7127,53 +7157,53 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B8" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F9" s="7" t="b">
         <v>1</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B10" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E10" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -7181,53 +7211,53 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B11" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E11" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F12" s="7" t="b">
         <v>1</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B13" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C13" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E13" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -7235,53 +7265,53 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B14" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E14" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F15" s="7" t="b">
         <v>1</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B16" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C16" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E16" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -7289,36 +7319,36 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B17" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C17" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E17" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B18" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C18" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E18" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -7334,10 +7364,10 @@
   <dimension ref="A1:M52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J49" sqref="J49"/>
+      <selection pane="bottomRight" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7386,24 +7416,24 @@
         <v>9</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -7411,16 +7441,16 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B3" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D3" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -7428,16 +7458,16 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B4" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D4" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -7445,13 +7475,13 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B5" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -7459,16 +7489,16 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B6" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D6" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -7476,13 +7506,16 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B7" t="s">
-        <v>188</v>
+        <v>571</v>
       </c>
       <c r="C7" t="s">
-        <v>139</v>
+        <v>137</v>
+      </c>
+      <c r="E7" t="s">
+        <v>401</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -7490,13 +7523,13 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B8" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -7504,13 +7537,13 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B9" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -7518,16 +7551,16 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B10" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D10" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -7535,16 +7568,16 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B11" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D11" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -7552,16 +7585,16 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B12" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D12" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -7569,16 +7602,16 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B13" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D13" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -7586,16 +7619,16 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B14" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D14" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -7603,16 +7636,16 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B15" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D15" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -7620,16 +7653,16 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B16" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C16" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D16" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -7637,16 +7670,16 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B17" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C17" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D17" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -7654,16 +7687,16 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B18" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C18" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D18" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -7671,19 +7704,19 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B19" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D19" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E19" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -7691,19 +7724,19 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B20" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C20" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D20" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E20" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -7711,19 +7744,19 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B21" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D21" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E21" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -7731,19 +7764,19 @@
     </row>
     <row r="22" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F22" s="4" t="b">
         <v>0</v>
@@ -7751,16 +7784,16 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B23" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C23" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E23" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -7768,16 +7801,16 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B24" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C24" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E24" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
@@ -7785,42 +7818,42 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B25" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D25" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E25" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B26" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C26" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D26" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="E26" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
@@ -7828,16 +7861,16 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B27" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C27" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E27" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
@@ -7845,53 +7878,53 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B28" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C28" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D28" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E28" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="29" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F29" s="4" t="b">
         <v>0</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="30" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F30" s="4" t="b">
         <v>0</v>
@@ -7899,294 +7932,294 @@
     </row>
     <row r="31" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F31" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="32" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F32" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="33" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F33" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="34" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F34" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="35" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F35" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="36" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F36" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="37" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F37" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="38" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F38" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="39" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F39" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="40" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F40" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="41" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F41" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="42" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F42" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="43" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F43" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="44" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="F44" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="45" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F45" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="46" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="F46" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B47" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C47" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F47" t="b">
         <v>0</v>
@@ -8194,53 +8227,53 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B48" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C48" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E48" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B49" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C49" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E49" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F49" t="b">
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B50" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C50" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F50" t="b">
         <v>0</v>
@@ -8248,13 +8281,13 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B51" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C51" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F51" t="b">
         <v>0</v>
@@ -8262,13 +8295,13 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B52" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C52" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F52" t="b">
         <v>0</v>
@@ -8283,8 +8316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8333,21 +8366,21 @@
         <v>9</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -8355,16 +8388,16 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B3" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D3" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -8372,16 +8405,16 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B4" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D4" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -8389,13 +8422,13 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B5" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -8403,13 +8436,13 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B6" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
@@ -8417,13 +8450,16 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B7" t="s">
-        <v>188</v>
+        <v>571</v>
       </c>
       <c r="C7" t="s">
-        <v>139</v>
+        <v>137</v>
+      </c>
+      <c r="E7" t="s">
+        <v>401</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -8431,19 +8467,19 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B8" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D8" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E8" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -8451,19 +8487,19 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B9" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D9" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E9" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -8471,19 +8507,19 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B10" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D10" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E10" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -8491,19 +8527,19 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B11" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D11" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="E11" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -8511,16 +8547,16 @@
     </row>
     <row r="12" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F12" s="7" t="b">
         <v>0</v>
@@ -8528,16 +8564,16 @@
     </row>
     <row r="13" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F13" s="7" t="b">
         <v>0</v>
@@ -8545,16 +8581,16 @@
     </row>
     <row r="14" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F14" s="7" t="b">
         <v>0</v>
@@ -8562,16 +8598,16 @@
     </row>
     <row r="15" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F15" s="7" t="b">
         <v>0</v>
@@ -8579,16 +8615,16 @@
     </row>
     <row r="16" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F16" s="7" t="b">
         <v>0</v>
@@ -8596,16 +8632,16 @@
     </row>
     <row r="17" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F17" s="7" t="b">
         <v>0</v>
@@ -8613,16 +8649,16 @@
     </row>
     <row r="18" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F18" s="7" t="b">
         <v>0</v>
@@ -8630,16 +8666,16 @@
     </row>
     <row r="19" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F19" s="7" t="b">
         <v>0</v>
@@ -8647,16 +8683,16 @@
     </row>
     <row r="20" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F20" s="7" t="b">
         <v>0</v>
@@ -8664,16 +8700,16 @@
     </row>
     <row r="21" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F21" s="7" t="b">
         <v>0</v>
@@ -8681,16 +8717,16 @@
     </row>
     <row r="22" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F22" s="7" t="b">
         <v>0</v>
@@ -8698,16 +8734,16 @@
     </row>
     <row r="23" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F23" s="7" t="b">
         <v>0</v>
@@ -8715,16 +8751,16 @@
     </row>
     <row r="24" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F24" s="7" t="b">
         <v>0</v>
@@ -8732,16 +8768,16 @@
     </row>
     <row r="25" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F25" s="7" t="b">
         <v>0</v>
@@ -8749,16 +8785,16 @@
     </row>
     <row r="26" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F26" s="7" t="b">
         <v>0</v>
@@ -8766,16 +8802,16 @@
     </row>
     <row r="27" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F27" s="7" t="b">
         <v>0</v>
@@ -8783,13 +8819,13 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B28" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C28" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
@@ -8797,36 +8833,36 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B29" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C29" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E29" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B30" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C30" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E30" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
@@ -8834,13 +8870,13 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B31" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C31" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F31" t="b">
         <v>0</v>
@@ -8848,13 +8884,13 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B32" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C32" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
@@ -8862,16 +8898,16 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B33" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C33" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D33" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>

--- a/examples/oucru/oucru-dr/resources/outputs/templates/ccfgs_dr_data_fixed.xlsx
+++ b/examples/oucru/oucru-dr/resources/outputs/templates/ccfgs_dr_data_fixed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kelda\Desktop\repositories\github\datablend\main\examples\oucru\oucru-dr\resources\outputs\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49477A3-1A99-4CEA-9134-8026CCD38A62}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59465FD4-8DE3-49C7-8C77-E7E98AD71574}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="465" windowWidth="23730" windowHeight="16470" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24960" yWindow="1650" windowWidth="23730" windowHeight="16470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DR1_2232_ENROL" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="573">
   <si>
     <t>from_name</t>
   </si>
@@ -366,12 +366,6 @@
   </si>
   <si>
     <t>cough</t>
-  </si>
-  <si>
-    <t>historical</t>
-  </si>
-  <si>
-    <t>historical_desc</t>
   </si>
   <si>
     <t>medicine</t>
@@ -1496,9 +1490,6 @@
     <t>igg</t>
   </si>
   <si>
-    <t>pcr _dengue_interpretation</t>
-  </si>
-  <si>
     <t>urine?</t>
   </si>
   <si>
@@ -1760,10 +1751,16 @@
     <t>day_from_illness</t>
   </si>
   <si>
-    <t>skin_reash_description</t>
-  </si>
-  <si>
     <t>care_type</t>
+  </si>
+  <si>
+    <t>skin_rash_description</t>
+  </si>
+  <si>
+    <t>past_medical_history</t>
+  </si>
+  <si>
+    <t>past_medical_history_description</t>
   </si>
 </sst>
 </file>
@@ -2221,17 +2218,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D62" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D40" sqref="D40"/>
+      <selection pane="bottomRight" activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.85546875" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" customWidth="1"/>
     <col min="4" max="4" width="59.85546875" customWidth="1"/>
     <col min="5" max="5" width="26.140625" customWidth="1"/>
@@ -2276,13 +2273,13 @@
         <v>9</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -2293,7 +2290,7 @@
         <v>97</v>
       </c>
       <c r="C2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -2304,10 +2301,10 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -2318,19 +2315,19 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E4" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -2341,7 +2338,7 @@
         <v>98</v>
       </c>
       <c r="C5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -2355,7 +2352,7 @@
         <v>99</v>
       </c>
       <c r="C6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -2366,16 +2363,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
+        <v>369</v>
+      </c>
+      <c r="C7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" t="s">
+        <v>429</v>
+      </c>
+      <c r="E7" t="s">
         <v>371</v>
-      </c>
-      <c r="C7" t="s">
-        <v>136</v>
-      </c>
-      <c r="D7" t="s">
-        <v>431</v>
-      </c>
-      <c r="E7" t="s">
-        <v>373</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -2386,16 +2383,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -2406,10 +2403,10 @@
         <v>100</v>
       </c>
       <c r="C9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -2423,7 +2420,7 @@
         <v>101</v>
       </c>
       <c r="C10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -2437,7 +2434,7 @@
         <v>102</v>
       </c>
       <c r="C11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -2451,7 +2448,7 @@
         <v>103</v>
       </c>
       <c r="C12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -2465,7 +2462,7 @@
         <v>104</v>
       </c>
       <c r="C13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -2476,19 +2473,19 @@
         <v>22</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F14" s="4" t="b">
         <v>0</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -2499,13 +2496,13 @@
         <v>105</v>
       </c>
       <c r="C15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D15" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E15" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -2516,19 +2513,19 @@
         <v>24</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F16" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -2539,13 +2536,13 @@
         <v>106</v>
       </c>
       <c r="C17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D17" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E17" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -2556,19 +2553,19 @@
         <v>26</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F18" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -2579,13 +2576,13 @@
         <v>107</v>
       </c>
       <c r="C19" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D19" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E19" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -2596,16 +2593,16 @@
         <v>28</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F20" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -2613,16 +2610,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D21" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E21" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -2633,16 +2630,16 @@
         <v>30</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F22" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -2650,16 +2647,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C23" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D23" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E23" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -2670,16 +2667,16 @@
         <v>32</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F24" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -2687,16 +2684,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C25" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D25" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E25" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -2707,16 +2704,16 @@
         <v>34</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F26" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -2724,16 +2721,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C27" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D27" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E27" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
@@ -2744,16 +2741,16 @@
         <v>36</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F28" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -2761,16 +2758,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C29" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D29" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E29" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
@@ -2781,16 +2778,16 @@
         <v>38</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F30" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -2798,16 +2795,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C31" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D31" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E31" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="F31" t="b">
         <v>0</v>
@@ -2818,16 +2815,16 @@
         <v>40</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F32" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -2838,13 +2835,13 @@
         <v>108</v>
       </c>
       <c r="C33" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D33" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E33" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
@@ -2855,16 +2852,16 @@
         <v>42</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F34" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -2872,16 +2869,16 @@
         <v>43</v>
       </c>
       <c r="B35" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C35" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D35" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E35" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
@@ -2892,16 +2889,16 @@
         <v>44</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F36" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -2909,16 +2906,16 @@
         <v>45</v>
       </c>
       <c r="B37" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C37" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D37" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E37" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
@@ -2929,16 +2926,16 @@
         <v>46</v>
       </c>
       <c r="B38" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C38" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
@@ -2949,16 +2946,16 @@
         <v>47</v>
       </c>
       <c r="B39" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C39" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D39" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E39" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
@@ -2969,16 +2966,16 @@
         <v>48</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F40" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -2986,16 +2983,16 @@
         <v>49</v>
       </c>
       <c r="B41" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C41" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D41" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E41" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="F41" t="b">
         <v>0</v>
@@ -3006,16 +3003,16 @@
         <v>50</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F42" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -3023,10 +3020,10 @@
         <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C43" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F43" t="b">
         <v>0</v>
@@ -3037,16 +3034,16 @@
         <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>109</v>
+        <v>571</v>
       </c>
       <c r="C44" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D44" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E44" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
@@ -3057,16 +3054,16 @@
         <v>53</v>
       </c>
       <c r="B45" t="s">
-        <v>110</v>
+        <v>572</v>
       </c>
       <c r="C45" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D45" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E45" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F45" t="b">
         <v>0</v>
@@ -3077,16 +3074,16 @@
         <v>54</v>
       </c>
       <c r="B46" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C46" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D46" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E46" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F46" t="b">
         <v>0</v>
@@ -3097,16 +3094,16 @@
         <v>55</v>
       </c>
       <c r="B47" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E47" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F47" t="b">
         <v>0</v>
@@ -3117,13 +3114,13 @@
         <v>56</v>
       </c>
       <c r="B48" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C48" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E48" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
@@ -3134,19 +3131,19 @@
         <v>57</v>
       </c>
       <c r="B49" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C49" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E49" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F49" t="b">
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="50" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3154,16 +3151,16 @@
         <v>58</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F50" s="6" t="b">
         <v>0</v>
@@ -3174,13 +3171,13 @@
         <v>59</v>
       </c>
       <c r="B51" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C51" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F51" t="b">
         <v>0</v>
@@ -3191,16 +3188,16 @@
         <v>60</v>
       </c>
       <c r="B52" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C52" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D52" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E52" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F52" t="b">
         <v>0</v>
@@ -3211,16 +3208,16 @@
         <v>61</v>
       </c>
       <c r="B53" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C53" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D53" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E53" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F53" t="b">
         <v>0</v>
@@ -3231,16 +3228,16 @@
         <v>62</v>
       </c>
       <c r="B54" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C54" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D54" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E54" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F54" t="b">
         <v>0</v>
@@ -3251,16 +3248,16 @@
         <v>63</v>
       </c>
       <c r="B55" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C55" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D55" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E55" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F55" t="b">
         <v>0</v>
@@ -3271,16 +3268,16 @@
         <v>64</v>
       </c>
       <c r="B56" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C56" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E56" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F56" t="b">
         <v>0</v>
@@ -3291,19 +3288,19 @@
         <v>65</v>
       </c>
       <c r="B57" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C57" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E57" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F57" t="b">
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -3311,19 +3308,19 @@
         <v>66</v>
       </c>
       <c r="B58" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C58" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E58" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F58" t="b">
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -3331,19 +3328,19 @@
         <v>67</v>
       </c>
       <c r="B59" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C59" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E59" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F59" t="b">
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -3351,22 +3348,22 @@
         <v>68</v>
       </c>
       <c r="B60" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C60" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D60" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E60" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F60" t="b">
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -3374,19 +3371,19 @@
         <v>69</v>
       </c>
       <c r="B61" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C61" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F61" t="b">
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="62" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3394,16 +3391,16 @@
         <v>70</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F62" s="4" t="b">
         <v>0</v>
@@ -3414,16 +3411,16 @@
         <v>71</v>
       </c>
       <c r="B63" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C63" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D63" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E63" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F63" t="b">
         <v>0</v>
@@ -3434,16 +3431,16 @@
         <v>72</v>
       </c>
       <c r="B64" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C64" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D64" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E64" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F64" t="b">
         <v>0</v>
@@ -3454,22 +3451,22 @@
         <v>73</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F65" s="4" t="b">
         <v>0</v>
       </c>
       <c r="M65" s="4" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -3477,10 +3474,10 @@
         <v>74</v>
       </c>
       <c r="B66" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C66" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F66" t="b">
         <v>0</v>
@@ -3491,16 +3488,16 @@
         <v>75</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F67" s="4" t="b">
         <v>0</v>
       </c>
       <c r="M67" s="4" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="68" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3508,19 +3505,19 @@
         <v>76</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F68" s="4" t="b">
         <v>0</v>
       </c>
       <c r="M68" s="4" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -3528,16 +3525,16 @@
         <v>77</v>
       </c>
       <c r="B69" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C69" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D69" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E69" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F69" t="b">
         <v>0</v>
@@ -3548,13 +3545,13 @@
         <v>78</v>
       </c>
       <c r="B70" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C70" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D70" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F70" t="b">
         <v>0</v>
@@ -3565,10 +3562,10 @@
         <v>79</v>
       </c>
       <c r="B71" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C71" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F71" t="b">
         <v>0</v>
@@ -3579,10 +3576,10 @@
         <v>80</v>
       </c>
       <c r="B72" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C72" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F72" t="b">
         <v>0</v>
@@ -3593,10 +3590,10 @@
         <v>81</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F73" s="4" t="b">
         <v>0</v>
@@ -3607,10 +3604,10 @@
         <v>82</v>
       </c>
       <c r="B74" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C74" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F74" t="b">
         <v>0</v>
@@ -3621,10 +3618,10 @@
         <v>83</v>
       </c>
       <c r="B75" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C75" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F75" t="b">
         <v>0</v>
@@ -3635,13 +3632,13 @@
         <v>84</v>
       </c>
       <c r="B76" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C76" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D76" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F76" t="b">
         <v>0</v>
@@ -3652,10 +3649,10 @@
         <v>85</v>
       </c>
       <c r="B77" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C77" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F77" t="b">
         <v>0</v>
@@ -3666,13 +3663,13 @@
         <v>86</v>
       </c>
       <c r="B78" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C78" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D78" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F78" t="b">
         <v>0</v>
@@ -3683,10 +3680,10 @@
         <v>87</v>
       </c>
       <c r="B79" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C79" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F79" t="b">
         <v>0</v>
@@ -3697,13 +3694,13 @@
         <v>88</v>
       </c>
       <c r="B80" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C80" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D80" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F80" t="b">
         <v>0</v>
@@ -3714,13 +3711,13 @@
         <v>89</v>
       </c>
       <c r="B81" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C81" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D81" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F81" t="b">
         <v>0</v>
@@ -3731,19 +3728,19 @@
         <v>90</v>
       </c>
       <c r="B82" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C82" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F82" t="b">
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="M82" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
@@ -3751,10 +3748,10 @@
         <v>91</v>
       </c>
       <c r="B83" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C83" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F83" t="b">
         <v>0</v>
@@ -3765,16 +3762,16 @@
         <v>92</v>
       </c>
       <c r="B84" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C84" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F84" t="b">
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -3782,16 +3779,16 @@
         <v>93</v>
       </c>
       <c r="B85" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C85" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D85" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E85" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F85" t="b">
         <v>0</v>
@@ -3802,10 +3799,10 @@
         <v>94</v>
       </c>
       <c r="B86" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C86" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F86" t="b">
         <v>0</v>
@@ -3816,16 +3813,16 @@
         <v>95</v>
       </c>
       <c r="B87" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C87" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F87" t="b">
         <v>1</v>
       </c>
       <c r="I87" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
@@ -3833,10 +3830,10 @@
         <v>96</v>
       </c>
       <c r="B88" t="s">
+        <v>133</v>
+      </c>
+      <c r="C88" t="s">
         <v>135</v>
-      </c>
-      <c r="C88" t="s">
-        <v>137</v>
       </c>
       <c r="F88" t="b">
         <v>0</v>
@@ -3844,22 +3841,22 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B89" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C89" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F89" t="b">
         <v>1</v>
       </c>
       <c r="I89" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="K89" s="9" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="L89" t="s">
         <v>16</v>
@@ -3867,22 +3864,22 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B90" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C90" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F90" t="b">
         <v>1</v>
       </c>
       <c r="I90" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="K90" s="9" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="L90" t="s">
         <v>16</v>
@@ -3890,19 +3887,19 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B91" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C91" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F91" t="b">
         <v>1</v>
       </c>
       <c r="K91" s="9" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="L91" t="s">
         <v>16</v>
@@ -3910,19 +3907,19 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B92" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C92" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F92" t="b">
         <v>1</v>
       </c>
       <c r="K92" s="9" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="L92" t="s">
         <v>16</v>
@@ -3930,19 +3927,19 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B93" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C93" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F93" t="b">
         <v>1</v>
       </c>
       <c r="K93" s="9" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="L93" t="s">
         <v>16</v>
@@ -3950,19 +3947,19 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B94" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C94" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F94" t="b">
         <v>1</v>
       </c>
       <c r="K94" s="9" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="L94" t="s">
         <v>16</v>
@@ -3970,19 +3967,19 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B95" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C95" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F95" t="b">
         <v>1</v>
       </c>
       <c r="K95" s="9" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="L95" t="s">
         <v>16</v>
@@ -3990,19 +3987,19 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B96" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C96" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F96" t="b">
         <v>1</v>
       </c>
       <c r="K96" s="9" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="L96" t="s">
         <v>16</v>
@@ -4010,19 +4007,19 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B97" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C97" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F97" t="b">
         <v>1</v>
       </c>
       <c r="K97" s="9" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="L97" t="s">
         <v>16</v>
@@ -4030,19 +4027,19 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B98" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C98" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F98" t="b">
         <v>1</v>
       </c>
       <c r="K98" s="9" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="L98" t="s">
         <v>16</v>
@@ -4050,19 +4047,19 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B99" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C99" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F99" t="b">
         <v>1</v>
       </c>
       <c r="K99" s="9" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="L99" t="s">
         <v>16</v>
@@ -4070,19 +4067,19 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B100" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C100" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F100" t="b">
         <v>1</v>
       </c>
       <c r="K100" s="9" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="L100" t="s">
         <v>16</v>
@@ -4090,19 +4087,19 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B101" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C101" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F101" t="b">
         <v>1</v>
       </c>
       <c r="K101" s="9" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="L101" t="s">
         <v>16</v>
@@ -4110,19 +4107,19 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B102" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C102" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F102" t="b">
         <v>1</v>
       </c>
       <c r="K102" s="9" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="L102" t="s">
         <v>16</v>
@@ -4130,25 +4127,25 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B103" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C103" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F103" t="b">
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="K103" t="s">
         <v>82</v>
       </c>
       <c r="L103" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
   </sheetData>
@@ -4211,24 +4208,24 @@
         <v>9</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -4236,13 +4233,13 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -4256,7 +4253,7 @@
         <v>97</v>
       </c>
       <c r="C4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -4264,13 +4261,13 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -4278,33 +4275,33 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B6" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B7" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -4318,7 +4315,7 @@
         <v>99</v>
       </c>
       <c r="C8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -4329,16 +4326,16 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D9" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E9" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -4346,13 +4343,13 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B10" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
@@ -4360,19 +4357,19 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="C11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D11" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E11" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -4386,13 +4383,13 @@
         <v>105</v>
       </c>
       <c r="C12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D12" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E12" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -4403,19 +4400,19 @@
         <v>56</v>
       </c>
       <c r="B13" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E13" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -4423,19 +4420,19 @@
         <v>65</v>
       </c>
       <c r="B14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E14" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -4443,19 +4440,19 @@
         <v>66</v>
       </c>
       <c r="B15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E15" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -4463,42 +4460,42 @@
         <v>67</v>
       </c>
       <c r="B16" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E16" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B17" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D17" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E17" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -4506,19 +4503,19 @@
         <v>69</v>
       </c>
       <c r="B18" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C18" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E18" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -4526,13 +4523,13 @@
         <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C19" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E19" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -4543,13 +4540,13 @@
         <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C20" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E20" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -4560,13 +4557,13 @@
         <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E21" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -4577,13 +4574,13 @@
         <v>63</v>
       </c>
       <c r="B22" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C22" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
@@ -4594,13 +4591,13 @@
         <v>49</v>
       </c>
       <c r="B23" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C23" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E23" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -4611,13 +4608,13 @@
         <v>84</v>
       </c>
       <c r="B24" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C24" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D24" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
@@ -4625,19 +4622,19 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B25" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C25" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D25" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E25" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -4645,39 +4642,39 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B26" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D26" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E26" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B27" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C27" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D27" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
@@ -4685,398 +4682,398 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B28" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C28" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E28" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B29" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C29" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E29" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B30" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C30" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E30" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B31" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C31" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E31" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F31" t="b">
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B32" t="s">
+        <v>408</v>
+      </c>
+      <c r="C32" t="s">
+        <v>138</v>
+      </c>
+      <c r="E32" t="s">
+        <v>399</v>
+      </c>
+      <c r="F32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" t="s">
         <v>410</v>
-      </c>
-      <c r="C32" t="s">
-        <v>140</v>
-      </c>
-      <c r="E32" t="s">
-        <v>401</v>
-      </c>
-      <c r="F32" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="33" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F33" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="34" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F34" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="35" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F35" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="36" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F36" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="37" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F37" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="38" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F38" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="39" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F39" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="40" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F40" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="41" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F41" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="42" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F42" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="43" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F43" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="44" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F44" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="45" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F45" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="46" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F46" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="47" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F47" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="48" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F48" s="7" t="b">
         <v>0</v>
@@ -5084,16 +5081,16 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B49" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C49" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D49" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F49" t="b">
         <v>0</v>
@@ -5101,16 +5098,16 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B50" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C50" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D50" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F50" t="b">
         <v>0</v>
@@ -5118,19 +5115,19 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B51" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C51" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D51" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E51" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F51" t="b">
         <v>0</v>
@@ -5138,19 +5135,19 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B52" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C52" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D52" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E52" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F52" t="b">
         <v>0</v>
@@ -5158,19 +5155,19 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B53" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C53" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D53" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E53" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F53" t="b">
         <v>0</v>
@@ -5178,19 +5175,19 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B54" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C54" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D54" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E54" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F54" t="b">
         <v>0</v>
@@ -5198,19 +5195,19 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B55" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C55" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D55" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E55" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F55" t="b">
         <v>0</v>
@@ -5218,19 +5215,19 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B56" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C56" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D56" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E56" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F56" t="b">
         <v>0</v>
@@ -5238,16 +5235,16 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B57" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C57" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D57" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F57" t="b">
         <v>0</v>
@@ -5255,16 +5252,16 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B58" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C58" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D58" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F58" t="b">
         <v>0</v>
@@ -5280,7 +5277,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5329,27 +5326,27 @@
         <v>9</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -5357,13 +5354,13 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -5371,13 +5368,13 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -5385,16 +5382,16 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B5" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -5402,19 +5399,19 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D6" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -5422,19 +5419,19 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B7" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D7" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -5442,19 +5439,19 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B8" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D8" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E8" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -5462,13 +5459,13 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B9" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -5476,36 +5473,36 @@
     </row>
     <row r="10" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F10" s="6" t="b">
         <v>0</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B11" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -5513,119 +5510,119 @@
     </row>
     <row r="12" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F12" s="6" t="b">
         <v>0</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F13" s="4" t="b">
         <v>0</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F14" s="4" t="b">
         <v>0</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F15" s="4" t="b">
         <v>0</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="16" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F16" s="4" t="b">
         <v>0</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B17" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C17" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -5633,16 +5630,16 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B18" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C18" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D18" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -5657,8 +5654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5710,24 +5707,24 @@
         <v>83</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -5735,13 +5732,13 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -5749,16 +5746,16 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -5766,13 +5763,13 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B5" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -5780,36 +5777,36 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B7" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D7" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E7" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -5817,19 +5814,19 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B8" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D8" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E8" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -5837,36 +5834,36 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F10" s="11" t="b">
         <v>0</v>
@@ -5874,13 +5871,13 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B11" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -5888,16 +5885,16 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B12" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E12" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -5905,19 +5902,19 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B13" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D13" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E13" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -5925,16 +5922,16 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B14" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -5942,19 +5939,19 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B15" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D15" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E15" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -5962,13 +5959,13 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B16" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -5976,30 +5973,30 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B17" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C17" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
       </c>
       <c r="K17" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B18" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C18" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -6007,98 +6004,98 @@
     </row>
     <row r="19" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F19" s="4" t="b">
         <v>0</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F20" s="4" t="b">
         <v>0</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B21" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C21" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F21" t="b">
         <v>1</v>
       </c>
       <c r="K21" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F22" s="4" t="b">
         <v>0</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F23" s="4" t="b">
         <v>0</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B24" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C24" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
@@ -6114,7 +6111,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6163,24 +6160,24 @@
         <v>9</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -6188,13 +6185,13 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -6202,13 +6199,13 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -6216,16 +6213,16 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B5" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -6233,19 +6230,19 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B6" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -6253,19 +6250,19 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B7" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D7" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -6273,19 +6270,19 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B8" t="s">
-        <v>484</v>
+        <v>415</v>
       </c>
       <c r="C8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D8" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E8" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -6293,16 +6290,16 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B9" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -6310,19 +6307,19 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B10" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D10" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E10" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -6330,16 +6327,16 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B11" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D11" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -6347,19 +6344,19 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B12" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D12" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E12" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -6367,13 +6364,13 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B13" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -6381,53 +6378,53 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B14" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E14" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B15" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E15" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B16" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C16" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -6435,13 +6432,13 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B17" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C17" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -6507,27 +6504,27 @@
         <v>9</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -6535,13 +6532,13 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -6549,47 +6546,47 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B4" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -6597,13 +6594,13 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B7" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -6611,16 +6608,16 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B8" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D8" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -6634,13 +6631,13 @@
         <v>105</v>
       </c>
       <c r="C9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D9" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E9" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -6651,19 +6648,19 @@
         <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -6671,19 +6668,19 @@
         <v>65</v>
       </c>
       <c r="B11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E11" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -6691,19 +6688,19 @@
         <v>66</v>
       </c>
       <c r="B12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E12" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -6711,19 +6708,19 @@
         <v>67</v>
       </c>
       <c r="B13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E13" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -6731,19 +6728,19 @@
         <v>69</v>
       </c>
       <c r="B14" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E14" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -6751,19 +6748,19 @@
         <v>37</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F15" s="6" t="b">
         <v>0</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="16" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -6771,19 +6768,19 @@
         <v>39</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F16" s="6" t="b">
         <v>0</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -6791,19 +6788,19 @@
         <v>60</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F17" s="6" t="b">
         <v>0</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -6811,19 +6808,19 @@
         <v>63</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F18" s="6" t="b">
         <v>0</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -6831,19 +6828,19 @@
         <v>49</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F19" s="6" t="b">
         <v>0</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -6851,13 +6848,13 @@
         <v>84</v>
       </c>
       <c r="B20" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C20" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D20" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -6865,19 +6862,19 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B21" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D21" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E21" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -6885,36 +6882,36 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B22" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C22" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B23" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C23" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D23" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -6922,53 +6919,53 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B24" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C24" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E24" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C25" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E25" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B26" t="s">
+        <v>272</v>
+      </c>
+      <c r="C26" t="s">
         <v>274</v>
-      </c>
-      <c r="C26" t="s">
-        <v>276</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
@@ -6976,13 +6973,13 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B27" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C27" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
@@ -6998,7 +6995,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7050,24 +7047,24 @@
         <v>83</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -7075,13 +7072,13 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -7089,33 +7086,33 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F5" s="6" t="b">
         <v>0</v>
@@ -7123,33 +7120,33 @@
     </row>
     <row r="6" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F6" s="7" t="b">
         <v>1</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B7" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -7157,53 +7154,53 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B8" t="s">
+        <v>423</v>
+      </c>
+      <c r="C8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
         <v>425</v>
-      </c>
-      <c r="C8" t="s">
-        <v>138</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="F8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F9" s="7" t="b">
         <v>1</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B10" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E10" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -7211,53 +7208,53 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B11" t="s">
+        <v>423</v>
+      </c>
+      <c r="C11" t="s">
+        <v>136</v>
+      </c>
+      <c r="E11" t="s">
+        <v>399</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
         <v>425</v>
-      </c>
-      <c r="C11" t="s">
-        <v>138</v>
-      </c>
-      <c r="E11" t="s">
-        <v>401</v>
-      </c>
-      <c r="F11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F12" s="7" t="b">
         <v>1</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B13" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E13" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -7265,53 +7262,53 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B14" t="s">
+        <v>423</v>
+      </c>
+      <c r="C14" t="s">
+        <v>136</v>
+      </c>
+      <c r="E14" t="s">
+        <v>399</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
         <v>425</v>
-      </c>
-      <c r="C14" t="s">
-        <v>138</v>
-      </c>
-      <c r="E14" t="s">
-        <v>401</v>
-      </c>
-      <c r="F14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F15" s="7" t="b">
         <v>1</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B16" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E16" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -7319,36 +7316,36 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B17" t="s">
+        <v>423</v>
+      </c>
+      <c r="C17" t="s">
+        <v>134</v>
+      </c>
+      <c r="E17" t="s">
+        <v>399</v>
+      </c>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
         <v>425</v>
-      </c>
-      <c r="C17" t="s">
-        <v>136</v>
-      </c>
-      <c r="E17" t="s">
-        <v>401</v>
-      </c>
-      <c r="F17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B18" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C18" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E18" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -7416,24 +7413,24 @@
         <v>9</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -7441,16 +7438,16 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D3" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -7458,16 +7455,16 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D4" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -7475,13 +7472,13 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -7489,16 +7486,16 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D6" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -7506,16 +7503,16 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B7" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -7523,13 +7520,13 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B8" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -7537,13 +7534,13 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B9" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -7551,16 +7548,16 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B10" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D10" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -7568,16 +7565,16 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B11" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D11" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -7585,16 +7582,16 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B12" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D12" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -7602,16 +7599,16 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B13" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D13" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -7619,16 +7616,16 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B14" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D14" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -7636,16 +7633,16 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B15" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D15" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -7653,16 +7650,16 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B16" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D16" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -7670,16 +7667,16 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B17" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D17" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -7687,16 +7684,16 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B18" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C18" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D18" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -7704,19 +7701,19 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B19" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D19" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="E19" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -7724,19 +7721,19 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B20" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C20" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D20" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="E20" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -7744,19 +7741,19 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B21" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D21" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="E21" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -7764,19 +7761,19 @@
     </row>
     <row r="22" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F22" s="4" t="b">
         <v>0</v>
@@ -7784,16 +7781,16 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B23" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C23" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E23" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -7801,16 +7798,16 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B24" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C24" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E24" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
@@ -7818,42 +7815,42 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B25" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C25" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D25" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="E25" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B26" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D26" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E26" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
@@ -7861,16 +7858,16 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B27" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C27" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E27" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
@@ -7878,53 +7875,53 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B28" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C28" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D28" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="E28" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="29" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F29" s="4" t="b">
         <v>0</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="30" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F30" s="4" t="b">
         <v>0</v>
@@ -7932,294 +7929,294 @@
     </row>
     <row r="31" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F31" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="32" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F32" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="33" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F33" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="34" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F34" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="35" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F35" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="36" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F36" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="37" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F37" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="38" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F38" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="39" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F39" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="40" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F40" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="41" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F41" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="42" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F42" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="43" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F43" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="44" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F44" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="45" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="F45" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="46" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F46" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B47" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C47" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F47" t="b">
         <v>0</v>
@@ -8227,53 +8224,53 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B48" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C48" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E48" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B49" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C49" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E49" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F49" t="b">
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B50" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C50" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F50" t="b">
         <v>0</v>
@@ -8281,13 +8278,13 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B51" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C51" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F51" t="b">
         <v>0</v>
@@ -8295,13 +8292,13 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B52" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C52" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F52" t="b">
         <v>0</v>
@@ -8366,21 +8363,21 @@
         <v>9</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -8388,16 +8385,16 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D3" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -8405,16 +8402,16 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D4" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -8422,13 +8419,13 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -8436,13 +8433,13 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
@@ -8450,16 +8447,16 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B7" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -8467,19 +8464,19 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B8" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D8" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E8" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -8487,19 +8484,19 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B9" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D9" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E9" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -8507,19 +8504,19 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B10" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E10" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -8527,19 +8524,19 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B11" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D11" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="E11" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -8547,16 +8544,16 @@
     </row>
     <row r="12" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F12" s="7" t="b">
         <v>0</v>
@@ -8564,16 +8561,16 @@
     </row>
     <row r="13" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F13" s="7" t="b">
         <v>0</v>
@@ -8581,16 +8578,16 @@
     </row>
     <row r="14" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="F14" s="7" t="b">
         <v>0</v>
@@ -8598,16 +8595,16 @@
     </row>
     <row r="15" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="F15" s="7" t="b">
         <v>0</v>
@@ -8615,16 +8612,16 @@
     </row>
     <row r="16" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F16" s="7" t="b">
         <v>0</v>
@@ -8632,16 +8629,16 @@
     </row>
     <row r="17" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="F17" s="7" t="b">
         <v>0</v>
@@ -8649,16 +8646,16 @@
     </row>
     <row r="18" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F18" s="7" t="b">
         <v>0</v>
@@ -8666,16 +8663,16 @@
     </row>
     <row r="19" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F19" s="7" t="b">
         <v>0</v>
@@ -8683,16 +8680,16 @@
     </row>
     <row r="20" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="F20" s="7" t="b">
         <v>0</v>
@@ -8700,16 +8697,16 @@
     </row>
     <row r="21" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F21" s="7" t="b">
         <v>0</v>
@@ -8717,16 +8714,16 @@
     </row>
     <row r="22" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F22" s="7" t="b">
         <v>0</v>
@@ -8734,16 +8731,16 @@
     </row>
     <row r="23" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="F23" s="7" t="b">
         <v>0</v>
@@ -8751,16 +8748,16 @@
     </row>
     <row r="24" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F24" s="7" t="b">
         <v>0</v>
@@ -8768,16 +8765,16 @@
     </row>
     <row r="25" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F25" s="7" t="b">
         <v>0</v>
@@ -8785,16 +8782,16 @@
     </row>
     <row r="26" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="F26" s="7" t="b">
         <v>0</v>
@@ -8802,16 +8799,16 @@
     </row>
     <row r="27" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F27" s="7" t="b">
         <v>0</v>
@@ -8819,13 +8816,13 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B28" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C28" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
@@ -8833,36 +8830,36 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B29" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C29" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E29" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B30" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C30" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E30" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
@@ -8870,13 +8867,13 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B31" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C31" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F31" t="b">
         <v>0</v>
@@ -8884,13 +8881,13 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B32" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C32" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
@@ -8898,16 +8895,16 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B33" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C33" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D33" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
